--- a/database/BD/backup/precios.xlsx
+++ b/database/BD/backup/precios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\escri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\omni\database\BD\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="130">
   <si>
     <t>Tubos</t>
   </si>
@@ -393,6 +394,27 @@
   </si>
   <si>
     <t>Discos de concreto kamasa</t>
+  </si>
+  <si>
+    <t>Maria jesus</t>
+  </si>
+  <si>
+    <t>nueva luz</t>
+  </si>
+  <si>
+    <t>balcones verdes</t>
+  </si>
+  <si>
+    <t>santa rosita sector 5</t>
+  </si>
+  <si>
+    <t>Jicamarca</t>
+  </si>
+  <si>
+    <t>Planicie</t>
+  </si>
+  <si>
+    <t>Planisie</t>
   </si>
 </sst>
 </file>
@@ -711,15 +733,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B215"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1296,7 +1319,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>61</v>
       </c>
@@ -1304,12 +1327,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>62</v>
       </c>
@@ -1317,7 +1340,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>63</v>
       </c>
@@ -1325,12 +1348,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>32</v>
       </c>
@@ -1338,7 +1364,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>66</v>
       </c>
@@ -1346,7 +1372,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>30</v>
       </c>
@@ -1354,7 +1380,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>67</v>
       </c>
@@ -1362,7 +1388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>68</v>
       </c>
@@ -1370,7 +1396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>69</v>
       </c>
@@ -1378,12 +1404,12 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>71</v>
       </c>
@@ -1391,7 +1417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>72</v>
       </c>
@@ -1399,54 +1425,147 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>123</v>
+      </c>
+      <c r="D139" t="s">
+        <v>124</v>
+      </c>
+      <c r="E139" t="s">
+        <v>125</v>
+      </c>
+      <c r="F139" t="s">
+        <v>126</v>
+      </c>
+      <c r="G139" t="s">
+        <v>127</v>
+      </c>
+      <c r="H139" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B140">
         <v>50</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>70</v>
+      </c>
+      <c r="D140">
+        <v>70</v>
+      </c>
+      <c r="E140">
+        <v>70</v>
+      </c>
+      <c r="F140">
+        <v>80</v>
+      </c>
+      <c r="H140">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B141">
         <v>50</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>70</v>
+      </c>
+      <c r="D141">
+        <v>70</v>
+      </c>
+      <c r="E141">
+        <v>70</v>
+      </c>
+      <c r="F141">
+        <v>80</v>
+      </c>
+      <c r="H141">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B142">
         <v>50</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>70</v>
+      </c>
+      <c r="D142">
+        <v>70</v>
+      </c>
+      <c r="E142">
+        <v>70</v>
+      </c>
+      <c r="F142">
+        <v>80</v>
+      </c>
+      <c r="H142">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B143">
         <v>50</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>70</v>
+      </c>
+      <c r="D143">
+        <v>70</v>
+      </c>
+      <c r="E143">
+        <v>70</v>
+      </c>
+      <c r="F143">
+        <v>80</v>
+      </c>
+      <c r="H143">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B144">
         <v>60</v>
+      </c>
+      <c r="C144">
+        <v>80</v>
+      </c>
+      <c r="D144">
+        <v>80</v>
+      </c>
+      <c r="E144">
+        <v>80</v>
+      </c>
+      <c r="F144">
+        <v>80</v>
+      </c>
+      <c r="H144">
+        <v>80</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,4 +1932,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/database/BD/backup/precios.xlsx
+++ b/database/BD/backup/precios.xlsx
@@ -12,9 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Requerimientos" sheetId="1" r:id="rId1"/>
+    <sheet name="hoja con SQL" sheetId="2" r:id="rId2"/>
+    <sheet name="Maestra de unidades" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'hoja con SQL'!$A$1:$D$121</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="276">
   <si>
     <t>Tubos</t>
   </si>
@@ -246,9 +250,6 @@
     <t>16</t>
   </si>
   <si>
-    <t>Claves de luz</t>
-  </si>
-  <si>
     <t>Agregados</t>
   </si>
   <si>
@@ -408,13 +409,454 @@
     <t>santa rosita sector 5</t>
   </si>
   <si>
-    <t>Jicamarca</t>
-  </si>
-  <si>
     <t>Planicie</t>
   </si>
   <si>
-    <t>Planisie</t>
+    <t>Tubo de agua desague 4"</t>
+  </si>
+  <si>
+    <t>Tubo de agua desague 2"</t>
+  </si>
+  <si>
+    <t>Tubo de agua desague 3"</t>
+  </si>
+  <si>
+    <t>Tubo de agua 1/2"</t>
+  </si>
+  <si>
+    <t>Tubo de agua 3/4"</t>
+  </si>
+  <si>
+    <t>Tubo de agua caliente 1/2"</t>
+  </si>
+  <si>
+    <t>Tubo de luz 1"</t>
+  </si>
+  <si>
+    <t>Tubo de luz 3/4"</t>
+  </si>
+  <si>
+    <t>Yee sanitario de 4"</t>
+  </si>
+  <si>
+    <t>Yee sanitario de 2"</t>
+  </si>
+  <si>
+    <t>Codo de desague 4" 90°</t>
+  </si>
+  <si>
+    <t>Codo de desague 4" 45°</t>
+  </si>
+  <si>
+    <t>Codo de agua 3/4" 45°</t>
+  </si>
+  <si>
+    <t>Codo de desague 2" 90°</t>
+  </si>
+  <si>
+    <t>Codo de desague 2" 45°</t>
+  </si>
+  <si>
+    <t>Codo de agua 3/4" 90°</t>
+  </si>
+  <si>
+    <t>Codo de agua 1/2"</t>
+  </si>
+  <si>
+    <t>Codo de desague 4" a 2"</t>
+  </si>
+  <si>
+    <t>Codo de luz 1"</t>
+  </si>
+  <si>
+    <t>Codo de luz 3/4"</t>
+  </si>
+  <si>
+    <t>Tee de desague 4" x 4"</t>
+  </si>
+  <si>
+    <t>Yee sanitario de 4" x 2"</t>
+  </si>
+  <si>
+    <t>Tee de desague 4" x 2"</t>
+  </si>
+  <si>
+    <t>Tee de desague sanitaria 2"</t>
+  </si>
+  <si>
+    <t>Tee de agua 3/4"</t>
+  </si>
+  <si>
+    <t>Tee de agua 1/2"</t>
+  </si>
+  <si>
+    <t>Yee de desague 4" x 4"</t>
+  </si>
+  <si>
+    <t>Yee de desague 4" x 2"</t>
+  </si>
+  <si>
+    <t>Yee de desague 2"</t>
+  </si>
+  <si>
+    <t>Reduccion de desague 4" a 2"</t>
+  </si>
+  <si>
+    <t>Union de agua 1/2"</t>
+  </si>
+  <si>
+    <t>Union de agua 3/4"</t>
+  </si>
+  <si>
+    <t>Adaptador de agua 1/2"</t>
+  </si>
+  <si>
+    <t>Adaptador de agua 3/4"</t>
+  </si>
+  <si>
+    <t>Codo de agua caliente 1/2"</t>
+  </si>
+  <si>
+    <t>Adaptador de agua caliente 1/2"</t>
+  </si>
+  <si>
+    <t>Tee de agua caliente 1/2"</t>
+  </si>
+  <si>
+    <t>Niple de 1/2"</t>
+  </si>
+  <si>
+    <t>Codo galvanizado de 1/2"</t>
+  </si>
+  <si>
+    <t>Codo bronce de 1/2</t>
+  </si>
+  <si>
+    <t>Union bronce de 1/2"</t>
+  </si>
+  <si>
+    <t>Niple bronce de 1/2"</t>
+  </si>
+  <si>
+    <t>Tee bronce de 1/2"</t>
+  </si>
+  <si>
+    <t>Pegamento de PVC 1/4" dorado</t>
+  </si>
+  <si>
+    <t>Pegamento de PVC 1/8" dorado</t>
+  </si>
+  <si>
+    <t>Pegamento de PVC 1/8" azul</t>
+  </si>
+  <si>
+    <t>Pegamento de PVC 1/16" dorado</t>
+  </si>
+  <si>
+    <t>Pegamento de PVC 1/16" azul</t>
+  </si>
+  <si>
+    <t>Pegamento de PVC 1/32" dorado</t>
+  </si>
+  <si>
+    <t>Pegamento de PVC 1/32" azul</t>
+  </si>
+  <si>
+    <t>Pegamento de PVC agua caliente</t>
+  </si>
+  <si>
+    <t>Clavo de 4"</t>
+  </si>
+  <si>
+    <t>Clavo de 3"</t>
+  </si>
+  <si>
+    <t>Clavo de 2"</t>
+  </si>
+  <si>
+    <t>Clavo de 1"</t>
+  </si>
+  <si>
+    <t>Clavo de 1 y 1/2"</t>
+  </si>
+  <si>
+    <t>Clavo de calamina</t>
+  </si>
+  <si>
+    <t>Clavo de acero 2"</t>
+  </si>
+  <si>
+    <t>Clavo de acero 3"</t>
+  </si>
+  <si>
+    <t>Clavo de acero 4"</t>
+  </si>
+  <si>
+    <t>Llave termica bticino 32</t>
+  </si>
+  <si>
+    <t>Llave termica bticino 20</t>
+  </si>
+  <si>
+    <t>Llave termica bticino 16</t>
+  </si>
+  <si>
+    <t>Llave termica bticino 60</t>
+  </si>
+  <si>
+    <t>Llave termica stronger 60</t>
+  </si>
+  <si>
+    <t>Visagra de 3" capuchino (par)</t>
+  </si>
+  <si>
+    <t>Visagra de 3" (par)</t>
+  </si>
+  <si>
+    <t>Fierro de 3/4" siderperu</t>
+  </si>
+  <si>
+    <t>Fierro de 5/8" siderperu</t>
+  </si>
+  <si>
+    <t>Fierro de 1/2" siderperu</t>
+  </si>
+  <si>
+    <t>Fierro de 3/8" siderperu</t>
+  </si>
+  <si>
+    <t>Fierro de 8mm siderperu</t>
+  </si>
+  <si>
+    <t>Fierro de 1/4" 6mm  siderperu</t>
+  </si>
+  <si>
+    <t>Alambre N° 8</t>
+  </si>
+  <si>
+    <t>Alambre N° 16</t>
+  </si>
+  <si>
+    <t>Cable de luz N° 14</t>
+  </si>
+  <si>
+    <t>Cable de luz N° 12</t>
+  </si>
+  <si>
+    <t>Ladrillo pastelero (unidad)</t>
+  </si>
+  <si>
+    <t>Ladrillo de techo 15 x 30 (millar)</t>
+  </si>
+  <si>
+    <t>Ladrillo de techo 12 x 30 (millar)</t>
+  </si>
+  <si>
+    <t>Ladrillo de techo 8 x 30 (millar)</t>
+  </si>
+  <si>
+    <t>Ladrillo de 18 huecos limpio (millar)</t>
+  </si>
+  <si>
+    <t>Ladrillo de 18 huecos semi limpio (millar)</t>
+  </si>
+  <si>
+    <t>Ladrillo pandereta (millar)</t>
+  </si>
+  <si>
+    <t>Triplay</t>
+  </si>
+  <si>
+    <t>Calamina de 3.6 m</t>
+  </si>
+  <si>
+    <t>Calamina de 3.0 m</t>
+  </si>
+  <si>
+    <t>Cemento sol - tipo 1</t>
+  </si>
+  <si>
+    <t>Cemento andino - tipo 1</t>
+  </si>
+  <si>
+    <t>Cemento inka - azul</t>
+  </si>
+  <si>
+    <t>Cemento inka - rojo</t>
+  </si>
+  <si>
+    <t>Cemento andino - tipo 5</t>
+  </si>
+  <si>
+    <t>Cemento apu - tipo 1</t>
+  </si>
+  <si>
+    <t>Pegamento en polvo - celima</t>
+  </si>
+  <si>
+    <t>Fibraforte rojo</t>
+  </si>
+  <si>
+    <t>Fibraforte translucida</t>
+  </si>
+  <si>
+    <t>Fibraforte rojo economico</t>
+  </si>
+  <si>
+    <t>Rodillo de 12" - toro</t>
+  </si>
+  <si>
+    <t>Rodillo de 9" - toro</t>
+  </si>
+  <si>
+    <t>Fierro de 3/4" - siderperu</t>
+  </si>
+  <si>
+    <t>Fierro de 5/8"- siderperu</t>
+  </si>
+  <si>
+    <t>Fierro de 1/2" - siderperu</t>
+  </si>
+  <si>
+    <t>Fierro de 3/8" - siderperu</t>
+  </si>
+  <si>
+    <t>Fierro de 8mm - siderperu</t>
+  </si>
+  <si>
+    <t>Fierro de 1/4" 6mm - siderperu</t>
+  </si>
+  <si>
+    <t>Malla (x metro)</t>
+  </si>
+  <si>
+    <t>Foco de 85 W</t>
+  </si>
+  <si>
+    <t>Foco de 42 W</t>
+  </si>
+  <si>
+    <t>Foco de 32 W</t>
+  </si>
+  <si>
+    <t>Foco de 27 W</t>
+  </si>
+  <si>
+    <t>Foco LED de 7 W</t>
+  </si>
+  <si>
+    <t>Disco corte fierro de 4"</t>
+  </si>
+  <si>
+    <t>Disco corte fierro de 7"</t>
+  </si>
+  <si>
+    <t>Disco corte fierro de 9"</t>
+  </si>
+  <si>
+    <t>Disco corte fierro de 14"</t>
+  </si>
+  <si>
+    <t>Disco para concreto de 4" - dinamo</t>
+  </si>
+  <si>
+    <t>Disco para concreto de 15" - dinamo</t>
+  </si>
+  <si>
+    <t>Disco para concreto de 30" - dinamo</t>
+  </si>
+  <si>
+    <t>Disco para concreto de 4" - kamasa</t>
+  </si>
+  <si>
+    <t>Disco para concreto de 15" - kamasa</t>
+  </si>
+  <si>
+    <t>unidad</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>rollo</t>
+  </si>
+  <si>
+    <t>bolsa</t>
+  </si>
+  <si>
+    <t>caja</t>
+  </si>
+  <si>
+    <t>varilla</t>
+  </si>
+  <si>
+    <t>millar</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>envase</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>codUnidad</t>
+  </si>
+  <si>
+    <t>Codunidad</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>otro</t>
+  </si>
+  <si>
+    <t>10 de octubre</t>
+  </si>
+  <si>
+    <t>Arena gruesa</t>
+  </si>
+  <si>
+    <t>Arena fina</t>
+  </si>
+  <si>
+    <t>Piedra chancada</t>
+  </si>
+  <si>
+    <t>Piedra zanja</t>
+  </si>
+  <si>
+    <t>Piedra confitillo</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">', </t>
+  </si>
+  <si>
+    <t>INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( '</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ) ; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">, 'Activo', 0, 0, </t>
   </si>
 </sst>
 </file>
@@ -430,12 +872,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -450,9 +898,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,74 +1187,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,12 +1318,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -821,7 +1331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,633 +1339,1035 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B20">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="D25" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="D26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="D27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="D28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="D29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="D30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="D31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>42463</v>
+      <c r="D35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B39">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B41">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42401</v>
+      <c r="D42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B43">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B46">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B51">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D54" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B55">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B59">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D59" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D62" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D63" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B64">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D64" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D68" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B72">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D72" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B75">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D75" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E75" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D78" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E78" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B81">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D81" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B84">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D84" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E84" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B88">
         <v>28</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D88" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E88" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B89">
         <v>15</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D89" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E89" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B90">
         <v>25</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D90" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E90" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B91">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D91" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E91" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B92">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D92" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E92" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B93">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D93" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E93" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B94">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D94" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E94" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B97">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D97" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E97" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D99" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E99" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D100" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B101">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D101" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B102">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D102" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B103">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D103" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E103" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B105">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D105" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E105" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D107" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E107" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B108">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D108" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E108" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D109" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E109" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B111">
         <v>38</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D111" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E111" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B112">
         <v>50</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E112" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B113">
         <v>18</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E113" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D114" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E114" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D115" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E115" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B117">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E117" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B118">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E118" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C121" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B122">
         <v>58</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E122" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B123">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E123" s="3">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B124">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E124" s="3">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B125">
         <v>15</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E125" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B126">
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E126" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B127">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D127" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E127" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B131">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D131" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E131" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B132">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="D132" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E132" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="B139" t="s">
+        <v>264</v>
+      </c>
+      <c r="C139" t="s">
+        <v>122</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F139" t="s">
+        <v>125</v>
+      </c>
+      <c r="G139" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C139" t="s">
-        <v>123</v>
-      </c>
-      <c r="D139" t="s">
-        <v>124</v>
-      </c>
-      <c r="E139" t="s">
-        <v>125</v>
-      </c>
-      <c r="F139" t="s">
-        <v>126</v>
-      </c>
-      <c r="G139" t="s">
-        <v>127</v>
-      </c>
-      <c r="H139" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="B140">
         <v>50</v>
@@ -1463,22 +2375,22 @@
       <c r="C140">
         <v>70</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="2">
         <v>70</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="3">
         <v>70</v>
       </c>
       <c r="F140">
         <v>80</v>
       </c>
-      <c r="H140">
+      <c r="G140">
         <v>70</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B141">
         <v>50</v>
@@ -1486,22 +2398,22 @@
       <c r="C141">
         <v>70</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="2">
         <v>70</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="3">
         <v>70</v>
       </c>
       <c r="F141">
         <v>80</v>
       </c>
-      <c r="H141">
+      <c r="G141">
         <v>70</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B142">
         <v>50</v>
@@ -1509,22 +2421,22 @@
       <c r="C142">
         <v>70</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="2">
         <v>70</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="3">
         <v>70</v>
       </c>
       <c r="F142">
         <v>80</v>
       </c>
-      <c r="H142">
+      <c r="G142">
         <v>70</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B143">
         <v>50</v>
@@ -1532,22 +2444,22 @@
       <c r="C143">
         <v>70</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="2">
         <v>70</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="3">
         <v>70</v>
       </c>
       <c r="F143">
         <v>80</v>
       </c>
-      <c r="H143">
+      <c r="G143">
         <v>70</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B144">
         <v>60</v>
@@ -1555,393 +2467,5976 @@
       <c r="C144">
         <v>80</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="2">
         <v>80</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="3">
         <v>80</v>
       </c>
       <c r="F144">
         <v>80</v>
       </c>
-      <c r="H144">
+      <c r="G144">
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B149">
         <v>80</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D149" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E149" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B150">
         <v>145</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D150" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E150" s="3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="B155">
         <v>410</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D155" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E155" s="3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B156">
         <v>560</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D156" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E156" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B157">
         <v>670</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D157" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E157" s="3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B158">
         <v>2100</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D158" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E158" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B159">
         <v>2100</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D159" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E159" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B160">
         <v>2000</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D160" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E160" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B161">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D161" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E161" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B164">
         <v>24</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D164" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E164" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B165">
         <v>14</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D165" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E165" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B166">
         <v>12</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D166" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E166" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="B170">
         <v>21</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D170" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E170" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B171">
         <v>23</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D171" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E171" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B172">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D172" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E172" s="3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B173">
         <v>20</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D173" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E173" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B174">
         <v>27</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D174" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E174" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B175">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D175" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E175" s="3">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="B179">
         <v>14</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D179" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E179" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B182">
         <v>24</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D182" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E182" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B183">
         <v>32</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D183" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E183" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B184">
         <v>16</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D184" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E184" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B187">
         <v>5</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D187" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E187" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B188">
         <v>14</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D188" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E188" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B189">
         <v>12</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D189" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E189" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B190">
         <v>7</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D190" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E190" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="B194">
         <v>14</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D194" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E194" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B195">
         <v>7</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D195" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E195" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B196">
         <v>5</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D196" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E196" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B197">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D197" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E197" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B198">
         <v>13</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D198" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E198" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="B202">
         <v>5</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D202" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E202" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B203">
         <v>8</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D203" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E203" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B204">
         <v>12</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D204" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E204" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B205">
         <v>20</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D205" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E205" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B209">
         <v>8</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D209" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E209" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B210">
         <v>15</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D210" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E210" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B211">
         <v>30</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D211" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E211" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B214">
         <v>9</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D214" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E214" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B215">
         <v>22</v>
       </c>
+      <c r="D215" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E215" s="3">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="129.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>VLOOKUP(B2,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2" t="str">
+        <f>C2</f>
+        <v>Acido muriatico 1L</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J2" s="3">
+        <f>D2</f>
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>275</v>
+      </c>
+      <c r="L2">
+        <f>A2</f>
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>274</v>
+      </c>
+      <c r="N2" t="str">
+        <f>CONCATENATE(G2,H2,I2,J2,K2,L2,M2)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Acido muriatico 1L', 5, 'Activo', 0, 0, 7 ) ; </v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>VLOOKUP(B3,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="0">C3</f>
+        <v>Adaptador de agua 1/2"</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J66" si="1">D3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>275</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="2">A3</f>
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>274</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N66" si="3">CONCATENATE(G3,H3,I3,J3,K3,L3,M3)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Adaptador de agua 1/2"', 1, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>VLOOKUP(B4,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>Adaptador de agua 3/4"</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>275</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>274</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Adaptador de agua 3/4"', 2.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>VLOOKUP(B5,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>Adaptador de agua caliente 1/2"</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>275</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>274</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Adaptador de agua caliente 1/2"', 1, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>VLOOKUP(B6,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>Alambre N° 16</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>275</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M6" t="s">
+        <v>274</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Alambre N° 16', 4, 'Activo', 0, 0, 6 ) ; </v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>VLOOKUP(B7,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>Alambre N° 8</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M7" t="s">
+        <v>274</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Alambre N° 8', 4, 'Activo', 0, 0, 6 ) ; </v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>VLOOKUP(B8,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="3">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>Arena fina</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="K8" t="s">
+        <v>275</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>274</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Arena fina', 60, 'Activo', 0, 0, 2 ) ; </v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>VLOOKUP(B9,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>273</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>Arena gruesa</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>275</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>274</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Arena gruesa', 50, 'Activo', 0, 0, 2 ) ; </v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>VLOOKUP(B10,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="3">
+        <v>145</v>
+      </c>
+      <c r="G10" t="s">
+        <v>273</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>Cable de luz N° 12</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="K10" t="s">
+        <v>275</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
+        <v>274</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cable de luz N° 12', 145, 'Activo', 0, 0, 10 ) ; </v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>VLOOKUP(B11,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="3">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>273</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>Cable de luz N° 14</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="K11" t="s">
+        <v>275</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>274</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cable de luz N° 14', 80, 'Activo', 0, 0, 10 ) ; </v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>VLOOKUP(B12,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="3">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>Calamina de 3.0 m</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>275</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>274</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Calamina de 3.0 m', 12, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>VLOOKUP(B13,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="3">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>273</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>Calamina de 3.6 m</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>275</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M13" t="s">
+        <v>274</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Calamina de 3.6 m', 14, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>VLOOKUP(B14,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="3">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>273</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>Cemento andino - tipo 1</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>275</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>274</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento andino - tipo 1', 23, 'Activo', 0, 0, 1 ) ; </v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>VLOOKUP(B15,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="3">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>273</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>Cemento andino - tipo 5</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>275</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>274</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento andino - tipo 5', 27, 'Activo', 0, 0, 1 ) ; </v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>VLOOKUP(B16,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>273</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>Cemento apu - tipo 1</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>275</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>274</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento apu - tipo 1', 19.5, 'Activo', 0, 0, 1 ) ; </v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>VLOOKUP(B17,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>273</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>Cemento inka - azul</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>275</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>274</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento inka - azul', 22.5, 'Activo', 0, 0, 1 ) ; </v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>VLOOKUP(B18,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="3">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>273</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>Cemento inka - rojo</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>275</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>274</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento inka - rojo', 20, 'Activo', 0, 0, 1 ) ; </v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>VLOOKUP(B19,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="3">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>273</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>Cemento sol - tipo 1</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>275</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento sol - tipo 1', 21, 'Activo', 0, 0, 1 ) ; </v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>VLOOKUP(B20,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>273</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>Clavo de 1 y 1/2"</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K20" t="s">
+        <v>275</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M20" t="s">
+        <v>274</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo de 1 y 1/2"', 8, 'Activo', 0, 0, 6 ) ; </v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>VLOOKUP(B21,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="3">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>273</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>Clavo de 1"</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K21" t="s">
+        <v>275</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M21" t="s">
+        <v>274</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo de 1"', 8, 'Activo', 0, 0, 6 ) ; </v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>VLOOKUP(B22,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>273</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>Clavo de 2"</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>275</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M22" t="s">
+        <v>274</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo de 2"', 4.5, 'Activo', 0, 0, 6 ) ; </v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>VLOOKUP(B23,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>273</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>Clavo de 3"</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>275</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M23" t="s">
+        <v>274</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo de 3"', 4.5, 'Activo', 0, 0, 6 ) ; </v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>VLOOKUP(B24,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>273</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>Clavo de 4"</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>275</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M24" t="s">
+        <v>274</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo de 4"', 4.5, 'Activo', 0, 0, 6 ) ; </v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>VLOOKUP(B25,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="3">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>273</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>Clavo de acero 2"</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K25" t="s">
+        <v>275</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="M25" t="s">
+        <v>274</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo de acero 2"', 9, 'Activo', 0, 0, 11 ) ; </v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>VLOOKUP(B26,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>273</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>Clavo de acero 3"</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K26" t="s">
+        <v>275</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="M26" t="s">
+        <v>274</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo de acero 3"', 9, 'Activo', 0, 0, 11 ) ; </v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>VLOOKUP(B27,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="3">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>273</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>Clavo de acero 4"</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K27" t="s">
+        <v>275</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="M27" t="s">
+        <v>274</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo de acero 4"', 9, 'Activo', 0, 0, 11 ) ; </v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>VLOOKUP(B28,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="3">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>273</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>Clavo de calamina</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K28" t="s">
+        <v>275</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M28" t="s">
+        <v>274</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo de calamina', 8, 'Activo', 0, 0, 6 ) ; </v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>VLOOKUP(B29,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>273</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>Codo bronce de 1/2</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="K29" t="s">
+        <v>275</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M29" t="s">
+        <v>274</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo bronce de 1/2', 4.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>VLOOKUP(B30,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>273</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>Codo de agua 1/2"</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>275</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M30" t="s">
+        <v>274</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de agua 1/2"', 1, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>VLOOKUP(B31,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>273</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>Codo de agua 3/4" 45°</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M31" t="s">
+        <v>274</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de agua 3/4" 45°', 2.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>VLOOKUP(B32,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>273</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>Codo de agua 3/4" 90°</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="K32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M32" t="s">
+        <v>274</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de agua 3/4" 90°', 2.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>VLOOKUP(B33,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>273</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>Codo de agua caliente 1/2"</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>275</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M33" t="s">
+        <v>274</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de agua caliente 1/2"', 1, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>VLOOKUP(B34,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>273</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>Codo de desague 2" 45°</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>275</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M34" t="s">
+        <v>274</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de desague 2" 45°', 1.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>VLOOKUP(B35,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>273</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>Codo de desague 2" 90°</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>275</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M35" t="s">
+        <v>274</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de desague 2" 90°', 1.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>VLOOKUP(B36,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="3">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>273</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>Codo de desague 4" 45°</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K36" t="s">
+        <v>275</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M36" t="s">
+        <v>274</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de desague 4" 45°', 5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>VLOOKUP(B37,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>273</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>Codo de desague 4" 90°</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K37" t="s">
+        <v>275</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M37" t="s">
+        <v>274</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de desague 4" 90°', 5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>VLOOKUP(B38,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="3">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>273</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>Codo de desague 4" a 2"</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K38" t="s">
+        <v>275</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M38" t="s">
+        <v>274</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de desague 4" a 2"', 7, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>VLOOKUP(B39,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>273</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>Codo de luz 1"</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>275</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M39" t="s">
+        <v>274</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de luz 1"', 1, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>VLOOKUP(B40,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>247</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>273</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>Codo de luz 3/4"</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="s">
+        <v>275</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M40" t="s">
+        <v>274</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de luz 3/4"', 0.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>VLOOKUP(B41,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>273</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>Codo galvanizado de 1/2"</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="K41" t="s">
+        <v>275</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M41" t="s">
+        <v>274</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo galvanizado de 1/2"', 1.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>VLOOKUP(B42,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>247</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D42" s="3">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>273</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>Disco corte fierro de 14"</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K42" t="s">
+        <v>275</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M42" t="s">
+        <v>274</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco corte fierro de 14"', 20, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>VLOOKUP(B43,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="3">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>273</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>Disco corte fierro de 4"</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>275</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M43" t="s">
+        <v>274</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco corte fierro de 4"', 5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>VLOOKUP(B44,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="3">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>273</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>Disco corte fierro de 7"</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K44" t="s">
+        <v>275</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M44" t="s">
+        <v>274</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco corte fierro de 7"', 8, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>VLOOKUP(B45,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="3">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>273</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>Disco corte fierro de 9"</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K45" t="s">
+        <v>275</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M45" t="s">
+        <v>274</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco corte fierro de 9"', 12, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>VLOOKUP(B46,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D46" s="3">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>273</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>Disco para concreto de 15" - dinamo</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K46" t="s">
+        <v>275</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M46" t="s">
+        <v>274</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto de 15" - dinamo', 15, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>VLOOKUP(B47,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D47" s="3">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>273</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>Disco para concreto de 15" - kamasa</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="K47" t="s">
+        <v>275</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M47" t="s">
+        <v>274</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto de 15" - kamasa', 22, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>VLOOKUP(B48,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" s="3">
+        <v>30</v>
+      </c>
+      <c r="G48" t="s">
+        <v>273</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>Disco para concreto de 30" - dinamo</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="K48" t="s">
+        <v>275</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M48" t="s">
+        <v>274</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto de 30" - dinamo', 30, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>VLOOKUP(B49,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="3">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>273</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>Disco para concreto de 4" - dinamo</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K49" t="s">
+        <v>275</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M49" t="s">
+        <v>274</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto de 4" - dinamo', 8, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>VLOOKUP(B50,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D50" s="3">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>273</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>Disco para concreto de 4" - kamasa</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J50" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K50" t="s">
+        <v>275</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M50" t="s">
+        <v>274</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto de 4" - kamasa', 9, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>VLOOKUP(B51,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" s="3">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>273</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>Fibraforte rojo</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J51" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K51" t="s">
+        <v>275</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M51" t="s">
+        <v>274</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fibraforte rojo', 4, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>VLOOKUP(B52,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" s="3">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>273</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>Fibraforte rojo economico</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J52" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K52" t="s">
+        <v>275</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M52" t="s">
+        <v>274</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fibraforte rojo economico', 16, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>VLOOKUP(B53,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" s="3">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>273</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>Fibraforte translucida</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="K53" t="s">
+        <v>275</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M53" t="s">
+        <v>274</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fibraforte translucida', 32, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>VLOOKUP(B54,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>252</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>273</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>Fierro de 1/2" siderperu</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J54" s="3">
+        <f t="shared" si="1"/>
+        <v>24.5</v>
+      </c>
+      <c r="K54" t="s">
+        <v>275</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M54" t="s">
+        <v>274</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 1/2" siderperu', 24.5, 'Activo', 0, 0, 4 ) ; </v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>VLOOKUP(B55,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>273</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>Fierro de 1/4" 6mm  siderperu</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="K55" t="s">
+        <v>275</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M55" t="s">
+        <v>274</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 1/4" 6mm  siderperu', 6.5, 'Activo', 0, 0, 4 ) ; </v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>VLOOKUP(B56,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="3">
+        <v>58</v>
+      </c>
+      <c r="G56" t="s">
+        <v>273</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>Fierro de 3/4" siderperu</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J56" s="3">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="K56" t="s">
+        <v>275</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M56" t="s">
+        <v>274</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 3/4" siderperu', 58, 'Activo', 0, 0, 4 ) ; </v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>VLOOKUP(B57,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="3">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>273</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>Fierro de 3/8" siderperu</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J57" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K57" t="s">
+        <v>275</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M57" t="s">
+        <v>274</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 3/8" siderperu', 15, 'Activo', 0, 0, 4 ) ; </v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>VLOOKUP(B58,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>273</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>Fierro de 5/8" siderperu</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="K58" t="s">
+        <v>275</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M58" t="s">
+        <v>274</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 5/8" siderperu', 37.5, 'Activo', 0, 0, 4 ) ; </v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>VLOOKUP(B59,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="3">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>273</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>Fierro de 8mm siderperu</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K59" t="s">
+        <v>275</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M59" t="s">
+        <v>274</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 8mm siderperu', 11, 'Activo', 0, 0, 4 ) ; </v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f>VLOOKUP(B60,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>247</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" s="3">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>273</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>Foco de 27 W</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K60" t="s">
+        <v>275</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M60" t="s">
+        <v>274</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco de 27 W', 5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>VLOOKUP(B61,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D61" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>273</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>Foco de 32 W</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J61" s="3">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="K61" t="s">
+        <v>275</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M61" t="s">
+        <v>274</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco de 32 W', 6.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>VLOOKUP(B62,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" s="3">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>273</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>Foco de 42 W</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J62" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K62" t="s">
+        <v>275</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M62" t="s">
+        <v>274</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco de 42 W', 7, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>VLOOKUP(B63,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" s="3">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>273</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>Foco de 85 W</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J63" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="K63" t="s">
+        <v>275</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M63" t="s">
+        <v>274</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco de 85 W', 14, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>VLOOKUP(B64,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" s="3">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>273</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>Foco LED de 7 W</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J64" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="K64" t="s">
+        <v>275</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M64" t="s">
+        <v>274</v>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco LED de 7 W', 13, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>VLOOKUP(B65,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>253</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D65" s="3">
+        <v>670</v>
+      </c>
+      <c r="G65" t="s">
+        <v>273</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>Ladrillo de 18 huecos limpio (millar)</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J65" s="3">
+        <f t="shared" si="1"/>
+        <v>670</v>
+      </c>
+      <c r="K65" t="s">
+        <v>275</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="M65" t="s">
+        <v>274</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo de 18 huecos limpio (millar)', 670, 'Activo', 0, 0, 12 ) ; </v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>VLOOKUP(B66,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>253</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" s="3">
+        <v>560</v>
+      </c>
+      <c r="G66" t="s">
+        <v>273</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v>Ladrillo de 18 huecos semi limpio (millar)</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J66" s="3">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="K66" t="s">
+        <v>275</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="M66" t="s">
+        <v>274</v>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo de 18 huecos semi limpio (millar)', 560, 'Activo', 0, 0, 12 ) ; </v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f>VLOOKUP(B67,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G67" t="s">
+        <v>273</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H121" si="4">C67</f>
+        <v>Ladrillo de techo 12 x 30 (millar)</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J67" s="3">
+        <f t="shared" ref="J67:J121" si="5">D67</f>
+        <v>2100</v>
+      </c>
+      <c r="K67" t="s">
+        <v>275</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L121" si="6">A67</f>
+        <v>12</v>
+      </c>
+      <c r="M67" t="s">
+        <v>274</v>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" ref="N67:N121" si="7">CONCATENATE(G67,H67,I67,J67,K67,L67,M67)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo de techo 12 x 30 (millar)', 2100, 'Activo', 0, 0, 12 ) ; </v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>VLOOKUP(B68,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>253</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G68" t="s">
+        <v>273</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="4"/>
+        <v>Ladrillo de techo 15 x 30 (millar)</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J68" s="3">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
+      <c r="K68" t="s">
+        <v>275</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="M68" t="s">
+        <v>274</v>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo de techo 15 x 30 (millar)', 2100, 'Activo', 0, 0, 12 ) ; </v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>VLOOKUP(B69,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>253</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G69" t="s">
+        <v>273</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="4"/>
+        <v>Ladrillo de techo 8 x 30 (millar)</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J69" s="3">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="K69" t="s">
+        <v>275</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="M69" t="s">
+        <v>274</v>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo de techo 8 x 30 (millar)', 2000, 'Activo', 0, 0, 12 ) ; </v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>VLOOKUP(B70,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" s="3">
+        <v>410</v>
+      </c>
+      <c r="G70" t="s">
+        <v>273</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="4"/>
+        <v>Ladrillo pandereta (millar)</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J70" s="3">
+        <f t="shared" si="5"/>
+        <v>410</v>
+      </c>
+      <c r="K70" t="s">
+        <v>275</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="M70" t="s">
+        <v>274</v>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo pandereta (millar)', 410, 'Activo', 0, 0, 12 ) ; </v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f>VLOOKUP(B71,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>247</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D71" s="3">
+        <v>2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>273</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="4"/>
+        <v>Ladrillo pastelero (unidad)</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J71" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K71" t="s">
+        <v>275</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M71" t="s">
+        <v>274</v>
+      </c>
+      <c r="N71" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo pastelero (unidad)', 2, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f>VLOOKUP(B72,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>247</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="3">
+        <v>38</v>
+      </c>
+      <c r="G72" t="s">
+        <v>273</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="4"/>
+        <v>Llave termica bticino 16</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J72" s="3">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="K72" t="s">
+        <v>275</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M72" t="s">
+        <v>274</v>
+      </c>
+      <c r="N72" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica bticino 16', 38, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f>VLOOKUP(B73,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>247</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D73" s="3">
+        <v>38</v>
+      </c>
+      <c r="G73" t="s">
+        <v>273</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="4"/>
+        <v>Llave termica bticino 20</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J73" s="3">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="K73" t="s">
+        <v>275</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M73" t="s">
+        <v>274</v>
+      </c>
+      <c r="N73" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica bticino 20', 38, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f>VLOOKUP(B74,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>247</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" s="3">
+        <v>38</v>
+      </c>
+      <c r="G74" t="s">
+        <v>273</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="4"/>
+        <v>Llave termica bticino 32</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J74" s="3">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="K74" t="s">
+        <v>275</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M74" t="s">
+        <v>274</v>
+      </c>
+      <c r="N74" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica bticino 32', 38, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f>VLOOKUP(B75,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>247</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="3">
+        <v>50</v>
+      </c>
+      <c r="G75" t="s">
+        <v>273</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="4"/>
+        <v>Llave termica bticino 60</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J75" s="3">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="K75" t="s">
+        <v>275</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M75" t="s">
+        <v>274</v>
+      </c>
+      <c r="N75" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica bticino 60', 50, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f>VLOOKUP(B76,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" s="3">
+        <v>18</v>
+      </c>
+      <c r="G76" t="s">
+        <v>273</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="4"/>
+        <v>Llave termica stronger 60</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J76" s="3">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="K76" t="s">
+        <v>275</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M76" t="s">
+        <v>274</v>
+      </c>
+      <c r="N76" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica stronger 60', 18, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f>VLOOKUP(B77,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>254</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D77" s="3">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>273</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="4"/>
+        <v>Malla (x metro)</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J77" s="3">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="K77" t="s">
+        <v>275</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="M77" t="s">
+        <v>274</v>
+      </c>
+      <c r="N77" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Malla (x metro)', 7, 'Activo', 0, 0, 8 ) ; </v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f>VLOOKUP(B78,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>247</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" s="3">
+        <v>4</v>
+      </c>
+      <c r="G78" t="s">
+        <v>273</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="4"/>
+        <v>Niple bronce de 1/2"</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J78" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K78" t="s">
+        <v>275</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M78" t="s">
+        <v>274</v>
+      </c>
+      <c r="N78" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Niple bronce de 1/2"', 4, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f>VLOOKUP(B79,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>247</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>273</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="4"/>
+        <v>Niple de 1/2"</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J79" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>275</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M79" t="s">
+        <v>274</v>
+      </c>
+      <c r="N79" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Niple de 1/2"', 1, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f>VLOOKUP(B80,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D80" s="3">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>273</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="4"/>
+        <v>Pegamento de PVC 1/16" azul</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J80" s="3">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="K80" t="s">
+        <v>275</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M80" t="s">
+        <v>274</v>
+      </c>
+      <c r="N80" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento de PVC 1/16" azul', 11, 'Activo', 0, 0, 7 ) ; </v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f>VLOOKUP(B81,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D81" s="3">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>273</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="4"/>
+        <v>Pegamento de PVC 1/16" dorado</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J81" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K81" t="s">
+        <v>275</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M81" t="s">
+        <v>274</v>
+      </c>
+      <c r="N81" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento de PVC 1/16" dorado', 10, 'Activo', 0, 0, 7 ) ; </v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f>VLOOKUP(B82,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" s="3">
+        <v>8</v>
+      </c>
+      <c r="G82" t="s">
+        <v>273</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="4"/>
+        <v>Pegamento de PVC 1/32" azul</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J82" s="3">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="K82" t="s">
+        <v>275</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M82" t="s">
+        <v>274</v>
+      </c>
+      <c r="N82" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento de PVC 1/32" azul', 8, 'Activo', 0, 0, 7 ) ; </v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f>VLOOKUP(B83,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>255</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D83" s="3">
+        <v>7</v>
+      </c>
+      <c r="G83" t="s">
+        <v>273</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="4"/>
+        <v>Pegamento de PVC 1/32" dorado</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J83" s="3">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="K83" t="s">
+        <v>275</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M83" t="s">
+        <v>274</v>
+      </c>
+      <c r="N83" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento de PVC 1/32" dorado', 7, 'Activo', 0, 0, 7 ) ; </v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f>VLOOKUP(B84,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D84" s="3">
+        <v>28</v>
+      </c>
+      <c r="G84" t="s">
+        <v>273</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="4"/>
+        <v>Pegamento de PVC 1/4" dorado</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J84" s="3">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="K84" t="s">
+        <v>275</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M84" t="s">
+        <v>274</v>
+      </c>
+      <c r="N84" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento de PVC 1/4" dorado', 28, 'Activo', 0, 0, 7 ) ; </v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f>VLOOKUP(B85,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>255</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D85" s="3">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s">
+        <v>273</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="4"/>
+        <v>Pegamento de PVC 1/8" azul</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J85" s="3">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="K85" t="s">
+        <v>275</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M85" t="s">
+        <v>274</v>
+      </c>
+      <c r="N85" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento de PVC 1/8" azul', 25, 'Activo', 0, 0, 7 ) ; </v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f>VLOOKUP(B86,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" s="3">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>273</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="4"/>
+        <v>Pegamento de PVC 1/8" dorado</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J86" s="3">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="K86" t="s">
+        <v>275</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M86" t="s">
+        <v>274</v>
+      </c>
+      <c r="N86" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento de PVC 1/8" dorado', 15, 'Activo', 0, 0, 7 ) ; </v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f>VLOOKUP(B87,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>255</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>273</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="4"/>
+        <v>Pegamento de PVC agua caliente</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J87" s="3">
+        <f t="shared" si="5"/>
+        <v>6.5</v>
+      </c>
+      <c r="K87" t="s">
+        <v>275</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M87" t="s">
+        <v>274</v>
+      </c>
+      <c r="N87" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento de PVC agua caliente', 6.5, 'Activo', 0, 0, 7 ) ; </v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f>VLOOKUP(B88,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>255</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D88" s="3">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>273</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="4"/>
+        <v>Pegamento en polvo - celima</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J88" s="3">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="K88" t="s">
+        <v>275</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M88" t="s">
+        <v>274</v>
+      </c>
+      <c r="N88" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento en polvo - celima', 14, 'Activo', 0, 0, 7 ) ; </v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f>VLOOKUP(B89,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" s="3">
+        <v>50</v>
+      </c>
+      <c r="G89" t="s">
+        <v>273</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="4"/>
+        <v>Piedra chancada</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J89" s="3">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="K89" t="s">
+        <v>275</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M89" t="s">
+        <v>274</v>
+      </c>
+      <c r="N89" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Piedra chancada', 50, 'Activo', 0, 0, 2 ) ; </v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f>VLOOKUP(B90,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>262</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D90" s="3">
+        <v>50</v>
+      </c>
+      <c r="G90" t="s">
+        <v>273</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="4"/>
+        <v>Piedra confitillo</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J90" s="3">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="K90" t="s">
+        <v>275</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M90" t="s">
+        <v>274</v>
+      </c>
+      <c r="N90" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Piedra confitillo', 50, 'Activo', 0, 0, 2 ) ; </v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f>VLOOKUP(B91,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>262</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D91" s="3">
+        <v>50</v>
+      </c>
+      <c r="G91" t="s">
+        <v>273</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="4"/>
+        <v>Piedra zanja</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J91" s="3">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="K91" t="s">
+        <v>275</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M91" t="s">
+        <v>274</v>
+      </c>
+      <c r="N91" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Piedra zanja', 50, 'Activo', 0, 0, 2 ) ; </v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f>VLOOKUP(B92,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>247</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D92" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G92" t="s">
+        <v>273</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="4"/>
+        <v>Reduccion de desague 4" a 2"</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J92" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="K92" t="s">
+        <v>275</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M92" t="s">
+        <v>274</v>
+      </c>
+      <c r="N92" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Reduccion de desague 4" a 2"', 3.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f>VLOOKUP(B93,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>247</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D93" s="3">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s">
+        <v>273</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="4"/>
+        <v>Rodillo de 12" - toro</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J93" s="3">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="K93" t="s">
+        <v>275</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M93" t="s">
+        <v>274</v>
+      </c>
+      <c r="N93" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Rodillo de 12" - toro', 14, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f>VLOOKUP(B94,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>247</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D94" s="3">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>273</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="4"/>
+        <v>Rodillo de 9" - toro</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J94" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="K94" t="s">
+        <v>275</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M94" t="s">
+        <v>274</v>
+      </c>
+      <c r="N94" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Rodillo de 9" - toro', 12, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f>VLOOKUP(B95,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>247</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="3">
+        <v>5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>273</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="4"/>
+        <v>Tee bronce de 1/2"</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J95" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K95" t="s">
+        <v>275</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M95" t="s">
+        <v>274</v>
+      </c>
+      <c r="N95" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee bronce de 1/2"', 5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f>VLOOKUP(B96,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>247</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G96" t="s">
+        <v>273</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="4"/>
+        <v>Tee de agua 1/2"</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J96" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="K96" t="s">
+        <v>275</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M96" t="s">
+        <v>274</v>
+      </c>
+      <c r="N96" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee de agua 1/2"', 1.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f>VLOOKUP(B97,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>247</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" s="3">
+        <v>3</v>
+      </c>
+      <c r="G97" t="s">
+        <v>273</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="4"/>
+        <v>Tee de agua 3/4"</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J97" s="3">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K97" t="s">
+        <v>275</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M97" t="s">
+        <v>274</v>
+      </c>
+      <c r="N97" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee de agua 3/4"', 3, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f>VLOOKUP(B98,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>247</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D98" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G98" t="s">
+        <v>273</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="4"/>
+        <v>Tee de agua caliente 1/2"</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J98" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="K98" t="s">
+        <v>275</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M98" t="s">
+        <v>274</v>
+      </c>
+      <c r="N98" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee de agua caliente 1/2"', 1.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f>VLOOKUP(B99,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>247</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D99" s="3">
+        <v>6</v>
+      </c>
+      <c r="G99" t="s">
+        <v>273</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="4"/>
+        <v>Tee de desague 4" x 2"</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J99" s="3">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K99" t="s">
+        <v>275</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M99" t="s">
+        <v>274</v>
+      </c>
+      <c r="N99" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee de desague 4" x 2"', 6, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f>VLOOKUP(B100,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>247</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D100" s="3">
+        <v>7</v>
+      </c>
+      <c r="G100" t="s">
+        <v>273</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="4"/>
+        <v>Tee de desague 4" x 4"</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J100" s="3">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="K100" t="s">
+        <v>275</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M100" t="s">
+        <v>274</v>
+      </c>
+      <c r="N100" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee de desague 4" x 4"', 7, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f>VLOOKUP(B101,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D101" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G101" t="s">
+        <v>273</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="4"/>
+        <v>Tee de desague sanitaria 2"</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J101" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="K101" t="s">
+        <v>275</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M101" t="s">
+        <v>274</v>
+      </c>
+      <c r="N101" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee de desague sanitaria 2"', 3.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f>VLOOKUP(B102,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>247</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D102" s="3">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s">
+        <v>273</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="4"/>
+        <v>Triplay</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J102" s="3">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="K102" t="s">
+        <v>275</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M102" t="s">
+        <v>274</v>
+      </c>
+      <c r="N102" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Triplay', 24, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f>VLOOKUP(B103,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>247</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D103" s="4">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>273</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="4"/>
+        <v>Tubo de agua 1/2"</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J103" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K103" t="s">
+        <v>275</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M103" t="s">
+        <v>274</v>
+      </c>
+      <c r="N103" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo de agua 1/2"', 10, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f>VLOOKUP(B104,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>247</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D104" s="3">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>273</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="4"/>
+        <v>Tubo de agua 3/4"</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J104" s="3">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="K104" t="s">
+        <v>275</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M104" t="s">
+        <v>274</v>
+      </c>
+      <c r="N104" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo de agua 3/4"', 18, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f>VLOOKUP(B105,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
+        <v>247</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D105" s="3">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>273</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="4"/>
+        <v>Tubo de agua caliente 1/2"</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J105" s="3">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="K105" t="s">
+        <v>275</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M105" t="s">
+        <v>274</v>
+      </c>
+      <c r="N105" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo de agua caliente 1/2"', 18, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f>VLOOKUP(B106,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
+        <v>247</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D106" s="3">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>273</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="4"/>
+        <v>Tubo de agua desague 2"</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J106" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K106" t="s">
+        <v>275</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M106" t="s">
+        <v>274</v>
+      </c>
+      <c r="N106" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo de agua desague 2"', 10, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f>VLOOKUP(B107,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B107" t="s">
+        <v>247</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D107" s="3">
+        <v>17</v>
+      </c>
+      <c r="G107" t="s">
+        <v>273</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="4"/>
+        <v>Tubo de agua desague 3"</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J107" s="3">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="K107" t="s">
+        <v>275</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M107" t="s">
+        <v>274</v>
+      </c>
+      <c r="N107" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo de agua desague 3"', 17, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f>VLOOKUP(B108,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B108" t="s">
+        <v>247</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D108" s="3">
+        <v>20</v>
+      </c>
+      <c r="G108" t="s">
+        <v>273</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="4"/>
+        <v>Tubo de agua desague 4"</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J108" s="3">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="K108" t="s">
+        <v>275</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M108" t="s">
+        <v>274</v>
+      </c>
+      <c r="N108" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo de agua desague 4"', 20, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f>VLOOKUP(B109,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B109" t="s">
+        <v>247</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D109" s="3">
+        <v>6</v>
+      </c>
+      <c r="G109" t="s">
+        <v>273</v>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="4"/>
+        <v>Tubo de luz 1"</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J109" s="3">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K109" t="s">
+        <v>275</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M109" t="s">
+        <v>274</v>
+      </c>
+      <c r="N109" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo de luz 1"', 6, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f>VLOOKUP(B110,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>247</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D110" s="3">
+        <v>3</v>
+      </c>
+      <c r="G110" t="s">
+        <v>273</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="4"/>
+        <v>Tubo de luz 3/4"</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J110" s="3">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K110" t="s">
+        <v>275</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M110" t="s">
+        <v>274</v>
+      </c>
+      <c r="N110" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo de luz 3/4"', 3, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f>VLOOKUP(B111,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>247</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D111" s="3">
+        <v>4</v>
+      </c>
+      <c r="G111" t="s">
+        <v>273</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="4"/>
+        <v>Union bronce de 1/2"</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J111" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K111" t="s">
+        <v>275</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M111" t="s">
+        <v>274</v>
+      </c>
+      <c r="N111" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Union bronce de 1/2"', 4, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f>VLOOKUP(B112,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B112" t="s">
+        <v>247</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D112" s="3">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>273</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="4"/>
+        <v>Union de agua 1/2"</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J112" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K112" t="s">
+        <v>275</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M112" t="s">
+        <v>274</v>
+      </c>
+      <c r="N112" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Union de agua 1/2"', 1, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f>VLOOKUP(B113,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B113" t="s">
+        <v>247</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D113" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>273</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="4"/>
+        <v>Union de agua 3/4"</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J113" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="K113" t="s">
+        <v>275</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M113" t="s">
+        <v>274</v>
+      </c>
+      <c r="N113" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Union de agua 3/4"', 2.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f>VLOOKUP(B114,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>256</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D114" s="3">
+        <v>3</v>
+      </c>
+      <c r="G114" t="s">
+        <v>273</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="4"/>
+        <v>Visagra de 3" (par)</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J114" s="3">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K114" t="s">
+        <v>275</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="M114" t="s">
+        <v>274</v>
+      </c>
+      <c r="N114" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Visagra de 3" (par)', 3, 'Activo', 0, 0, 9 ) ; </v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f>VLOOKUP(B115,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>256</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D115" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>273</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="4"/>
+        <v>Visagra de 3" capuchino (par)</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J115" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="K115" t="s">
+        <v>275</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="M115" t="s">
+        <v>274</v>
+      </c>
+      <c r="N115" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Visagra de 3" capuchino (par)', 3.5, 'Activo', 0, 0, 9 ) ; </v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f>VLOOKUP(B116,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
+        <v>247</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D116" s="3">
+        <v>3</v>
+      </c>
+      <c r="G116" t="s">
+        <v>273</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="4"/>
+        <v>Yee de desague 2"</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J116" s="3">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="K116" t="s">
+        <v>275</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M116" t="s">
+        <v>274</v>
+      </c>
+      <c r="N116" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee de desague 2"', 3, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f>VLOOKUP(B117,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>247</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D117" s="3">
+        <v>6</v>
+      </c>
+      <c r="G117" t="s">
+        <v>273</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="4"/>
+        <v>Yee de desague 4" x 2"</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J117" s="3">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K117" t="s">
+        <v>275</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M117" t="s">
+        <v>274</v>
+      </c>
+      <c r="N117" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee de desague 4" x 2"', 6, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f>VLOOKUP(B118,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B118" t="s">
+        <v>247</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D118" s="3">
+        <v>10</v>
+      </c>
+      <c r="G118" t="s">
+        <v>273</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="4"/>
+        <v>Yee de desague 4" x 4"</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J118" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="K118" t="s">
+        <v>275</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M118" t="s">
+        <v>274</v>
+      </c>
+      <c r="N118" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee de desague 4" x 4"', 10, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f>VLOOKUP(B119,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B119" t="s">
+        <v>247</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D119" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G119" t="s">
+        <v>273</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="4"/>
+        <v>Yee sanitario de 2"</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J119" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="K119" t="s">
+        <v>275</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M119" t="s">
+        <v>274</v>
+      </c>
+      <c r="N119" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee sanitario de 2"', 3.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f>VLOOKUP(B120,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B120" t="s">
+        <v>247</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D120" s="3">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>273</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="4"/>
+        <v>Yee sanitario de 4"</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J120" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="K120" t="s">
+        <v>275</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M120" t="s">
+        <v>274</v>
+      </c>
+      <c r="N120" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee sanitario de 4"', 12, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f>VLOOKUP(B121,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
+        <v>247</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D121" s="3">
+        <v>7</v>
+      </c>
+      <c r="G121" t="s">
+        <v>273</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="4"/>
+        <v>Yee sanitario de 4" x 2"</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="J121" s="3">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="K121" t="s">
+        <v>275</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M121" t="s">
+        <v>274</v>
+      </c>
+      <c r="N121" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee sanitario de 4" x 2"', 7, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D121">
+    <sortCondition ref="C2:C121"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database/BD/backup/precios.xlsx
+++ b/database/BD/backup/precios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="277">
   <si>
     <t>Tubos</t>
   </si>
@@ -613,24 +613,6 @@
     <t>Visagra de 3" (par)</t>
   </si>
   <si>
-    <t>Fierro de 3/4" siderperu</t>
-  </si>
-  <si>
-    <t>Fierro de 5/8" siderperu</t>
-  </si>
-  <si>
-    <t>Fierro de 1/2" siderperu</t>
-  </si>
-  <si>
-    <t>Fierro de 3/8" siderperu</t>
-  </si>
-  <si>
-    <t>Fierro de 8mm siderperu</t>
-  </si>
-  <si>
-    <t>Fierro de 1/4" 6mm  siderperu</t>
-  </si>
-  <si>
     <t>Alambre N° 8</t>
   </si>
   <si>
@@ -857,6 +839,27 @@
   </si>
   <si>
     <t xml:space="preserve">, 'Activo', 0, 0, </t>
+  </si>
+  <si>
+    <t>Cemento andino tipo 1</t>
+  </si>
+  <si>
+    <t>Cemento andino tipo 5</t>
+  </si>
+  <si>
+    <t>Cemento apu tipo 1</t>
+  </si>
+  <si>
+    <t>Cemento inka azul</t>
+  </si>
+  <si>
+    <t>Cemento inka rojo</t>
+  </si>
+  <si>
+    <t>Cemento sol tipo 1</t>
+  </si>
+  <si>
+    <t>Fierro de 5/8" - siderperu</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+    <sheetView topLeftCell="A126" workbookViewId="0">
       <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
@@ -2233,7 +2236,7 @@
         <v>58</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E122" s="3">
         <v>58</v>
@@ -2247,7 +2250,7 @@
         <v>37.5</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E123" s="3">
         <v>37.5</v>
@@ -2261,7 +2264,7 @@
         <v>24.5</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E124" s="3">
         <v>24.5</v>
@@ -2275,7 +2278,7 @@
         <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E125" s="3">
         <v>15</v>
@@ -2289,7 +2292,7 @@
         <v>11</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E126" s="3">
         <v>11</v>
@@ -2303,7 +2306,7 @@
         <v>6.5</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E127" s="3">
         <v>6.5</v>
@@ -2322,7 +2325,7 @@
         <v>4</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E131" s="3">
         <v>4</v>
@@ -2336,7 +2339,7 @@
         <v>4</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E132" s="3">
         <v>4</v>
@@ -2347,7 +2350,7 @@
         <v>73</v>
       </c>
       <c r="B139" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C139" t="s">
         <v>122</v>
@@ -2493,7 +2496,7 @@
         <v>80</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E149" s="3">
         <v>80</v>
@@ -2507,7 +2510,7 @@
         <v>145</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E150" s="3">
         <v>145</v>
@@ -2526,7 +2529,7 @@
         <v>410</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E155" s="3">
         <v>410</v>
@@ -2540,7 +2543,7 @@
         <v>560</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E156" s="3">
         <v>560</v>
@@ -2554,7 +2557,7 @@
         <v>670</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E157" s="3">
         <v>670</v>
@@ -2568,7 +2571,7 @@
         <v>2100</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E158" s="3">
         <v>2100</v>
@@ -2582,7 +2585,7 @@
         <v>2100</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E159" s="3">
         <v>2100</v>
@@ -2596,7 +2599,7 @@
         <v>2000</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E160" s="3">
         <v>2000</v>
@@ -2610,7 +2613,7 @@
         <v>2</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E161" s="3">
         <v>2</v>
@@ -2624,7 +2627,7 @@
         <v>24</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E164" s="3">
         <v>24</v>
@@ -2638,7 +2641,7 @@
         <v>14</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E165" s="3">
         <v>14</v>
@@ -2652,7 +2655,7 @@
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E166" s="3">
         <v>12</v>
@@ -2671,7 +2674,7 @@
         <v>21</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E170" s="3">
         <v>21</v>
@@ -2685,7 +2688,7 @@
         <v>23</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E171" s="3">
         <v>23</v>
@@ -2699,7 +2702,7 @@
         <v>22.5</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E172" s="3">
         <v>22.5</v>
@@ -2713,7 +2716,7 @@
         <v>20</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E173" s="3">
         <v>20</v>
@@ -2727,7 +2730,7 @@
         <v>27</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E174" s="3">
         <v>27</v>
@@ -2741,7 +2744,7 @@
         <v>19.5</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E175" s="3">
         <v>19.5</v>
@@ -2760,7 +2763,7 @@
         <v>14</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E179" s="3">
         <v>14</v>
@@ -2774,7 +2777,7 @@
         <v>24</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E182" s="3">
         <v>4</v>
@@ -2788,7 +2791,7 @@
         <v>32</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E183" s="3">
         <v>32</v>
@@ -2802,7 +2805,7 @@
         <v>16</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E184" s="3">
         <v>16</v>
@@ -2830,7 +2833,7 @@
         <v>14</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E188" s="3">
         <v>14</v>
@@ -2844,7 +2847,7 @@
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E189" s="3">
         <v>12</v>
@@ -2858,7 +2861,7 @@
         <v>7</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E190" s="3">
         <v>7</v>
@@ -2877,7 +2880,7 @@
         <v>14</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E194" s="3">
         <v>14</v>
@@ -2891,7 +2894,7 @@
         <v>7</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E195" s="3">
         <v>7</v>
@@ -2905,7 +2908,7 @@
         <v>5</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E196" s="3">
         <v>6.5</v>
@@ -2919,7 +2922,7 @@
         <v>6.5</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E197" s="3">
         <v>5</v>
@@ -2933,7 +2936,7 @@
         <v>13</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E198" s="3">
         <v>13</v>
@@ -2952,7 +2955,7 @@
         <v>5</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E202" s="3">
         <v>5</v>
@@ -2966,7 +2969,7 @@
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E203" s="3">
         <v>8</v>
@@ -2980,7 +2983,7 @@
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E204" s="3">
         <v>12</v>
@@ -2994,7 +2997,7 @@
         <v>20</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E205" s="3">
         <v>20</v>
@@ -3013,7 +3016,7 @@
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E209" s="3">
         <v>8</v>
@@ -3027,7 +3030,7 @@
         <v>15</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E210" s="3">
         <v>15</v>
@@ -3041,7 +3044,7 @@
         <v>30</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E211" s="3">
         <v>30</v>
@@ -3060,7 +3063,7 @@
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E214" s="3">
         <v>9</v>
@@ -3074,7 +3077,7 @@
         <v>22</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E215" s="3">
         <v>22</v>
@@ -3090,12 +3093,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="129.28515625" bestFit="1" customWidth="1"/>
@@ -3103,19 +3108,19 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3124,7 +3129,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>106</v>
@@ -3133,28 +3138,28 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H2" t="str">
         <f>C2</f>
         <v>Acido muriatico 1L</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J2" s="3">
         <f>D2</f>
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L2">
         <f>A2</f>
         <v>7</v>
       </c>
       <c r="M2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N2" t="str">
         <f>CONCATENATE(G2,H2,I2,J2,K2,L2,M2)</f>
@@ -3167,7 +3172,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>159</v>
@@ -3176,28 +3181,28 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="0">C3</f>
         <v>Adaptador de agua 1/2"</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" ref="J3:J66" si="1">D3</f>
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" si="2">A3</f>
         <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" ref="N3:N66" si="3">CONCATENATE(G3,H3,I3,J3,K3,L3,M3)</f>
@@ -3210,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>160</v>
@@ -3219,28 +3224,28 @@
         <v>2.5</v>
       </c>
       <c r="G4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
         <v>Adaptador de agua 3/4"</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="K4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="3"/>
@@ -3253,7 +3258,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>162</v>
@@ -3262,28 +3267,28 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
         <v>Adaptador de agua caliente 1/2"</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="3"/>
@@ -3296,37 +3301,37 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>Alambre N° 16</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="3"/>
@@ -3339,37 +3344,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>Alambre N° 8</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="3"/>
@@ -3382,37 +3387,37 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D8" s="3">
         <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>Arena fina</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="3"/>
@@ -3425,37 +3430,37 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D9" s="3">
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>Arena gruesa</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="3"/>
@@ -3468,37 +3473,37 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D10" s="3">
         <v>145</v>
       </c>
       <c r="G10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>Cable de luz N° 12</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
       <c r="K10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="3"/>
@@ -3511,37 +3516,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D11" s="3">
         <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>Cable de luz N° 14</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="3"/>
@@ -3554,37 +3559,37 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D12" s="3">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>Calamina de 3.0 m</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="3"/>
@@ -3597,37 +3602,37 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D13" s="3">
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>Calamina de 3.6 m</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M13" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="3"/>
@@ -3640,41 +3645,41 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="D14" s="3">
         <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>Cemento andino - tipo 1</v>
+        <v>Cemento andino tipo 1</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento andino - tipo 1', 23, 'Activo', 0, 0, 1 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento andino tipo 1', 23, 'Activo', 0, 0, 1 ) ; </v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3683,41 +3688,41 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="D15" s="3">
         <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>Cemento andino - tipo 5</v>
+        <v>Cemento andino tipo 5</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="K15" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento andino - tipo 5', 27, 'Activo', 0, 0, 1 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento andino tipo 5', 27, 'Activo', 0, 0, 1 ) ; </v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3726,41 +3731,41 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="D16" s="3">
         <v>19.5</v>
       </c>
       <c r="G16" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>Cemento apu - tipo 1</v>
+        <v>Cemento apu tipo 1</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
       <c r="K16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento apu - tipo 1', 19.5, 'Activo', 0, 0, 1 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento apu tipo 1', 19.5, 'Activo', 0, 0, 1 ) ; </v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3769,41 +3774,41 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="D17" s="3">
         <v>22.5</v>
       </c>
       <c r="G17" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>Cemento inka - azul</v>
+        <v>Cemento inka azul</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
       <c r="K17" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento inka - azul', 22.5, 'Activo', 0, 0, 1 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento inka azul', 22.5, 'Activo', 0, 0, 1 ) ; </v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -3812,41 +3817,41 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="D18" s="3">
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>Cemento inka - rojo</v>
+        <v>Cemento inka rojo</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento inka - rojo', 20, 'Activo', 0, 0, 1 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento inka rojo', 20, 'Activo', 0, 0, 1 ) ; </v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -3855,41 +3860,41 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="D19" s="3">
         <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>Cemento sol - tipo 1</v>
+        <v>Cemento sol tipo 1</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento sol - tipo 1', 21, 'Activo', 0, 0, 1 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento sol tipo 1', 21, 'Activo', 0, 0, 1 ) ; </v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -3898,7 +3903,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>182</v>
@@ -3907,28 +3912,28 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
         <v>Clavo de 1 y 1/2"</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K20" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M20" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="3"/>
@@ -3941,7 +3946,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>181</v>
@@ -3950,28 +3955,28 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
         <v>Clavo de 1"</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K21" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M21" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="3"/>
@@ -3984,7 +3989,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>180</v>
@@ -3993,28 +3998,28 @@
         <v>4.5</v>
       </c>
       <c r="G22" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
         <v>Clavo de 2"</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="K22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="3"/>
@@ -4027,7 +4032,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>179</v>
@@ -4036,28 +4041,28 @@
         <v>4.5</v>
       </c>
       <c r="G23" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v>Clavo de 3"</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="K23" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M23" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="3"/>
@@ -4070,7 +4075,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>178</v>
@@ -4079,28 +4084,28 @@
         <v>4.5</v>
       </c>
       <c r="G24" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
         <v>Clavo de 4"</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="K24" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M24" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="3"/>
@@ -4113,7 +4118,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>184</v>
@@ -4122,28 +4127,28 @@
         <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
         <v>Clavo de acero 2"</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K25" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="M25" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="3"/>
@@ -4156,7 +4161,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>185</v>
@@ -4165,28 +4170,28 @@
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
         <v>Clavo de acero 3"</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K26" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="M26" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="3"/>
@@ -4199,7 +4204,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>186</v>
@@ -4208,28 +4213,28 @@
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
         <v>Clavo de acero 4"</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K27" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="M27" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="3"/>
@@ -4242,7 +4247,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>183</v>
@@ -4251,28 +4256,28 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
         <v>Clavo de calamina</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K28" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="M28" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="3"/>
@@ -4285,7 +4290,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>166</v>
@@ -4294,28 +4299,28 @@
         <v>4.5</v>
       </c>
       <c r="G29" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
         <v>Codo bronce de 1/2</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="K29" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M29" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="3"/>
@@ -4328,7 +4333,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>143</v>
@@ -4337,28 +4342,28 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
         <v>Codo de agua 1/2"</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M30" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="3"/>
@@ -4371,7 +4376,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>139</v>
@@ -4380,28 +4385,28 @@
         <v>2.5</v>
       </c>
       <c r="G31" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
         <v>Codo de agua 3/4" 45°</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="K31" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M31" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="3"/>
@@ -4414,7 +4419,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>142</v>
@@ -4423,28 +4428,28 @@
         <v>2.5</v>
       </c>
       <c r="G32" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
         <v>Codo de agua 3/4" 90°</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="K32" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M32" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="3"/>
@@ -4457,7 +4462,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>161</v>
@@ -4466,28 +4471,28 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
         <v>Codo de agua caliente 1/2"</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M33" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="3"/>
@@ -4500,7 +4505,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>141</v>
@@ -4509,28 +4514,28 @@
         <v>1.5</v>
       </c>
       <c r="G34" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
         <v>Codo de desague 2" 45°</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="K34" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M34" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="3"/>
@@ -4543,7 +4548,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>140</v>
@@ -4552,28 +4557,28 @@
         <v>1.5</v>
       </c>
       <c r="G35" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
         <v>Codo de desague 2" 90°</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="K35" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M35" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="3"/>
@@ -4586,7 +4591,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>138</v>
@@ -4595,28 +4600,28 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
         <v>Codo de desague 4" 45°</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K36" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M36" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="3"/>
@@ -4629,7 +4634,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>137</v>
@@ -4638,28 +4643,28 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
         <v>Codo de desague 4" 90°</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K37" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M37" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="3"/>
@@ -4672,7 +4677,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>144</v>
@@ -4681,28 +4686,28 @@
         <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
         <v>Codo de desague 4" a 2"</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K38" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L38">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M38" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="3"/>
@@ -4715,7 +4720,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>145</v>
@@ -4724,28 +4729,28 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
         <v>Codo de luz 1"</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M39" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="3"/>
@@ -4758,7 +4763,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>146</v>
@@ -4767,28 +4772,28 @@
         <v>0.5</v>
       </c>
       <c r="G40" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
         <v>Codo de luz 3/4"</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="K40" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M40" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="3"/>
@@ -4801,7 +4806,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>165</v>
@@ -4810,28 +4815,28 @@
         <v>1.5</v>
       </c>
       <c r="G41" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
         <v>Codo galvanizado de 1/2"</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="K41" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L41">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M41" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="3"/>
@@ -4844,37 +4849,37 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D42" s="3">
         <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
         <v>Disco corte fierro de 14"</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K42" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L42">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M42" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="3"/>
@@ -4887,37 +4892,37 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D43" s="3">
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
         <v>Disco corte fierro de 4"</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K43" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L43">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M43" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="3"/>
@@ -4930,37 +4935,37 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D44" s="3">
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
         <v>Disco corte fierro de 7"</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K44" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L44">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M44" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="3"/>
@@ -4973,37 +4978,37 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D45" s="3">
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
         <v>Disco corte fierro de 9"</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="K45" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L45">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M45" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="3"/>
@@ -5016,37 +5021,37 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D46" s="3">
         <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
         <v>Disco para concreto de 15" - dinamo</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J46" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="K46" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L46">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M46" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="3"/>
@@ -5059,37 +5064,37 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D47" s="3">
         <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
         <v>Disco para concreto de 15" - kamasa</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J47" s="3">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L47">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M47" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N47" t="str">
         <f t="shared" si="3"/>
@@ -5102,37 +5107,37 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D48" s="3">
         <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
         <v>Disco para concreto de 30" - dinamo</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J48" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K48" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L48">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M48" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="3"/>
@@ -5145,37 +5150,37 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D49" s="3">
         <v>8</v>
       </c>
       <c r="G49" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
         <v>Disco para concreto de 4" - dinamo</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J49" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K49" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L49">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M49" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="3"/>
@@ -5188,37 +5193,37 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D50" s="3">
         <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
         <v>Disco para concreto de 4" - kamasa</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J50" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K50" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L50">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M50" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N50" t="str">
         <f t="shared" si="3"/>
@@ -5231,37 +5236,37 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D51" s="3">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
         <v>Fibraforte rojo</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J51" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K51" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L51">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M51" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N51" t="str">
         <f t="shared" si="3"/>
@@ -5274,37 +5279,37 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D52" s="3">
         <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
         <v>Fibraforte rojo economico</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J52" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="K52" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L52">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M52" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="3"/>
@@ -5317,37 +5322,37 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D53" s="3">
         <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
         <v>Fibraforte translucida</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J53" s="3">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="K53" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L53">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M53" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N53" t="str">
         <f t="shared" si="3"/>
@@ -5360,41 +5365,41 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="D54" s="3">
         <v>24.5</v>
       </c>
       <c r="G54" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
-        <v>Fierro de 1/2" siderperu</v>
+        <v>Fierro de 1/2" - siderperu</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J54" s="3">
         <f t="shared" si="1"/>
         <v>24.5</v>
       </c>
       <c r="K54" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L54">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M54" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N54" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 1/2" siderperu', 24.5, 'Activo', 0, 0, 4 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 1/2" - siderperu', 24.5, 'Activo', 0, 0, 4 ) ; </v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -5403,41 +5408,41 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D55" s="3">
         <v>6.5</v>
       </c>
       <c r="G55" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
-        <v>Fierro de 1/4" 6mm  siderperu</v>
+        <v>Fierro de 1/4" 6mm - siderperu</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="K55" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L55">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M55" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N55" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 1/4" 6mm  siderperu', 6.5, 'Activo', 0, 0, 4 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 1/4" 6mm - siderperu', 6.5, 'Activo', 0, 0, 4 ) ; </v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -5446,41 +5451,41 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="D56" s="3">
         <v>58</v>
       </c>
       <c r="G56" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
-        <v>Fierro de 3/4" siderperu</v>
+        <v>Fierro de 3/4" - siderperu</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J56" s="3">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="K56" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L56">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M56" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N56" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 3/4" siderperu', 58, 'Activo', 0, 0, 4 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 3/4" - siderperu', 58, 'Activo', 0, 0, 4 ) ; </v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -5489,41 +5494,41 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="D57" s="3">
         <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
-        <v>Fierro de 3/8" siderperu</v>
+        <v>Fierro de 3/8" - siderperu</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J57" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="K57" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L57">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M57" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N57" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 3/8" siderperu', 15, 'Activo', 0, 0, 4 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 3/8" - siderperu', 15, 'Activo', 0, 0, 4 ) ; </v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -5532,41 +5537,41 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="D58" s="3">
         <v>37.5</v>
       </c>
       <c r="G58" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
-        <v>Fierro de 5/8" siderperu</v>
+        <v>Fierro de 5/8" - siderperu</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J58" s="3">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
       <c r="K58" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L58">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M58" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N58" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 5/8" siderperu', 37.5, 'Activo', 0, 0, 4 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 5/8" - siderperu', 37.5, 'Activo', 0, 0, 4 ) ; </v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -5575,41 +5580,41 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D59" s="3">
         <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
-        <v>Fierro de 8mm siderperu</v>
+        <v>Fierro de 8mm - siderperu</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J59" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="K59" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L59">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M59" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N59" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 8mm siderperu', 11, 'Activo', 0, 0, 4 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 8mm - siderperu', 11, 'Activo', 0, 0, 4 ) ; </v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -5618,37 +5623,37 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D60" s="3">
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
         <v>Foco de 27 W</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J60" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K60" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L60">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M60" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N60" t="str">
         <f t="shared" si="3"/>
@@ -5661,37 +5666,37 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D61" s="3">
         <v>6.5</v>
       </c>
       <c r="G61" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
         <v>Foco de 32 W</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J61" s="3">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="K61" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L61">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M61" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N61" t="str">
         <f t="shared" si="3"/>
@@ -5704,37 +5709,37 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D62" s="3">
         <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
         <v>Foco de 42 W</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J62" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K62" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L62">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M62" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N62" t="str">
         <f t="shared" si="3"/>
@@ -5747,37 +5752,37 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D63" s="3">
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
         <v>Foco de 85 W</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J63" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="K63" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L63">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M63" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N63" t="str">
         <f t="shared" si="3"/>
@@ -5790,37 +5795,37 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D64" s="3">
         <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
         <v>Foco LED de 7 W</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J64" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="K64" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L64">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M64" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N64" t="str">
         <f t="shared" si="3"/>
@@ -5833,37 +5838,37 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D65" s="3">
         <v>670</v>
       </c>
       <c r="G65" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
         <v>Ladrillo de 18 huecos limpio (millar)</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J65" s="3">
         <f t="shared" si="1"/>
         <v>670</v>
       </c>
       <c r="K65" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L65">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M65" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N65" t="str">
         <f t="shared" si="3"/>
@@ -5876,37 +5881,37 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D66" s="3">
         <v>560</v>
       </c>
       <c r="G66" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="0"/>
         <v>Ladrillo de 18 huecos semi limpio (millar)</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J66" s="3">
         <f t="shared" si="1"/>
         <v>560</v>
       </c>
       <c r="K66" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L66">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M66" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N66" t="str">
         <f t="shared" si="3"/>
@@ -5919,37 +5924,37 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D67" s="3">
         <v>2100</v>
       </c>
       <c r="G67" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H121" si="4">C67</f>
         <v>Ladrillo de techo 12 x 30 (millar)</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J67" s="3">
         <f t="shared" ref="J67:J121" si="5">D67</f>
         <v>2100</v>
       </c>
       <c r="K67" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L121" si="6">A67</f>
         <v>12</v>
       </c>
       <c r="M67" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N67" t="str">
         <f t="shared" ref="N67:N121" si="7">CONCATENATE(G67,H67,I67,J67,K67,L67,M67)</f>
@@ -5962,37 +5967,37 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D68" s="3">
         <v>2100</v>
       </c>
       <c r="G68" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="4"/>
         <v>Ladrillo de techo 15 x 30 (millar)</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J68" s="3">
         <f t="shared" si="5"/>
         <v>2100</v>
       </c>
       <c r="K68" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L68">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M68" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N68" t="str">
         <f t="shared" si="7"/>
@@ -6005,37 +6010,37 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D69" s="3">
         <v>2000</v>
       </c>
       <c r="G69" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="4"/>
         <v>Ladrillo de techo 8 x 30 (millar)</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J69" s="3">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
       <c r="K69" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L69">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M69" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N69" t="str">
         <f t="shared" si="7"/>
@@ -6048,37 +6053,37 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D70" s="3">
         <v>410</v>
       </c>
       <c r="G70" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="4"/>
         <v>Ladrillo pandereta (millar)</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J70" s="3">
         <f t="shared" si="5"/>
         <v>410</v>
       </c>
       <c r="K70" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L70">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="M70" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="7"/>
@@ -6091,37 +6096,37 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D71" s="3">
         <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="4"/>
         <v>Ladrillo pastelero (unidad)</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J71" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="K71" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L71">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M71" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N71" t="str">
         <f t="shared" si="7"/>
@@ -6134,7 +6139,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>189</v>
@@ -6143,28 +6148,28 @@
         <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="4"/>
         <v>Llave termica bticino 16</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J72" s="3">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="K72" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L72">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M72" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="7"/>
@@ -6177,7 +6182,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>188</v>
@@ -6186,28 +6191,28 @@
         <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="4"/>
         <v>Llave termica bticino 20</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J73" s="3">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="K73" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L73">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M73" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N73" t="str">
         <f t="shared" si="7"/>
@@ -6220,7 +6225,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>187</v>
@@ -6229,28 +6234,28 @@
         <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="4"/>
         <v>Llave termica bticino 32</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="K74" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L74">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M74" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N74" t="str">
         <f t="shared" si="7"/>
@@ -6263,7 +6268,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>190</v>
@@ -6272,28 +6277,28 @@
         <v>50</v>
       </c>
       <c r="G75" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="4"/>
         <v>Llave termica bticino 60</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J75" s="3">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K75" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L75">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M75" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N75" t="str">
         <f t="shared" si="7"/>
@@ -6306,7 +6311,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>191</v>
@@ -6315,28 +6320,28 @@
         <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="4"/>
         <v>Llave termica stronger 60</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J76" s="3">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="K76" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L76">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M76" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N76" t="str">
         <f t="shared" si="7"/>
@@ -6349,37 +6354,37 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D77" s="3">
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="4"/>
         <v>Malla (x metro)</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J77" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="K77" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L77">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="M77" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N77" t="str">
         <f t="shared" si="7"/>
@@ -6392,7 +6397,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>168</v>
@@ -6401,28 +6406,28 @@
         <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="4"/>
         <v>Niple bronce de 1/2"</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J78" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K78" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L78">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M78" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N78" t="str">
         <f t="shared" si="7"/>
@@ -6435,7 +6440,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>164</v>
@@ -6444,28 +6449,28 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="4"/>
         <v>Niple de 1/2"</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J79" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L79">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M79" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N79" t="str">
         <f t="shared" si="7"/>
@@ -6478,7 +6483,7 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>174</v>
@@ -6487,28 +6492,28 @@
         <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="4"/>
         <v>Pegamento de PVC 1/16" azul</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J80" s="3">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="K80" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L80">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M80" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N80" t="str">
         <f t="shared" si="7"/>
@@ -6521,7 +6526,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>173</v>
@@ -6530,28 +6535,28 @@
         <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="4"/>
         <v>Pegamento de PVC 1/16" dorado</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J81" s="3">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="K81" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L81">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M81" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N81" t="str">
         <f t="shared" si="7"/>
@@ -6564,7 +6569,7 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>176</v>
@@ -6573,28 +6578,28 @@
         <v>8</v>
       </c>
       <c r="G82" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="4"/>
         <v>Pegamento de PVC 1/32" azul</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J82" s="3">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="K82" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L82">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M82" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N82" t="str">
         <f t="shared" si="7"/>
@@ -6607,7 +6612,7 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>175</v>
@@ -6616,28 +6621,28 @@
         <v>7</v>
       </c>
       <c r="G83" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="4"/>
         <v>Pegamento de PVC 1/32" dorado</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J83" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="K83" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L83">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M83" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N83" t="str">
         <f t="shared" si="7"/>
@@ -6650,7 +6655,7 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>170</v>
@@ -6659,28 +6664,28 @@
         <v>28</v>
       </c>
       <c r="G84" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="4"/>
         <v>Pegamento de PVC 1/4" dorado</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="K84" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L84">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M84" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N84" t="str">
         <f t="shared" si="7"/>
@@ -6693,7 +6698,7 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>172</v>
@@ -6702,28 +6707,28 @@
         <v>25</v>
       </c>
       <c r="G85" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="4"/>
         <v>Pegamento de PVC 1/8" azul</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J85" s="3">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="K85" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L85">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M85" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N85" t="str">
         <f t="shared" si="7"/>
@@ -6736,7 +6741,7 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>171</v>
@@ -6745,28 +6750,28 @@
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="4"/>
         <v>Pegamento de PVC 1/8" dorado</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J86" s="3">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="K86" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L86">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M86" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N86" t="str">
         <f t="shared" si="7"/>
@@ -6779,7 +6784,7 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>177</v>
@@ -6788,28 +6793,28 @@
         <v>6.5</v>
       </c>
       <c r="G87" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="4"/>
         <v>Pegamento de PVC agua caliente</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J87" s="3">
         <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="K87" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L87">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M87" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N87" t="str">
         <f t="shared" si="7"/>
@@ -6822,37 +6827,37 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D88" s="3">
         <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="4"/>
         <v>Pegamento en polvo - celima</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J88" s="3">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L88">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="M88" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N88" t="str">
         <f t="shared" si="7"/>
@@ -6865,37 +6870,37 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D89" s="3">
         <v>50</v>
       </c>
       <c r="G89" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="4"/>
         <v>Piedra chancada</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J89" s="3">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K89" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L89">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="M89" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N89" t="str">
         <f t="shared" si="7"/>
@@ -6908,37 +6913,37 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D90" s="3">
         <v>50</v>
       </c>
       <c r="G90" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="4"/>
         <v>Piedra confitillo</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J90" s="3">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K90" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L90">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="M90" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N90" t="str">
         <f t="shared" si="7"/>
@@ -6951,37 +6956,37 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
+        <v>256</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="D91" s="3">
         <v>50</v>
       </c>
       <c r="G91" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="4"/>
         <v>Piedra zanja</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J91" s="3">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K91" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L91">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="M91" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N91" t="str">
         <f t="shared" si="7"/>
@@ -6994,7 +6999,7 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>156</v>
@@ -7003,28 +7008,28 @@
         <v>3.5</v>
       </c>
       <c r="G92" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="4"/>
         <v>Reduccion de desague 4" a 2"</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J92" s="3">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
       <c r="K92" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L92">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M92" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N92" t="str">
         <f t="shared" si="7"/>
@@ -7037,37 +7042,37 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D93" s="3">
         <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="4"/>
         <v>Rodillo de 12" - toro</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J93" s="3">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L93">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M93" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N93" t="str">
         <f t="shared" si="7"/>
@@ -7080,37 +7085,37 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D94" s="3">
         <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="4"/>
         <v>Rodillo de 9" - toro</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J94" s="3">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="K94" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L94">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M94" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N94" t="str">
         <f t="shared" si="7"/>
@@ -7123,7 +7128,7 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>169</v>
@@ -7132,28 +7137,28 @@
         <v>5</v>
       </c>
       <c r="G95" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="4"/>
         <v>Tee bronce de 1/2"</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J95" s="3">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K95" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L95">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M95" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N95" t="str">
         <f t="shared" si="7"/>
@@ -7166,7 +7171,7 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>152</v>
@@ -7175,28 +7180,28 @@
         <v>1.5</v>
       </c>
       <c r="G96" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="4"/>
         <v>Tee de agua 1/2"</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J96" s="3">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="K96" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L96">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M96" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N96" t="str">
         <f t="shared" si="7"/>
@@ -7209,7 +7214,7 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>151</v>
@@ -7218,28 +7223,28 @@
         <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="4"/>
         <v>Tee de agua 3/4"</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J97" s="3">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="K97" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L97">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M97" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N97" t="str">
         <f t="shared" si="7"/>
@@ -7252,7 +7257,7 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>163</v>
@@ -7261,28 +7266,28 @@
         <v>1.5</v>
       </c>
       <c r="G98" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="4"/>
         <v>Tee de agua caliente 1/2"</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J98" s="3">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="K98" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L98">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M98" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N98" t="str">
         <f t="shared" si="7"/>
@@ -7295,7 +7300,7 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>149</v>
@@ -7304,28 +7309,28 @@
         <v>6</v>
       </c>
       <c r="G99" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="4"/>
         <v>Tee de desague 4" x 2"</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J99" s="3">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="K99" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L99">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M99" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N99" t="str">
         <f t="shared" si="7"/>
@@ -7338,7 +7343,7 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>147</v>
@@ -7347,28 +7352,28 @@
         <v>7</v>
       </c>
       <c r="G100" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="4"/>
         <v>Tee de desague 4" x 4"</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J100" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="K100" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L100">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M100" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N100" t="str">
         <f t="shared" si="7"/>
@@ -7381,7 +7386,7 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>150</v>
@@ -7390,28 +7395,28 @@
         <v>3.5</v>
       </c>
       <c r="G101" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="4"/>
         <v>Tee de desague sanitaria 2"</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J101" s="3">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
       <c r="K101" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L101">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M101" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N101" t="str">
         <f t="shared" si="7"/>
@@ -7424,37 +7429,37 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D102" s="3">
         <v>24</v>
       </c>
       <c r="G102" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="4"/>
         <v>Triplay</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J102" s="3">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="K102" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L102">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M102" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N102" t="str">
         <f t="shared" si="7"/>
@@ -7467,7 +7472,7 @@
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>130</v>
@@ -7476,28 +7481,28 @@
         <v>10</v>
       </c>
       <c r="G103" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="4"/>
         <v>Tubo de agua 1/2"</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J103" s="3">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="K103" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L103">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M103" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N103" t="str">
         <f t="shared" si="7"/>
@@ -7510,7 +7515,7 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>131</v>
@@ -7519,28 +7524,28 @@
         <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="4"/>
         <v>Tubo de agua 3/4"</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J104" s="3">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="K104" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L104">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M104" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N104" t="str">
         <f t="shared" si="7"/>
@@ -7553,7 +7558,7 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>132</v>
@@ -7562,28 +7567,28 @@
         <v>18</v>
       </c>
       <c r="G105" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="4"/>
         <v>Tubo de agua caliente 1/2"</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J105" s="3">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="K105" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L105">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M105" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N105" t="str">
         <f t="shared" si="7"/>
@@ -7596,7 +7601,7 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>128</v>
@@ -7605,28 +7610,28 @@
         <v>10</v>
       </c>
       <c r="G106" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="4"/>
         <v>Tubo de agua desague 2"</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J106" s="3">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="K106" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L106">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M106" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N106" t="str">
         <f t="shared" si="7"/>
@@ -7639,7 +7644,7 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>129</v>
@@ -7648,28 +7653,28 @@
         <v>17</v>
       </c>
       <c r="G107" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="4"/>
         <v>Tubo de agua desague 3"</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J107" s="3">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="K107" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L107">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M107" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N107" t="str">
         <f t="shared" si="7"/>
@@ -7682,7 +7687,7 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>127</v>
@@ -7691,28 +7696,28 @@
         <v>20</v>
       </c>
       <c r="G108" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="4"/>
         <v>Tubo de agua desague 4"</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J108" s="3">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="K108" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L108">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M108" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N108" t="str">
         <f t="shared" si="7"/>
@@ -7725,7 +7730,7 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>133</v>
@@ -7734,28 +7739,28 @@
         <v>6</v>
       </c>
       <c r="G109" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="4"/>
         <v>Tubo de luz 1"</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J109" s="3">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="K109" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L109">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M109" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N109" t="str">
         <f t="shared" si="7"/>
@@ -7768,7 +7773,7 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>134</v>
@@ -7777,28 +7782,28 @@
         <v>3</v>
       </c>
       <c r="G110" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="4"/>
         <v>Tubo de luz 3/4"</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J110" s="3">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="K110" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L110">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M110" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N110" t="str">
         <f t="shared" si="7"/>
@@ -7811,7 +7816,7 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>167</v>
@@ -7820,28 +7825,28 @@
         <v>4</v>
       </c>
       <c r="G111" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="4"/>
         <v>Union bronce de 1/2"</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J111" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K111" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L111">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M111" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N111" t="str">
         <f t="shared" si="7"/>
@@ -7854,7 +7859,7 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>157</v>
@@ -7863,28 +7868,28 @@
         <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="4"/>
         <v>Union de agua 1/2"</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J112" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K112" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L112">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M112" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N112" t="str">
         <f t="shared" si="7"/>
@@ -7897,7 +7902,7 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>158</v>
@@ -7906,28 +7911,28 @@
         <v>2.5</v>
       </c>
       <c r="G113" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="4"/>
         <v>Union de agua 3/4"</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J113" s="3">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
       <c r="K113" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L113">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M113" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N113" t="str">
         <f t="shared" si="7"/>
@@ -7940,7 +7945,7 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>193</v>
@@ -7949,28 +7954,28 @@
         <v>3</v>
       </c>
       <c r="G114" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="4"/>
         <v>Visagra de 3" (par)</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J114" s="3">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="K114" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L114">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="M114" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N114" t="str">
         <f t="shared" si="7"/>
@@ -7983,7 +7988,7 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>192</v>
@@ -7992,28 +7997,28 @@
         <v>3.5</v>
       </c>
       <c r="G115" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="4"/>
         <v>Visagra de 3" capuchino (par)</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J115" s="3">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
       <c r="K115" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L115">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="M115" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N115" t="str">
         <f t="shared" si="7"/>
@@ -8026,7 +8031,7 @@
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>155</v>
@@ -8035,28 +8040,28 @@
         <v>3</v>
       </c>
       <c r="G116" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="4"/>
         <v>Yee de desague 2"</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J116" s="3">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="K116" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L116">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M116" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N116" t="str">
         <f t="shared" si="7"/>
@@ -8069,7 +8074,7 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>154</v>
@@ -8078,28 +8083,28 @@
         <v>6</v>
       </c>
       <c r="G117" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="4"/>
         <v>Yee de desague 4" x 2"</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J117" s="3">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="K117" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L117">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M117" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N117" t="str">
         <f t="shared" si="7"/>
@@ -8112,7 +8117,7 @@
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>153</v>
@@ -8121,28 +8126,28 @@
         <v>10</v>
       </c>
       <c r="G118" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="4"/>
         <v>Yee de desague 4" x 4"</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J118" s="3">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="K118" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L118">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M118" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N118" t="str">
         <f t="shared" si="7"/>
@@ -8155,7 +8160,7 @@
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>136</v>
@@ -8164,28 +8169,28 @@
         <v>3.5</v>
       </c>
       <c r="G119" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="4"/>
         <v>Yee sanitario de 2"</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J119" s="3">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
       <c r="K119" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L119">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M119" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N119" t="str">
         <f t="shared" si="7"/>
@@ -8198,7 +8203,7 @@
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>135</v>
@@ -8207,28 +8212,28 @@
         <v>12</v>
       </c>
       <c r="G120" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="4"/>
         <v>Yee sanitario de 4"</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J120" s="3">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="K120" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L120">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M120" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N120" t="str">
         <f t="shared" si="7"/>
@@ -8241,7 +8246,7 @@
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>148</v>
@@ -8250,28 +8255,28 @@
         <v>7</v>
       </c>
       <c r="G121" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="4"/>
         <v>Yee sanitario de 4" x 2"</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J121" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="K121" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L121">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M121" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N121" t="str">
         <f t="shared" si="7"/>
@@ -8298,10 +8303,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8309,7 +8314,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -8320,7 +8325,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -8331,7 +8336,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -8342,7 +8347,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -8353,7 +8358,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -8364,7 +8369,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -8375,7 +8380,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -8386,7 +8391,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -8397,7 +8402,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -8408,7 +8413,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -8419,7 +8424,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -8430,7 +8435,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C13">
         <v>12</v>

--- a/database/BD/backup/precios.xlsx
+++ b/database/BD/backup/precios.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="287">
   <si>
     <t>Tubos</t>
   </si>
@@ -860,6 +860,36 @@
   </si>
   <si>
     <t>Fierro de 5/8" - siderperu</t>
+  </si>
+  <si>
+    <t>Rectangular</t>
+  </si>
+  <si>
+    <t>Octogonal</t>
+  </si>
+  <si>
+    <t>Llave de paso 1/2" - simbal</t>
+  </si>
+  <si>
+    <t>Ladrillo pandereta (hasta 250 unidades)</t>
+  </si>
+  <si>
+    <t>Codo bronce de 1/2"</t>
+  </si>
+  <si>
+    <t>Aceite 3 en 1</t>
+  </si>
+  <si>
+    <t>Parante 3 metros</t>
+  </si>
+  <si>
+    <t>Liston 3 metros</t>
+  </si>
+  <si>
+    <t>Parante 2.5 metros</t>
+  </si>
+  <si>
+    <t>Liston 2.5 metros</t>
   </si>
 </sst>
 </file>
@@ -901,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -910,6 +940,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1192,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G215"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3091,10 +3124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4293,7 +4326,7 @@
         <v>241</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
       <c r="D29" s="3">
         <v>4.5</v>
@@ -4303,7 +4336,7 @@
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>Codo bronce de 1/2</v>
+        <v>Codo bronce de 1/2"</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>266</v>
@@ -4324,7 +4357,7 @@
       </c>
       <c r="N29" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo bronce de 1/2', 4.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo bronce de 1/2"', 4.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -5371,7 +5404,7 @@
         <v>222</v>
       </c>
       <c r="D54" s="3">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="G54" t="s">
         <v>267</v>
@@ -5385,7 +5418,7 @@
       </c>
       <c r="J54" s="3">
         <f t="shared" si="1"/>
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="K54" t="s">
         <v>269</v>
@@ -5399,7 +5432,7 @@
       </c>
       <c r="N54" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 1/2" - siderperu', 24.5, 'Activo', 0, 0, 4 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 1/2" - siderperu', 25.5, 'Activo', 0, 0, 4 ) ; </v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -5543,7 +5576,7 @@
         <v>276</v>
       </c>
       <c r="D58" s="3">
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="G58" t="s">
         <v>267</v>
@@ -5557,7 +5590,7 @@
       </c>
       <c r="J58" s="3">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>39.5</v>
       </c>
       <c r="K58" t="s">
         <v>269</v>
@@ -5571,7 +5604,7 @@
       </c>
       <c r="N58" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 5/8" - siderperu', 37.5, 'Activo', 0, 0, 4 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 5/8" - siderperu', 39.5, 'Activo', 0, 0, 4 ) ; </v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -8281,6 +8314,393 @@
       <c r="N121" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee sanitario de 4" x 2"', 7, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <f>VLOOKUP(B122,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D122" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H122" s="6" t="str">
+        <f t="shared" ref="H122" si="8">C122</f>
+        <v>Rectangular</v>
+      </c>
+      <c r="I122" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="J122" s="9">
+        <f t="shared" ref="J122" si="9">D122</f>
+        <v>1.5</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="L122" s="6">
+        <f t="shared" ref="L122" si="10">A122</f>
+        <v>3</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="N122" s="6" t="str">
+        <f t="shared" ref="N122" si="11">CONCATENATE(G122,H122,I122,J122,K122,L122,M122)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Rectangular', 1.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f>VLOOKUP(B123,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
+        <v>241</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D123" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G123" t="s">
+        <v>267</v>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" ref="H123" si="12">C123</f>
+        <v>Octogonal</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J123" s="3">
+        <f t="shared" ref="J123" si="13">D123</f>
+        <v>1.5</v>
+      </c>
+      <c r="K123" t="s">
+        <v>269</v>
+      </c>
+      <c r="L123">
+        <f t="shared" ref="L123" si="14">A123</f>
+        <v>3</v>
+      </c>
+      <c r="M123" t="s">
+        <v>268</v>
+      </c>
+      <c r="N123" t="str">
+        <f t="shared" ref="N123" si="15">CONCATENATE(G123,H123,I123,J123,K123,L123,M123)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Octogonal', 1.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f>VLOOKUP(B124,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B124" t="s">
+        <v>241</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="G124" t="s">
+        <v>267</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" ref="H124" si="16">C124</f>
+        <v>Ladrillo pandereta (hasta 250 unidades)</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J124" s="3">
+        <f t="shared" ref="J124" si="17">D124</f>
+        <v>0.44</v>
+      </c>
+      <c r="K124" t="s">
+        <v>269</v>
+      </c>
+      <c r="L124">
+        <f t="shared" ref="L124" si="18">A124</f>
+        <v>3</v>
+      </c>
+      <c r="M124" t="s">
+        <v>268</v>
+      </c>
+      <c r="N124" t="str">
+        <f t="shared" ref="N124" si="19">CONCATENATE(G124,H124,I124,J124,K124,L124,M124)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo pandereta (hasta 250 unidades)', 0.44, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f>VLOOKUP(B125,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B125" t="s">
+        <v>241</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D125" s="3">
+        <v>22</v>
+      </c>
+      <c r="G125" t="s">
+        <v>267</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" ref="H125" si="20">C125</f>
+        <v>Llave de paso 1/2" - simbal</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J125" s="3">
+        <f t="shared" ref="J125" si="21">D125</f>
+        <v>22</v>
+      </c>
+      <c r="K125" t="s">
+        <v>269</v>
+      </c>
+      <c r="L125">
+        <f t="shared" ref="L125" si="22">A125</f>
+        <v>3</v>
+      </c>
+      <c r="M125" t="s">
+        <v>268</v>
+      </c>
+      <c r="N125" t="str">
+        <f t="shared" ref="N125" si="23">CONCATENATE(G125,H125,I125,J125,K125,L125,M125)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave de paso 1/2" - simbal', 22, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f>VLOOKUP(B126,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>249</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D126" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G126" t="s">
+        <v>267</v>
+      </c>
+      <c r="H126" t="str">
+        <f t="shared" ref="H126" si="24">C126</f>
+        <v>Aceite 3 en 1</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J126" s="3">
+        <f t="shared" ref="J126" si="25">D126</f>
+        <v>3.5</v>
+      </c>
+      <c r="K126" t="s">
+        <v>269</v>
+      </c>
+      <c r="L126">
+        <f t="shared" ref="L126" si="26">A126</f>
+        <v>7</v>
+      </c>
+      <c r="M126" t="s">
+        <v>268</v>
+      </c>
+      <c r="N126" t="str">
+        <f t="shared" ref="N126" si="27">CONCATENATE(G126,H126,I126,J126,K126,L126,M126)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Aceite 3 en 1', 3.5, 'Activo', 0, 0, 7 ) ; </v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f>VLOOKUP(B127,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>241</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D127" s="3">
+        <v>8</v>
+      </c>
+      <c r="G127" t="s">
+        <v>267</v>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" ref="H127:H128" si="28">C127</f>
+        <v>Parante 3 metros</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J127" s="3">
+        <f t="shared" ref="J127:J129" si="29">D127</f>
+        <v>8</v>
+      </c>
+      <c r="K127" t="s">
+        <v>269</v>
+      </c>
+      <c r="L127">
+        <f t="shared" ref="L127" si="30">A127</f>
+        <v>3</v>
+      </c>
+      <c r="M127" t="s">
+        <v>268</v>
+      </c>
+      <c r="N127" t="str">
+        <f t="shared" ref="N127" si="31">CONCATENATE(G127,H127,I127,J127,K127,L127,M127)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Parante 3 metros', 8, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f>VLOOKUP(B128,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B128" t="s">
+        <v>241</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D128" s="3">
+        <v>7</v>
+      </c>
+      <c r="G128" t="s">
+        <v>267</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" ref="H128:H130" si="32">C128</f>
+        <v>Parante 2.5 metros</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J128" s="3">
+        <f t="shared" ref="J128:J130" si="33">D128</f>
+        <v>7</v>
+      </c>
+      <c r="K128" t="s">
+        <v>269</v>
+      </c>
+      <c r="L128">
+        <f t="shared" ref="L128:L130" si="34">A128</f>
+        <v>3</v>
+      </c>
+      <c r="M128" t="s">
+        <v>268</v>
+      </c>
+      <c r="N128" t="str">
+        <f t="shared" ref="N128:N130" si="35">CONCATENATE(G128,H128,I128,J128,K128,L128,M128)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Parante 2.5 metros', 7, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f>VLOOKUP(B129,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B129" t="s">
+        <v>241</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D129" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G129" t="s">
+        <v>267</v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="32"/>
+        <v>Liston 3 metros</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J129" s="3">
+        <f t="shared" si="33"/>
+        <v>4.5</v>
+      </c>
+      <c r="K129" t="s">
+        <v>269</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="M129" t="s">
+        <v>268</v>
+      </c>
+      <c r="N129" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Liston 3 metros', 4.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f>VLOOKUP(B130,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
+        <v>241</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D130" s="3">
+        <v>4</v>
+      </c>
+      <c r="G130" t="s">
+        <v>267</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="32"/>
+        <v>Liston 2.5 metros</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J130" s="3">
+        <f t="shared" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="K130" t="s">
+        <v>269</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="M130" t="s">
+        <v>268</v>
+      </c>
+      <c r="N130" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Liston 2.5 metros', 4, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
   </sheetData>

--- a/database/BD/backup/precios.xlsx
+++ b/database/BD/backup/precios.xlsx
@@ -871,9 +871,6 @@
     <t>Llave de paso 1/2" - simbal</t>
   </si>
   <si>
-    <t>Ladrillo pandereta (hasta 250 unidades)</t>
-  </si>
-  <si>
     <t>Codo bronce de 1/2"</t>
   </si>
   <si>
@@ -890,6 +887,9 @@
   </si>
   <si>
     <t>Liston 2.5 metros</t>
+  </si>
+  <si>
+    <t>Ladrillo pandereta (unidad)</t>
   </si>
 </sst>
 </file>
@@ -3126,8 +3126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4326,7 +4326,7 @@
         <v>241</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D29" s="3">
         <v>4.5</v>
@@ -8411,24 +8411,24 @@
         <v>241</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D124" s="3">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="G124" t="s">
         <v>267</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" ref="H124" si="16">C124</f>
-        <v>Ladrillo pandereta (hasta 250 unidades)</v>
+        <v>Ladrillo pandereta (unidad)</v>
       </c>
       <c r="I124" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J124" s="3">
         <f t="shared" ref="J124" si="17">D124</f>
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="K124" t="s">
         <v>269</v>
@@ -8442,7 +8442,7 @@
       </c>
       <c r="N124" t="str">
         <f t="shared" ref="N124" si="19">CONCATENATE(G124,H124,I124,J124,K124,L124,M124)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo pandereta (hasta 250 unidades)', 0.44, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo pandereta (unidad)', 0.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -8497,7 +8497,7 @@
         <v>249</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D126" s="3">
         <v>3.5</v>
@@ -8540,7 +8540,7 @@
         <v>241</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D127" s="3">
         <v>8</v>
@@ -8549,14 +8549,14 @@
         <v>267</v>
       </c>
       <c r="H127" t="str">
-        <f t="shared" ref="H127:H128" si="28">C127</f>
+        <f t="shared" ref="H127" si="28">C127</f>
         <v>Parante 3 metros</v>
       </c>
       <c r="I127" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J127" s="3">
-        <f t="shared" ref="J127:J129" si="29">D127</f>
+        <f t="shared" ref="J127" si="29">D127</f>
         <v>8</v>
       </c>
       <c r="K127" t="s">
@@ -8583,7 +8583,7 @@
         <v>241</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D128" s="3">
         <v>7</v>
@@ -8626,7 +8626,7 @@
         <v>241</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D129" s="3">
         <v>4.5</v>
@@ -8669,7 +8669,7 @@
         <v>241</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D130" s="3">
         <v>4</v>

--- a/database/BD/backup/precios.xlsx
+++ b/database/BD/backup/precios.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="288">
   <si>
     <t>Tubos</t>
   </si>
@@ -890,6 +890,9 @@
   </si>
   <si>
     <t>Ladrillo pandereta (unidad)</t>
+  </si>
+  <si>
+    <t>Ladrillo de techo 12 x 30 (unidad)</t>
   </si>
 </sst>
 </file>
@@ -3124,10 +3127,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8599,7 +8602,7 @@
         <v>266</v>
       </c>
       <c r="J128" s="3">
-        <f t="shared" ref="J128:J130" si="33">D128</f>
+        <f t="shared" ref="J128:J131" si="33">D128</f>
         <v>7</v>
       </c>
       <c r="K128" t="s">
@@ -8701,6 +8704,49 @@
       <c r="N130" t="str">
         <f t="shared" si="35"/>
         <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Liston 2.5 metros', 4, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f>VLOOKUP(B131,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
+        <v>241</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D131" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="G131" t="s">
+        <v>267</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" ref="H131" si="36">C131</f>
+        <v>Ladrillo de techo 12 x 30 (unidad)</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J131" s="3">
+        <f t="shared" ref="J131" si="37">D131</f>
+        <v>2.1</v>
+      </c>
+      <c r="K131" t="s">
+        <v>269</v>
+      </c>
+      <c r="L131">
+        <f t="shared" ref="L131" si="38">A131</f>
+        <v>3</v>
+      </c>
+      <c r="M131" t="s">
+        <v>268</v>
+      </c>
+      <c r="N131" t="str">
+        <f t="shared" ref="N131" si="39">CONCATENATE(G131,H131,I131,J131,K131,L131,M131)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo de techo 12 x 30 (unidad)', 2.1, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
   </sheetData>

--- a/database/BD/backup/precios.xlsx
+++ b/database/BD/backup/precios.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="287">
   <si>
     <t>Tubos</t>
   </si>
@@ -887,9 +887,6 @@
   </si>
   <si>
     <t>Liston 2.5 metros</t>
-  </si>
-  <si>
-    <t>Ladrillo pandereta (unidad)</t>
   </si>
   <si>
     <t>Ladrillo de techo 12 x 30 (unidad)</t>
@@ -3127,10 +3124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N131"/>
+  <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8414,24 +8411,24 @@
         <v>241</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D124" s="3">
-        <v>0.5</v>
+        <v>22</v>
       </c>
       <c r="G124" t="s">
         <v>267</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" ref="H124" si="16">C124</f>
-        <v>Ladrillo pandereta (unidad)</v>
+        <v>Llave de paso 1/2" - simbal</v>
       </c>
       <c r="I124" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J124" s="3">
         <f t="shared" ref="J124" si="17">D124</f>
-        <v>0.5</v>
+        <v>22</v>
       </c>
       <c r="K124" t="s">
         <v>269</v>
@@ -8445,93 +8442,93 @@
       </c>
       <c r="N124" t="str">
         <f t="shared" ref="N124" si="19">CONCATENATE(G124,H124,I124,J124,K124,L124,M124)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo pandereta (unidad)', 0.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave de paso 1/2" - simbal', 22, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>VLOOKUP(B125,'Maestra de unidades'!$B:$C,2,0)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D125" s="3">
-        <v>22</v>
+        <v>3.5</v>
       </c>
       <c r="G125" t="s">
         <v>267</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" ref="H125" si="20">C125</f>
-        <v>Llave de paso 1/2" - simbal</v>
+        <v>Aceite 3 en 1</v>
       </c>
       <c r="I125" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J125" s="3">
         <f t="shared" ref="J125" si="21">D125</f>
-        <v>22</v>
+        <v>3.5</v>
       </c>
       <c r="K125" t="s">
         <v>269</v>
       </c>
       <c r="L125">
         <f t="shared" ref="L125" si="22">A125</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M125" t="s">
         <v>268</v>
       </c>
       <c r="N125" t="str">
         <f t="shared" ref="N125" si="23">CONCATENATE(G125,H125,I125,J125,K125,L125,M125)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave de paso 1/2" - simbal', 22, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Aceite 3 en 1', 3.5, 'Activo', 0, 0, 7 ) ; </v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
         <f>VLOOKUP(B126,'Maestra de unidades'!$B:$C,2,0)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D126" s="3">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="G126" t="s">
         <v>267</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" ref="H126" si="24">C126</f>
-        <v>Aceite 3 en 1</v>
+        <v>Parante 3 metros</v>
       </c>
       <c r="I126" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J126" s="3">
         <f t="shared" ref="J126" si="25">D126</f>
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="K126" t="s">
         <v>269</v>
       </c>
       <c r="L126">
         <f t="shared" ref="L126" si="26">A126</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M126" t="s">
         <v>268</v>
       </c>
       <c r="N126" t="str">
         <f t="shared" ref="N126" si="27">CONCATENATE(G126,H126,I126,J126,K126,L126,M126)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Aceite 3 en 1', 3.5, 'Activo', 0, 0, 7 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Parante 3 metros', 8, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -8543,38 +8540,38 @@
         <v>241</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D127" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G127" t="s">
         <v>267</v>
       </c>
       <c r="H127" t="str">
-        <f t="shared" ref="H127" si="28">C127</f>
-        <v>Parante 3 metros</v>
+        <f t="shared" ref="H127:H129" si="28">C127</f>
+        <v>Parante 2.5 metros</v>
       </c>
       <c r="I127" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J127" s="3">
-        <f t="shared" ref="J127" si="29">D127</f>
-        <v>8</v>
+        <f t="shared" ref="J127:J129" si="29">D127</f>
+        <v>7</v>
       </c>
       <c r="K127" t="s">
         <v>269</v>
       </c>
       <c r="L127">
-        <f t="shared" ref="L127" si="30">A127</f>
+        <f t="shared" ref="L127:L129" si="30">A127</f>
         <v>3</v>
       </c>
       <c r="M127" t="s">
         <v>268</v>
       </c>
       <c r="N127" t="str">
-        <f t="shared" ref="N127" si="31">CONCATENATE(G127,H127,I127,J127,K127,L127,M127)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Parante 3 metros', 8, 'Activo', 0, 0, 3 ) ; </v>
+        <f t="shared" ref="N127:N129" si="31">CONCATENATE(G127,H127,I127,J127,K127,L127,M127)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Parante 2.5 metros', 7, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -8586,38 +8583,38 @@
         <v>241</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D128" s="3">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="G128" t="s">
         <v>267</v>
       </c>
       <c r="H128" t="str">
-        <f t="shared" ref="H128:H130" si="32">C128</f>
-        <v>Parante 2.5 metros</v>
+        <f t="shared" si="28"/>
+        <v>Liston 3 metros</v>
       </c>
       <c r="I128" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J128" s="3">
-        <f t="shared" ref="J128:J131" si="33">D128</f>
-        <v>7</v>
+        <f t="shared" si="29"/>
+        <v>4.5</v>
       </c>
       <c r="K128" t="s">
         <v>269</v>
       </c>
       <c r="L128">
-        <f t="shared" ref="L128:L130" si="34">A128</f>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="M128" t="s">
         <v>268</v>
       </c>
       <c r="N128" t="str">
-        <f t="shared" ref="N128:N130" si="35">CONCATENATE(G128,H128,I128,J128,K128,L128,M128)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Parante 2.5 metros', 7, 'Activo', 0, 0, 3 ) ; </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Liston 3 metros', 4.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -8629,38 +8626,38 @@
         <v>241</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D129" s="3">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G129" t="s">
         <v>267</v>
       </c>
       <c r="H129" t="str">
-        <f t="shared" si="32"/>
-        <v>Liston 3 metros</v>
+        <f t="shared" si="28"/>
+        <v>Liston 2.5 metros</v>
       </c>
       <c r="I129" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J129" s="3">
-        <f t="shared" si="33"/>
-        <v>4.5</v>
+        <f t="shared" si="29"/>
+        <v>4</v>
       </c>
       <c r="K129" t="s">
         <v>269</v>
       </c>
       <c r="L129">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="M129" t="s">
         <v>268</v>
       </c>
       <c r="N129" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Liston 3 metros', 4.5, 'Activo', 0, 0, 3 ) ; </v>
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Liston 2.5 metros', 4, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -8672,80 +8669,37 @@
         <v>241</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D130" s="3">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="G130" t="s">
         <v>267</v>
       </c>
       <c r="H130" t="str">
-        <f t="shared" si="32"/>
-        <v>Liston 2.5 metros</v>
+        <f t="shared" ref="H130" si="32">C130</f>
+        <v>Ladrillo de techo 12 x 30 (unidad)</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J130" s="3">
-        <f t="shared" si="33"/>
-        <v>4</v>
+        <f t="shared" ref="J130" si="33">D130</f>
+        <v>2.1</v>
       </c>
       <c r="K130" t="s">
         <v>269</v>
       </c>
       <c r="L130">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="L130" si="34">A130</f>
         <v>3</v>
       </c>
       <c r="M130" t="s">
         <v>268</v>
       </c>
       <c r="N130" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Liston 2.5 metros', 4, 'Activo', 0, 0, 3 ) ; </v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <f>VLOOKUP(B131,'Maestra de unidades'!$B:$C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="B131" t="s">
-        <v>241</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D131" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="G131" t="s">
-        <v>267</v>
-      </c>
-      <c r="H131" t="str">
-        <f t="shared" ref="H131" si="36">C131</f>
-        <v>Ladrillo de techo 12 x 30 (unidad)</v>
-      </c>
-      <c r="I131" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="J131" s="3">
-        <f t="shared" ref="J131" si="37">D131</f>
-        <v>2.1</v>
-      </c>
-      <c r="K131" t="s">
-        <v>269</v>
-      </c>
-      <c r="L131">
-        <f t="shared" ref="L131" si="38">A131</f>
-        <v>3</v>
-      </c>
-      <c r="M131" t="s">
-        <v>268</v>
-      </c>
-      <c r="N131" t="str">
-        <f t="shared" ref="N131" si="39">CONCATENATE(G131,H131,I131,J131,K131,L131,M131)</f>
+        <f t="shared" ref="N130" si="35">CONCATENATE(G130,H130,I130,J130,K130,L130,M130)</f>
         <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo de techo 12 x 30 (unidad)', 2.1, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>

--- a/database/BD/backup/precios.xlsx
+++ b/database/BD/backup/precios.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="286">
   <si>
     <t>Tubos</t>
   </si>
@@ -887,9 +887,6 @@
   </si>
   <si>
     <t>Liston 2.5 metros</t>
-  </si>
-  <si>
-    <t>Ladrillo de techo 12 x 30 (unidad)</t>
   </si>
 </sst>
 </file>
@@ -3124,10 +3121,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8658,49 +8655,6 @@
       <c r="N129" t="str">
         <f t="shared" si="31"/>
         <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Liston 2.5 metros', 4, 'Activo', 0, 0, 3 ) ; </v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <f>VLOOKUP(B130,'Maestra de unidades'!$B:$C,2,0)</f>
-        <v>3</v>
-      </c>
-      <c r="B130" t="s">
-        <v>241</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D130" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="G130" t="s">
-        <v>267</v>
-      </c>
-      <c r="H130" t="str">
-        <f t="shared" ref="H130" si="32">C130</f>
-        <v>Ladrillo de techo 12 x 30 (unidad)</v>
-      </c>
-      <c r="I130" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="J130" s="3">
-        <f t="shared" ref="J130" si="33">D130</f>
-        <v>2.1</v>
-      </c>
-      <c r="K130" t="s">
-        <v>269</v>
-      </c>
-      <c r="L130">
-        <f t="shared" ref="L130" si="34">A130</f>
-        <v>3</v>
-      </c>
-      <c r="M130" t="s">
-        <v>268</v>
-      </c>
-      <c r="N130" t="str">
-        <f t="shared" ref="N130" si="35">CONCATENATE(G130,H130,I130,J130,K130,L130,M130)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo de techo 12 x 30 (unidad)', 2.1, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
   </sheetData>

--- a/database/BD/backup/precios.xlsx
+++ b/database/BD/backup/precios.xlsx
@@ -3123,8 +3123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3681,7 +3681,7 @@
         <v>270</v>
       </c>
       <c r="D14" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
         <v>267</v>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s">
         <v>269</v>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="N14" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento andino tipo 1', 23, 'Activo', 0, 0, 1 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento andino tipo 1', 24, 'Activo', 0, 0, 1 ) ; </v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3724,7 +3724,7 @@
         <v>271</v>
       </c>
       <c r="D15" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
         <v>267</v>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="J15" s="3">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K15" t="s">
         <v>269</v>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="N15" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento andino tipo 5', 27, 'Activo', 0, 0, 1 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento andino tipo 5', 28, 'Activo', 0, 0, 1 ) ; </v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3896,7 +3896,7 @@
         <v>275</v>
       </c>
       <c r="D19" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
         <v>267</v>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
         <v>269</v>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="N19" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento sol tipo 1', 21, 'Activo', 0, 0, 1 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento sol tipo 1', 22, 'Activo', 0, 0, 1 ) ; </v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">

--- a/database/BD/backup/precios.xlsx
+++ b/database/BD/backup/precios.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="387">
   <si>
     <t>Tubos</t>
   </si>
@@ -859,9 +859,6 @@
     <t>Cemento sol tipo 1</t>
   </si>
   <si>
-    <t>Fierro de 5/8" - siderperu</t>
-  </si>
-  <si>
     <t>Rectangular</t>
   </si>
   <si>
@@ -871,22 +868,328 @@
     <t>Llave de paso 1/2" - simbal</t>
   </si>
   <si>
-    <t>Codo bronce de 1/2"</t>
-  </si>
-  <si>
     <t>Aceite 3 en 1</t>
   </si>
   <si>
-    <t>Parante 3 metros</t>
-  </si>
-  <si>
-    <t>Liston 3 metros</t>
-  </si>
-  <si>
-    <t>Parante 2.5 metros</t>
-  </si>
-  <si>
-    <t>Liston 2.5 metros</t>
+    <t>Ladrillo pandereta</t>
+  </si>
+  <si>
+    <t>Adaptador agua 1/2"</t>
+  </si>
+  <si>
+    <t>Adaptador agua 3/4"</t>
+  </si>
+  <si>
+    <t>Adaptador agua 1/2" caliente</t>
+  </si>
+  <si>
+    <t>Alambre N16</t>
+  </si>
+  <si>
+    <t>Alambre N8</t>
+  </si>
+  <si>
+    <t>Cable de luz N12</t>
+  </si>
+  <si>
+    <t>Cable de luz N14</t>
+  </si>
+  <si>
+    <t>Calamina 3.0m</t>
+  </si>
+  <si>
+    <t>Calamina 3.6m</t>
+  </si>
+  <si>
+    <t>Clavo 1y1/2"</t>
+  </si>
+  <si>
+    <t>Clavo 1"</t>
+  </si>
+  <si>
+    <t>Clavo 2"</t>
+  </si>
+  <si>
+    <t>Clavo 3"</t>
+  </si>
+  <si>
+    <t>Clavo 4"</t>
+  </si>
+  <si>
+    <t>Clavo acero 2"</t>
+  </si>
+  <si>
+    <t>Clavo acero 3"</t>
+  </si>
+  <si>
+    <t>Clavo acero 4"</t>
+  </si>
+  <si>
+    <t>Clavo calamina</t>
+  </si>
+  <si>
+    <t>Codo bronce 1/2"</t>
+  </si>
+  <si>
+    <t>Codo agua 1/2"</t>
+  </si>
+  <si>
+    <t>Codo agua 3/4" 45°</t>
+  </si>
+  <si>
+    <t>Codo agua 3/4" 90°</t>
+  </si>
+  <si>
+    <t>Codo desague 2" 45°</t>
+  </si>
+  <si>
+    <t>Codo desague 2" 90°</t>
+  </si>
+  <si>
+    <t>Codo desague 4" 45°</t>
+  </si>
+  <si>
+    <t>Codo agua caliente 1/2"</t>
+  </si>
+  <si>
+    <t>Codo desague 4" 90°</t>
+  </si>
+  <si>
+    <t>Codo desague 4"a2"</t>
+  </si>
+  <si>
+    <t>Codo luz 1"</t>
+  </si>
+  <si>
+    <t>Codo luz 3/4"</t>
+  </si>
+  <si>
+    <t>Codo galvanizado 1/2"</t>
+  </si>
+  <si>
+    <t>Disco corte fierro 14"</t>
+  </si>
+  <si>
+    <t>Disco corte fierro 4"</t>
+  </si>
+  <si>
+    <t>Disco corte fierro 7"</t>
+  </si>
+  <si>
+    <t>Disco corte fierro 9"</t>
+  </si>
+  <si>
+    <t>Disco para concreto 15" - dinamo</t>
+  </si>
+  <si>
+    <t>Disco para concreto 15" - kamasa</t>
+  </si>
+  <si>
+    <t>Disco para concreto 30" - dinamo</t>
+  </si>
+  <si>
+    <t>Disco para concreto 4" - dinamo</t>
+  </si>
+  <si>
+    <t>Disco para concreto 4" - kamasa</t>
+  </si>
+  <si>
+    <t>Fierro 1/2" - siderperu</t>
+  </si>
+  <si>
+    <t>Fierro 1/4" 6mm - siderperu</t>
+  </si>
+  <si>
+    <t>Fierro 3/4" - siderperu</t>
+  </si>
+  <si>
+    <t>Fierro 3/8" - siderperu</t>
+  </si>
+  <si>
+    <t>Fierro 5/8" - siderperu</t>
+  </si>
+  <si>
+    <t>Fierro 8mm - siderperu</t>
+  </si>
+  <si>
+    <t>Foco 27 W</t>
+  </si>
+  <si>
+    <t>Foco 32 W</t>
+  </si>
+  <si>
+    <t>Foco 42 W</t>
+  </si>
+  <si>
+    <t>Foco 85 W</t>
+  </si>
+  <si>
+    <t>Foco LED 7 W</t>
+  </si>
+  <si>
+    <t>Ladrillo 18 huecos limpio</t>
+  </si>
+  <si>
+    <t>Ladrillo 18 huecos semi limpio</t>
+  </si>
+  <si>
+    <t>Ladrillo techo 12x30</t>
+  </si>
+  <si>
+    <t>Ladrillo techo 15x30</t>
+  </si>
+  <si>
+    <t>Ladrillo techo 8x30</t>
+  </si>
+  <si>
+    <t>Llave termica 16 - bticino</t>
+  </si>
+  <si>
+    <t>Llave termica 20 - bticino</t>
+  </si>
+  <si>
+    <t>Llave termica 32 - bticino</t>
+  </si>
+  <si>
+    <t>Llave termica 60 - bticino</t>
+  </si>
+  <si>
+    <t>Llave termica 60 - stronger</t>
+  </si>
+  <si>
+    <t>Niple 1/2"</t>
+  </si>
+  <si>
+    <t>Niple bronce 1/2"</t>
+  </si>
+  <si>
+    <t>Pegamento PVC 1/16" azul</t>
+  </si>
+  <si>
+    <t>Pegamento PVC 1/16" dorado</t>
+  </si>
+  <si>
+    <t>Pegamento PVC 1/32" azul</t>
+  </si>
+  <si>
+    <t>Pegamento PVC 1/32" dorado</t>
+  </si>
+  <si>
+    <t>Pegamento PVC 1/4" dorado</t>
+  </si>
+  <si>
+    <t>Pegamento PVC 1/8" azul</t>
+  </si>
+  <si>
+    <t>Pegamento PVC 1/8" dorado</t>
+  </si>
+  <si>
+    <t>Pegamento PVC agua caliente</t>
+  </si>
+  <si>
+    <t>Pegamento polvo - celima</t>
+  </si>
+  <si>
+    <t>Reduccion desague 4"a2"</t>
+  </si>
+  <si>
+    <t>Rodillo 12" - toro</t>
+  </si>
+  <si>
+    <t>Rodillo 9" - toro</t>
+  </si>
+  <si>
+    <t>Tee bronce 1/2"</t>
+  </si>
+  <si>
+    <t>Tee agua 1/2"</t>
+  </si>
+  <si>
+    <t>Tee agua 3/4"</t>
+  </si>
+  <si>
+    <t>Tee agua caliente 1/2"</t>
+  </si>
+  <si>
+    <t>Tee desague 4" x 2"</t>
+  </si>
+  <si>
+    <t>Tee desague 4" x 4"</t>
+  </si>
+  <si>
+    <t>Tee desague sanitaria 2"</t>
+  </si>
+  <si>
+    <t>Tubo agua 1/2"</t>
+  </si>
+  <si>
+    <t>Tubo agua 3/4"</t>
+  </si>
+  <si>
+    <t>Tubo agua caliente 1/2"</t>
+  </si>
+  <si>
+    <t>Tubo desague 2"</t>
+  </si>
+  <si>
+    <t>Tubo desague 3"</t>
+  </si>
+  <si>
+    <t>Tubo desague 4"</t>
+  </si>
+  <si>
+    <t>Tubo luz 1"</t>
+  </si>
+  <si>
+    <t>Tubo luz 3/4"</t>
+  </si>
+  <si>
+    <t>Union bronce 1/2"</t>
+  </si>
+  <si>
+    <t>Union agua 1/2"</t>
+  </si>
+  <si>
+    <t>Union agua 3/4"</t>
+  </si>
+  <si>
+    <t>Visagra 3" (par)</t>
+  </si>
+  <si>
+    <t>Visagra 3" - capuchino (par)</t>
+  </si>
+  <si>
+    <t>Yee desague 2"</t>
+  </si>
+  <si>
+    <t>Yee sanitario 2"</t>
+  </si>
+  <si>
+    <t>Yee sanitario 4"</t>
+  </si>
+  <si>
+    <t>Yee desague 4"x2"</t>
+  </si>
+  <si>
+    <t>Yee desague 4"x4"</t>
+  </si>
+  <si>
+    <t>Yee sanitario 4"x2"</t>
+  </si>
+  <si>
+    <t>Parante 3m</t>
+  </si>
+  <si>
+    <t>Parante 2.5m</t>
+  </si>
+  <si>
+    <t>Liston 3m</t>
+  </si>
+  <si>
+    <t>Liston 2.5m</t>
+  </si>
+  <si>
+    <t>Clavo 2"y1/2"</t>
   </si>
 </sst>
 </file>
@@ -3121,10 +3424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3205,7 +3508,7 @@
         <v>241</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>281</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -3215,7 +3518,7 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="0">C3</f>
-        <v>Adaptador de agua 1/2"</v>
+        <v>Adaptador agua 1/2"</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>266</v>
@@ -3236,7 +3539,7 @@
       </c>
       <c r="N3" t="str">
         <f t="shared" ref="N3:N66" si="3">CONCATENATE(G3,H3,I3,J3,K3,L3,M3)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Adaptador de agua 1/2"', 1, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Adaptador agua 1/2"', 1, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3248,7 +3551,7 @@
         <v>241</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="D4" s="3">
         <v>2.5</v>
@@ -3258,7 +3561,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>Adaptador de agua 3/4"</v>
+        <v>Adaptador agua 3/4"</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>266</v>
@@ -3279,7 +3582,7 @@
       </c>
       <c r="N4" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Adaptador de agua 3/4"', 2.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Adaptador agua 3/4"', 2.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -3291,7 +3594,7 @@
         <v>241</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>162</v>
+        <v>283</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -3301,7 +3604,7 @@
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>Adaptador de agua caliente 1/2"</v>
+        <v>Adaptador agua 1/2" caliente</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>266</v>
@@ -3322,7 +3625,7 @@
       </c>
       <c r="N5" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Adaptador de agua caliente 1/2"', 1, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Adaptador agua 1/2" caliente', 1, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -3334,7 +3637,7 @@
         <v>242</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
@@ -3344,7 +3647,7 @@
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>Alambre N° 16</v>
+        <v>Alambre N16</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>266</v>
@@ -3365,7 +3668,7 @@
       </c>
       <c r="N6" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Alambre N° 16', 4, 'Activo', 0, 0, 6 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Alambre N16', 4, 'Activo', 0, 0, 6 ) ; </v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3377,7 +3680,7 @@
         <v>242</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
@@ -3387,7 +3690,7 @@
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>Alambre N° 8</v>
+        <v>Alambre N8</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>266</v>
@@ -3408,7 +3711,7 @@
       </c>
       <c r="N7" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Alambre N° 8', 4, 'Activo', 0, 0, 6 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Alambre N8', 4, 'Activo', 0, 0, 6 ) ; </v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -3506,7 +3809,7 @@
         <v>243</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="D10" s="3">
         <v>145</v>
@@ -3516,7 +3819,7 @@
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>Cable de luz N° 12</v>
+        <v>Cable de luz N12</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>266</v>
@@ -3537,7 +3840,7 @@
       </c>
       <c r="N10" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cable de luz N° 12', 145, 'Activo', 0, 0, 10 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cable de luz N12', 145, 'Activo', 0, 0, 10 ) ; </v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3549,7 +3852,7 @@
         <v>243</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>196</v>
+        <v>287</v>
       </c>
       <c r="D11" s="3">
         <v>80</v>
@@ -3559,7 +3862,7 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>Cable de luz N° 14</v>
+        <v>Cable de luz N14</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>266</v>
@@ -3580,7 +3883,7 @@
       </c>
       <c r="N11" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cable de luz N° 14', 80, 'Activo', 0, 0, 10 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cable de luz N14', 80, 'Activo', 0, 0, 10 ) ; </v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -3592,24 +3895,24 @@
         <v>241</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="D12" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
         <v>267</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>Calamina de 3.0 m</v>
+        <v>Calamina 3.0m</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
         <v>269</v>
@@ -3623,7 +3926,7 @@
       </c>
       <c r="N12" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Calamina de 3.0 m', 12, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Calamina 3.0m', 13, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -3635,24 +3938,24 @@
         <v>241</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="D13" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>267</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>Calamina de 3.6 m</v>
+        <v>Calamina 3.6m</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
         <v>269</v>
@@ -3666,7 +3969,7 @@
       </c>
       <c r="N13" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Calamina de 3.6 m', 14, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Calamina 3.6m', 15, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3936,7 +4239,7 @@
         <v>242</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="D20" s="3">
         <v>8</v>
@@ -3946,7 +4249,7 @@
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>Clavo de 1 y 1/2"</v>
+        <v>Clavo 1y1/2"</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>266</v>
@@ -3967,7 +4270,7 @@
       </c>
       <c r="N20" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo de 1 y 1/2"', 8, 'Activo', 0, 0, 6 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo 1y1/2"', 8, 'Activo', 0, 0, 6 ) ; </v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -3979,7 +4282,7 @@
         <v>242</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>181</v>
+        <v>291</v>
       </c>
       <c r="D21" s="3">
         <v>8</v>
@@ -3989,7 +4292,7 @@
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>Clavo de 1"</v>
+        <v>Clavo 1"</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>266</v>
@@ -4010,7 +4313,7 @@
       </c>
       <c r="N21" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo de 1"', 8, 'Activo', 0, 0, 6 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo 1"', 8, 'Activo', 0, 0, 6 ) ; </v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -4022,7 +4325,7 @@
         <v>242</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="D22" s="3">
         <v>4.5</v>
@@ -4032,7 +4335,7 @@
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>Clavo de 2"</v>
+        <v>Clavo 2"</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>266</v>
@@ -4053,7 +4356,7 @@
       </c>
       <c r="N22" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo de 2"', 4.5, 'Activo', 0, 0, 6 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo 2"', 4.5, 'Activo', 0, 0, 6 ) ; </v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -4065,7 +4368,7 @@
         <v>242</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>179</v>
+        <v>293</v>
       </c>
       <c r="D23" s="3">
         <v>4.5</v>
@@ -4075,7 +4378,7 @@
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>Clavo de 3"</v>
+        <v>Clavo 3"</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>266</v>
@@ -4096,7 +4399,7 @@
       </c>
       <c r="N23" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo de 3"', 4.5, 'Activo', 0, 0, 6 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo 3"', 4.5, 'Activo', 0, 0, 6 ) ; </v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -4108,7 +4411,7 @@
         <v>242</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>178</v>
+        <v>294</v>
       </c>
       <c r="D24" s="3">
         <v>4.5</v>
@@ -4118,7 +4421,7 @@
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>Clavo de 4"</v>
+        <v>Clavo 4"</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>266</v>
@@ -4139,7 +4442,7 @@
       </c>
       <c r="N24" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo de 4"', 4.5, 'Activo', 0, 0, 6 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo 4"', 4.5, 'Activo', 0, 0, 6 ) ; </v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -4151,7 +4454,7 @@
         <v>245</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>184</v>
+        <v>295</v>
       </c>
       <c r="D25" s="3">
         <v>9</v>
@@ -4161,7 +4464,7 @@
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>Clavo de acero 2"</v>
+        <v>Clavo acero 2"</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>266</v>
@@ -4182,7 +4485,7 @@
       </c>
       <c r="N25" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo de acero 2"', 9, 'Activo', 0, 0, 11 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo acero 2"', 9, 'Activo', 0, 0, 11 ) ; </v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -4194,7 +4497,7 @@
         <v>245</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="D26" s="3">
         <v>9</v>
@@ -4204,7 +4507,7 @@
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>Clavo de acero 3"</v>
+        <v>Clavo acero 3"</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>266</v>
@@ -4225,7 +4528,7 @@
       </c>
       <c r="N26" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo de acero 3"', 9, 'Activo', 0, 0, 11 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo acero 3"', 9, 'Activo', 0, 0, 11 ) ; </v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -4237,7 +4540,7 @@
         <v>245</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="D27" s="3">
         <v>9</v>
@@ -4247,7 +4550,7 @@
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
-        <v>Clavo de acero 4"</v>
+        <v>Clavo acero 4"</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>266</v>
@@ -4268,7 +4571,7 @@
       </c>
       <c r="N27" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo de acero 4"', 9, 'Activo', 0, 0, 11 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo acero 4"', 9, 'Activo', 0, 0, 11 ) ; </v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -4280,7 +4583,7 @@
         <v>242</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>183</v>
+        <v>298</v>
       </c>
       <c r="D28" s="3">
         <v>8</v>
@@ -4290,7 +4593,7 @@
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>Clavo de calamina</v>
+        <v>Clavo calamina</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>266</v>
@@ -4311,7 +4614,7 @@
       </c>
       <c r="N28" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo de calamina', 8, 'Activo', 0, 0, 6 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo calamina', 8, 'Activo', 0, 0, 6 ) ; </v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -4323,7 +4626,7 @@
         <v>241</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="D29" s="3">
         <v>4.5</v>
@@ -4333,7 +4636,7 @@
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>Codo bronce de 1/2"</v>
+        <v>Codo bronce 1/2"</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>266</v>
@@ -4354,7 +4657,7 @@
       </c>
       <c r="N29" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo bronce de 1/2"', 4.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo bronce 1/2"', 4.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -4366,7 +4669,7 @@
         <v>241</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -4376,7 +4679,7 @@
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>Codo de agua 1/2"</v>
+        <v>Codo agua 1/2"</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>266</v>
@@ -4397,7 +4700,7 @@
       </c>
       <c r="N30" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de agua 1/2"', 1, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo agua 1/2"', 1, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -4409,7 +4712,7 @@
         <v>241</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="D31" s="3">
         <v>2.5</v>
@@ -4419,7 +4722,7 @@
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>Codo de agua 3/4" 45°</v>
+        <v>Codo agua 3/4" 45°</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>266</v>
@@ -4440,7 +4743,7 @@
       </c>
       <c r="N31" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de agua 3/4" 45°', 2.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo agua 3/4" 45°', 2.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -4452,7 +4755,7 @@
         <v>241</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>142</v>
+        <v>302</v>
       </c>
       <c r="D32" s="3">
         <v>2.5</v>
@@ -4462,7 +4765,7 @@
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>Codo de agua 3/4" 90°</v>
+        <v>Codo agua 3/4" 90°</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>266</v>
@@ -4483,7 +4786,7 @@
       </c>
       <c r="N32" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de agua 3/4" 90°', 2.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo agua 3/4" 90°', 2.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -4495,7 +4798,7 @@
         <v>241</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>161</v>
+        <v>306</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -4505,7 +4808,7 @@
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>Codo de agua caliente 1/2"</v>
+        <v>Codo agua caliente 1/2"</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>266</v>
@@ -4526,7 +4829,7 @@
       </c>
       <c r="N33" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de agua caliente 1/2"', 1, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo agua caliente 1/2"', 1, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -4538,7 +4841,7 @@
         <v>241</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="D34" s="3">
         <v>1.5</v>
@@ -4548,7 +4851,7 @@
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
-        <v>Codo de desague 2" 45°</v>
+        <v>Codo desague 2" 45°</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>266</v>
@@ -4569,7 +4872,7 @@
       </c>
       <c r="N34" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de desague 2" 45°', 1.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo desague 2" 45°', 1.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -4581,7 +4884,7 @@
         <v>241</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>140</v>
+        <v>304</v>
       </c>
       <c r="D35" s="3">
         <v>1.5</v>
@@ -4591,7 +4894,7 @@
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
-        <v>Codo de desague 2" 90°</v>
+        <v>Codo desague 2" 90°</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>266</v>
@@ -4612,7 +4915,7 @@
       </c>
       <c r="N35" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de desague 2" 90°', 1.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo desague 2" 90°', 1.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -4624,7 +4927,7 @@
         <v>241</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>138</v>
+        <v>305</v>
       </c>
       <c r="D36" s="3">
         <v>5</v>
@@ -4634,7 +4937,7 @@
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
-        <v>Codo de desague 4" 45°</v>
+        <v>Codo desague 4" 45°</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>266</v>
@@ -4655,7 +4958,7 @@
       </c>
       <c r="N36" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de desague 4" 45°', 5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo desague 4" 45°', 5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -4667,7 +4970,7 @@
         <v>241</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>137</v>
+        <v>307</v>
       </c>
       <c r="D37" s="3">
         <v>5</v>
@@ -4677,7 +4980,7 @@
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
-        <v>Codo de desague 4" 90°</v>
+        <v>Codo desague 4" 90°</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>266</v>
@@ -4698,7 +5001,7 @@
       </c>
       <c r="N37" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de desague 4" 90°', 5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo desague 4" 90°', 5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -4710,7 +5013,7 @@
         <v>241</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>144</v>
+        <v>308</v>
       </c>
       <c r="D38" s="3">
         <v>7</v>
@@ -4720,7 +5023,7 @@
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
-        <v>Codo de desague 4" a 2"</v>
+        <v>Codo desague 4"a2"</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>266</v>
@@ -4741,7 +5044,7 @@
       </c>
       <c r="N38" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de desague 4" a 2"', 7, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo desague 4"a2"', 7, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -4753,7 +5056,7 @@
         <v>241</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>145</v>
+        <v>309</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -4763,7 +5066,7 @@
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
-        <v>Codo de luz 1"</v>
+        <v>Codo luz 1"</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>266</v>
@@ -4784,7 +5087,7 @@
       </c>
       <c r="N39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de luz 1"', 1, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo luz 1"', 1, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -4796,7 +5099,7 @@
         <v>241</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>146</v>
+        <v>310</v>
       </c>
       <c r="D40" s="3">
         <v>0.5</v>
@@ -4806,7 +5109,7 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
-        <v>Codo de luz 3/4"</v>
+        <v>Codo luz 3/4"</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>266</v>
@@ -4827,7 +5130,7 @@
       </c>
       <c r="N40" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo de luz 3/4"', 0.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo luz 3/4"', 0.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -4839,7 +5142,7 @@
         <v>241</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>165</v>
+        <v>311</v>
       </c>
       <c r="D41" s="3">
         <v>1.5</v>
@@ -4849,7 +5152,7 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
-        <v>Codo galvanizado de 1/2"</v>
+        <v>Codo galvanizado 1/2"</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>266</v>
@@ -4870,7 +5173,7 @@
       </c>
       <c r="N41" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo galvanizado de 1/2"', 1.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Codo galvanizado 1/2"', 1.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -4882,7 +5185,7 @@
         <v>241</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>235</v>
+        <v>312</v>
       </c>
       <c r="D42" s="3">
         <v>20</v>
@@ -4892,7 +5195,7 @@
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
-        <v>Disco corte fierro de 14"</v>
+        <v>Disco corte fierro 14"</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>266</v>
@@ -4913,7 +5216,7 @@
       </c>
       <c r="N42" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco corte fierro de 14"', 20, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco corte fierro 14"', 20, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -4925,7 +5228,7 @@
         <v>241</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>232</v>
+        <v>313</v>
       </c>
       <c r="D43" s="3">
         <v>5</v>
@@ -4935,7 +5238,7 @@
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
-        <v>Disco corte fierro de 4"</v>
+        <v>Disco corte fierro 4"</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>266</v>
@@ -4956,7 +5259,7 @@
       </c>
       <c r="N43" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco corte fierro de 4"', 5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco corte fierro 4"', 5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -4968,7 +5271,7 @@
         <v>241</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="D44" s="3">
         <v>8</v>
@@ -4978,7 +5281,7 @@
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v>Disco corte fierro de 7"</v>
+        <v>Disco corte fierro 7"</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>266</v>
@@ -4999,7 +5302,7 @@
       </c>
       <c r="N44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco corte fierro de 7"', 8, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco corte fierro 7"', 8, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -5011,7 +5314,7 @@
         <v>241</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>234</v>
+        <v>315</v>
       </c>
       <c r="D45" s="3">
         <v>12</v>
@@ -5021,7 +5324,7 @@
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
-        <v>Disco corte fierro de 9"</v>
+        <v>Disco corte fierro 9"</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>266</v>
@@ -5042,7 +5345,7 @@
       </c>
       <c r="N45" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco corte fierro de 9"', 12, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco corte fierro 9"', 12, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -5054,7 +5357,7 @@
         <v>241</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
       <c r="D46" s="3">
         <v>15</v>
@@ -5064,7 +5367,7 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v>Disco para concreto de 15" - dinamo</v>
+        <v>Disco para concreto 15" - dinamo</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>266</v>
@@ -5085,7 +5388,7 @@
       </c>
       <c r="N46" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto de 15" - dinamo', 15, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto 15" - dinamo', 15, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -5097,7 +5400,7 @@
         <v>241</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="D47" s="3">
         <v>22</v>
@@ -5107,7 +5410,7 @@
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
-        <v>Disco para concreto de 15" - kamasa</v>
+        <v>Disco para concreto 15" - kamasa</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>266</v>
@@ -5128,7 +5431,7 @@
       </c>
       <c r="N47" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto de 15" - kamasa', 22, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto 15" - kamasa', 22, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -5140,7 +5443,7 @@
         <v>241</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D48" s="3">
         <v>30</v>
@@ -5150,7 +5453,7 @@
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
-        <v>Disco para concreto de 30" - dinamo</v>
+        <v>Disco para concreto 30" - dinamo</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>266</v>
@@ -5171,7 +5474,7 @@
       </c>
       <c r="N48" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto de 30" - dinamo', 30, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto 30" - dinamo', 30, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -5183,7 +5486,7 @@
         <v>241</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="D49" s="3">
         <v>8</v>
@@ -5193,7 +5496,7 @@
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
-        <v>Disco para concreto de 4" - dinamo</v>
+        <v>Disco para concreto 4" - dinamo</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>266</v>
@@ -5214,7 +5517,7 @@
       </c>
       <c r="N49" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto de 4" - dinamo', 8, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto 4" - dinamo', 8, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -5226,7 +5529,7 @@
         <v>241</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>239</v>
+        <v>320</v>
       </c>
       <c r="D50" s="3">
         <v>9</v>
@@ -5236,7 +5539,7 @@
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
-        <v>Disco para concreto de 4" - kamasa</v>
+        <v>Disco para concreto 4" - kamasa</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>266</v>
@@ -5257,7 +5560,7 @@
       </c>
       <c r="N50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto de 4" - kamasa', 9, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Disco para concreto 4" - kamasa', 9, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -5398,7 +5701,7 @@
         <v>246</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="D54" s="3">
         <v>25.5</v>
@@ -5408,7 +5711,7 @@
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
-        <v>Fierro de 1/2" - siderperu</v>
+        <v>Fierro 1/2" - siderperu</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>266</v>
@@ -5429,7 +5732,7 @@
       </c>
       <c r="N54" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 1/2" - siderperu', 25.5, 'Activo', 0, 0, 4 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 1/2" - siderperu', 25.5, 'Activo', 0, 0, 4 ) ; </v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -5441,7 +5744,7 @@
         <v>246</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>225</v>
+        <v>322</v>
       </c>
       <c r="D55" s="3">
         <v>6.5</v>
@@ -5451,7 +5754,7 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
-        <v>Fierro de 1/4" 6mm - siderperu</v>
+        <v>Fierro 1/4" 6mm - siderperu</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>266</v>
@@ -5472,7 +5775,7 @@
       </c>
       <c r="N55" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 1/4" 6mm - siderperu', 6.5, 'Activo', 0, 0, 4 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 1/4" 6mm - siderperu', 6.5, 'Activo', 0, 0, 4 ) ; </v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -5484,7 +5787,7 @@
         <v>246</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>220</v>
+        <v>323</v>
       </c>
       <c r="D56" s="3">
         <v>58</v>
@@ -5494,7 +5797,7 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
-        <v>Fierro de 3/4" - siderperu</v>
+        <v>Fierro 3/4" - siderperu</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>266</v>
@@ -5515,7 +5818,7 @@
       </c>
       <c r="N56" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 3/4" - siderperu', 58, 'Activo', 0, 0, 4 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 3/4" - siderperu', 58, 'Activo', 0, 0, 4 ) ; </v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -5527,7 +5830,7 @@
         <v>246</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>223</v>
+        <v>324</v>
       </c>
       <c r="D57" s="3">
         <v>15</v>
@@ -5537,7 +5840,7 @@
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
-        <v>Fierro de 3/8" - siderperu</v>
+        <v>Fierro 3/8" - siderperu</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>266</v>
@@ -5558,7 +5861,7 @@
       </c>
       <c r="N57" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 3/8" - siderperu', 15, 'Activo', 0, 0, 4 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 3/8" - siderperu', 15, 'Activo', 0, 0, 4 ) ; </v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -5570,7 +5873,7 @@
         <v>246</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="D58" s="3">
         <v>39.5</v>
@@ -5580,7 +5883,7 @@
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
-        <v>Fierro de 5/8" - siderperu</v>
+        <v>Fierro 5/8" - siderperu</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>266</v>
@@ -5601,7 +5904,7 @@
       </c>
       <c r="N58" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 5/8" - siderperu', 39.5, 'Activo', 0, 0, 4 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 5/8" - siderperu', 39.5, 'Activo', 0, 0, 4 ) ; </v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -5613,7 +5916,7 @@
         <v>246</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>224</v>
+        <v>326</v>
       </c>
       <c r="D59" s="3">
         <v>11</v>
@@ -5623,7 +5926,7 @@
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
-        <v>Fierro de 8mm - siderperu</v>
+        <v>Fierro 8mm - siderperu</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>266</v>
@@ -5644,7 +5947,7 @@
       </c>
       <c r="N59" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro de 8mm - siderperu', 11, 'Activo', 0, 0, 4 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 8mm - siderperu', 11, 'Activo', 0, 0, 4 ) ; </v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -5656,7 +5959,7 @@
         <v>241</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>230</v>
+        <v>327</v>
       </c>
       <c r="D60" s="3">
         <v>5</v>
@@ -5666,7 +5969,7 @@
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
-        <v>Foco de 27 W</v>
+        <v>Foco 27 W</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>266</v>
@@ -5687,7 +5990,7 @@
       </c>
       <c r="N60" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco de 27 W', 5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco 27 W', 5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -5699,7 +6002,7 @@
         <v>241</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>229</v>
+        <v>328</v>
       </c>
       <c r="D61" s="3">
         <v>6.5</v>
@@ -5709,7 +6012,7 @@
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
-        <v>Foco de 32 W</v>
+        <v>Foco 32 W</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>266</v>
@@ -5730,7 +6033,7 @@
       </c>
       <c r="N61" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco de 32 W', 6.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco 32 W', 6.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -5742,7 +6045,7 @@
         <v>241</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>228</v>
+        <v>329</v>
       </c>
       <c r="D62" s="3">
         <v>7</v>
@@ -5752,7 +6055,7 @@
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
-        <v>Foco de 42 W</v>
+        <v>Foco 42 W</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>266</v>
@@ -5773,7 +6076,7 @@
       </c>
       <c r="N62" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco de 42 W', 7, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco 42 W', 7, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -5785,7 +6088,7 @@
         <v>241</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>227</v>
+        <v>330</v>
       </c>
       <c r="D63" s="3">
         <v>14</v>
@@ -5795,7 +6098,7 @@
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
-        <v>Foco de 85 W</v>
+        <v>Foco 85 W</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>266</v>
@@ -5816,7 +6119,7 @@
       </c>
       <c r="N63" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco de 85 W', 14, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco 85 W', 14, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -5828,7 +6131,7 @@
         <v>241</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>231</v>
+        <v>331</v>
       </c>
       <c r="D64" s="3">
         <v>13</v>
@@ -5838,7 +6141,7 @@
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
-        <v>Foco LED de 7 W</v>
+        <v>Foco LED 7 W</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>266</v>
@@ -5859,7 +6162,7 @@
       </c>
       <c r="N64" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco LED de 7 W', 13, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Foco LED 7 W', 13, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -5871,7 +6174,7 @@
         <v>247</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>202</v>
+        <v>332</v>
       </c>
       <c r="D65" s="3">
         <v>670</v>
@@ -5881,7 +6184,7 @@
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
-        <v>Ladrillo de 18 huecos limpio (millar)</v>
+        <v>Ladrillo 18 huecos limpio</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>266</v>
@@ -5902,7 +6205,7 @@
       </c>
       <c r="N65" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo de 18 huecos limpio (millar)', 670, 'Activo', 0, 0, 12 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo 18 huecos limpio', 670, 'Activo', 0, 0, 12 ) ; </v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -5914,7 +6217,7 @@
         <v>247</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>203</v>
+        <v>333</v>
       </c>
       <c r="D66" s="3">
         <v>560</v>
@@ -5924,7 +6227,7 @@
       </c>
       <c r="H66" t="str">
         <f t="shared" si="0"/>
-        <v>Ladrillo de 18 huecos semi limpio (millar)</v>
+        <v>Ladrillo 18 huecos semi limpio</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>266</v>
@@ -5945,7 +6248,7 @@
       </c>
       <c r="N66" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo de 18 huecos semi limpio (millar)', 560, 'Activo', 0, 0, 12 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo 18 huecos semi limpio', 560, 'Activo', 0, 0, 12 ) ; </v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -5957,7 +6260,7 @@
         <v>247</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>200</v>
+        <v>334</v>
       </c>
       <c r="D67" s="3">
         <v>2100</v>
@@ -5967,7 +6270,7 @@
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H121" si="4">C67</f>
-        <v>Ladrillo de techo 12 x 30 (millar)</v>
+        <v>Ladrillo techo 12x30</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>266</v>
@@ -5988,7 +6291,7 @@
       </c>
       <c r="N67" t="str">
         <f t="shared" ref="N67:N121" si="7">CONCATENATE(G67,H67,I67,J67,K67,L67,M67)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo de techo 12 x 30 (millar)', 2100, 'Activo', 0, 0, 12 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo techo 12x30', 2100, 'Activo', 0, 0, 12 ) ; </v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -6000,7 +6303,7 @@
         <v>247</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>199</v>
+        <v>335</v>
       </c>
       <c r="D68" s="3">
         <v>2100</v>
@@ -6010,7 +6313,7 @@
       </c>
       <c r="H68" t="str">
         <f t="shared" si="4"/>
-        <v>Ladrillo de techo 15 x 30 (millar)</v>
+        <v>Ladrillo techo 15x30</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>266</v>
@@ -6031,7 +6334,7 @@
       </c>
       <c r="N68" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo de techo 15 x 30 (millar)', 2100, 'Activo', 0, 0, 12 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo techo 15x30', 2100, 'Activo', 0, 0, 12 ) ; </v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -6043,7 +6346,7 @@
         <v>247</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>201</v>
+        <v>336</v>
       </c>
       <c r="D69" s="3">
         <v>2000</v>
@@ -6053,7 +6356,7 @@
       </c>
       <c r="H69" t="str">
         <f t="shared" si="4"/>
-        <v>Ladrillo de techo 8 x 30 (millar)</v>
+        <v>Ladrillo techo 8x30</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>266</v>
@@ -6074,7 +6377,7 @@
       </c>
       <c r="N69" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo de techo 8 x 30 (millar)', 2000, 'Activo', 0, 0, 12 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo techo 8x30', 2000, 'Activo', 0, 0, 12 ) ; </v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -6086,7 +6389,7 @@
         <v>247</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="D70" s="3">
         <v>410</v>
@@ -6096,7 +6399,7 @@
       </c>
       <c r="H70" t="str">
         <f t="shared" si="4"/>
-        <v>Ladrillo pandereta (millar)</v>
+        <v>Ladrillo pandereta</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>266</v>
@@ -6117,7 +6420,7 @@
       </c>
       <c r="N70" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo pandereta (millar)', 410, 'Activo', 0, 0, 12 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Ladrillo pandereta', 410, 'Activo', 0, 0, 12 ) ; </v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -6172,7 +6475,7 @@
         <v>241</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>189</v>
+        <v>337</v>
       </c>
       <c r="D72" s="3">
         <v>38</v>
@@ -6182,7 +6485,7 @@
       </c>
       <c r="H72" t="str">
         <f t="shared" si="4"/>
-        <v>Llave termica bticino 16</v>
+        <v>Llave termica 16 - bticino</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>266</v>
@@ -6203,7 +6506,7 @@
       </c>
       <c r="N72" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica bticino 16', 38, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica 16 - bticino', 38, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -6215,7 +6518,7 @@
         <v>241</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>188</v>
+        <v>338</v>
       </c>
       <c r="D73" s="3">
         <v>38</v>
@@ -6225,7 +6528,7 @@
       </c>
       <c r="H73" t="str">
         <f t="shared" si="4"/>
-        <v>Llave termica bticino 20</v>
+        <v>Llave termica 20 - bticino</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>266</v>
@@ -6246,7 +6549,7 @@
       </c>
       <c r="N73" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica bticino 20', 38, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica 20 - bticino', 38, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -6258,7 +6561,7 @@
         <v>241</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>187</v>
+        <v>339</v>
       </c>
       <c r="D74" s="3">
         <v>38</v>
@@ -6268,7 +6571,7 @@
       </c>
       <c r="H74" t="str">
         <f t="shared" si="4"/>
-        <v>Llave termica bticino 32</v>
+        <v>Llave termica 32 - bticino</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>266</v>
@@ -6289,7 +6592,7 @@
       </c>
       <c r="N74" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica bticino 32', 38, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica 32 - bticino', 38, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -6301,7 +6604,7 @@
         <v>241</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="D75" s="3">
         <v>50</v>
@@ -6311,7 +6614,7 @@
       </c>
       <c r="H75" t="str">
         <f t="shared" si="4"/>
-        <v>Llave termica bticino 60</v>
+        <v>Llave termica 60 - bticino</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>266</v>
@@ -6332,7 +6635,7 @@
       </c>
       <c r="N75" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica bticino 60', 50, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica 60 - bticino', 50, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -6344,7 +6647,7 @@
         <v>241</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D76" s="3">
         <v>18</v>
@@ -6354,7 +6657,7 @@
       </c>
       <c r="H76" t="str">
         <f t="shared" si="4"/>
-        <v>Llave termica stronger 60</v>
+        <v>Llave termica 60 - stronger</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>266</v>
@@ -6375,7 +6678,7 @@
       </c>
       <c r="N76" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica stronger 60', 18, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave termica 60 - stronger', 18, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -6430,7 +6733,7 @@
         <v>241</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="D78" s="3">
         <v>4</v>
@@ -6440,7 +6743,7 @@
       </c>
       <c r="H78" t="str">
         <f t="shared" si="4"/>
-        <v>Niple bronce de 1/2"</v>
+        <v>Niple bronce 1/2"</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>266</v>
@@ -6461,7 +6764,7 @@
       </c>
       <c r="N78" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Niple bronce de 1/2"', 4, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Niple bronce 1/2"', 4, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -6473,7 +6776,7 @@
         <v>241</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>164</v>
+        <v>342</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
@@ -6483,7 +6786,7 @@
       </c>
       <c r="H79" t="str">
         <f t="shared" si="4"/>
-        <v>Niple de 1/2"</v>
+        <v>Niple 1/2"</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>266</v>
@@ -6504,7 +6807,7 @@
       </c>
       <c r="N79" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Niple de 1/2"', 1, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Niple 1/2"', 1, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -6516,7 +6819,7 @@
         <v>249</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>174</v>
+        <v>344</v>
       </c>
       <c r="D80" s="3">
         <v>11</v>
@@ -6526,7 +6829,7 @@
       </c>
       <c r="H80" t="str">
         <f t="shared" si="4"/>
-        <v>Pegamento de PVC 1/16" azul</v>
+        <v>Pegamento PVC 1/16" azul</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>266</v>
@@ -6547,7 +6850,7 @@
       </c>
       <c r="N80" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento de PVC 1/16" azul', 11, 'Activo', 0, 0, 7 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento PVC 1/16" azul', 11, 'Activo', 0, 0, 7 ) ; </v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -6559,7 +6862,7 @@
         <v>249</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>173</v>
+        <v>345</v>
       </c>
       <c r="D81" s="3">
         <v>10</v>
@@ -6569,7 +6872,7 @@
       </c>
       <c r="H81" t="str">
         <f t="shared" si="4"/>
-        <v>Pegamento de PVC 1/16" dorado</v>
+        <v>Pegamento PVC 1/16" dorado</v>
       </c>
       <c r="I81" s="7" t="s">
         <v>266</v>
@@ -6590,7 +6893,7 @@
       </c>
       <c r="N81" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento de PVC 1/16" dorado', 10, 'Activo', 0, 0, 7 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento PVC 1/16" dorado', 10, 'Activo', 0, 0, 7 ) ; </v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -6602,7 +6905,7 @@
         <v>249</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>176</v>
+        <v>346</v>
       </c>
       <c r="D82" s="3">
         <v>8</v>
@@ -6612,7 +6915,7 @@
       </c>
       <c r="H82" t="str">
         <f t="shared" si="4"/>
-        <v>Pegamento de PVC 1/32" azul</v>
+        <v>Pegamento PVC 1/32" azul</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>266</v>
@@ -6633,7 +6936,7 @@
       </c>
       <c r="N82" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento de PVC 1/32" azul', 8, 'Activo', 0, 0, 7 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento PVC 1/32" azul', 8, 'Activo', 0, 0, 7 ) ; </v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -6645,7 +6948,7 @@
         <v>249</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>175</v>
+        <v>347</v>
       </c>
       <c r="D83" s="3">
         <v>7</v>
@@ -6655,7 +6958,7 @@
       </c>
       <c r="H83" t="str">
         <f t="shared" si="4"/>
-        <v>Pegamento de PVC 1/32" dorado</v>
+        <v>Pegamento PVC 1/32" dorado</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>266</v>
@@ -6676,7 +6979,7 @@
       </c>
       <c r="N83" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento de PVC 1/32" dorado', 7, 'Activo', 0, 0, 7 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento PVC 1/32" dorado', 7, 'Activo', 0, 0, 7 ) ; </v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -6688,7 +6991,7 @@
         <v>249</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>170</v>
+        <v>348</v>
       </c>
       <c r="D84" s="3">
         <v>28</v>
@@ -6698,7 +7001,7 @@
       </c>
       <c r="H84" t="str">
         <f t="shared" si="4"/>
-        <v>Pegamento de PVC 1/4" dorado</v>
+        <v>Pegamento PVC 1/4" dorado</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>266</v>
@@ -6719,7 +7022,7 @@
       </c>
       <c r="N84" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento de PVC 1/4" dorado', 28, 'Activo', 0, 0, 7 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento PVC 1/4" dorado', 28, 'Activo', 0, 0, 7 ) ; </v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -6731,7 +7034,7 @@
         <v>249</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>172</v>
+        <v>349</v>
       </c>
       <c r="D85" s="3">
         <v>25</v>
@@ -6741,7 +7044,7 @@
       </c>
       <c r="H85" t="str">
         <f t="shared" si="4"/>
-        <v>Pegamento de PVC 1/8" azul</v>
+        <v>Pegamento PVC 1/8" azul</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>266</v>
@@ -6762,7 +7065,7 @@
       </c>
       <c r="N85" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento de PVC 1/8" azul', 25, 'Activo', 0, 0, 7 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento PVC 1/8" azul', 25, 'Activo', 0, 0, 7 ) ; </v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -6774,7 +7077,7 @@
         <v>249</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>171</v>
+        <v>350</v>
       </c>
       <c r="D86" s="3">
         <v>15</v>
@@ -6784,7 +7087,7 @@
       </c>
       <c r="H86" t="str">
         <f t="shared" si="4"/>
-        <v>Pegamento de PVC 1/8" dorado</v>
+        <v>Pegamento PVC 1/8" dorado</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>266</v>
@@ -6805,7 +7108,7 @@
       </c>
       <c r="N86" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento de PVC 1/8" dorado', 15, 'Activo', 0, 0, 7 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento PVC 1/8" dorado', 15, 'Activo', 0, 0, 7 ) ; </v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -6817,7 +7120,7 @@
         <v>249</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="D87" s="3">
         <v>6.5</v>
@@ -6827,7 +7130,7 @@
       </c>
       <c r="H87" t="str">
         <f t="shared" si="4"/>
-        <v>Pegamento de PVC agua caliente</v>
+        <v>Pegamento PVC agua caliente</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>266</v>
@@ -6848,7 +7151,7 @@
       </c>
       <c r="N87" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento de PVC agua caliente', 6.5, 'Activo', 0, 0, 7 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento PVC agua caliente', 6.5, 'Activo', 0, 0, 7 ) ; </v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -6860,7 +7163,7 @@
         <v>249</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>214</v>
+        <v>352</v>
       </c>
       <c r="D88" s="3">
         <v>14</v>
@@ -6870,7 +7173,7 @@
       </c>
       <c r="H88" t="str">
         <f t="shared" si="4"/>
-        <v>Pegamento en polvo - celima</v>
+        <v>Pegamento polvo - celima</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>266</v>
@@ -6891,7 +7194,7 @@
       </c>
       <c r="N88" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento en polvo - celima', 14, 'Activo', 0, 0, 7 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Pegamento polvo - celima', 14, 'Activo', 0, 0, 7 ) ; </v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -7032,7 +7335,7 @@
         <v>241</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>156</v>
+        <v>353</v>
       </c>
       <c r="D92" s="3">
         <v>3.5</v>
@@ -7042,7 +7345,7 @@
       </c>
       <c r="H92" t="str">
         <f t="shared" si="4"/>
-        <v>Reduccion de desague 4" a 2"</v>
+        <v>Reduccion desague 4"a2"</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>266</v>
@@ -7063,7 +7366,7 @@
       </c>
       <c r="N92" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Reduccion de desague 4" a 2"', 3.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Reduccion desague 4"a2"', 3.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -7075,7 +7378,7 @@
         <v>241</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>218</v>
+        <v>354</v>
       </c>
       <c r="D93" s="3">
         <v>14</v>
@@ -7085,7 +7388,7 @@
       </c>
       <c r="H93" t="str">
         <f t="shared" si="4"/>
-        <v>Rodillo de 12" - toro</v>
+        <v>Rodillo 12" - toro</v>
       </c>
       <c r="I93" s="7" t="s">
         <v>266</v>
@@ -7106,7 +7409,7 @@
       </c>
       <c r="N93" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Rodillo de 12" - toro', 14, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Rodillo 12" - toro', 14, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -7118,7 +7421,7 @@
         <v>241</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>219</v>
+        <v>355</v>
       </c>
       <c r="D94" s="3">
         <v>12</v>
@@ -7128,7 +7431,7 @@
       </c>
       <c r="H94" t="str">
         <f t="shared" si="4"/>
-        <v>Rodillo de 9" - toro</v>
+        <v>Rodillo 9" - toro</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>266</v>
@@ -7149,7 +7452,7 @@
       </c>
       <c r="N94" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Rodillo de 9" - toro', 12, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Rodillo 9" - toro', 12, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -7161,7 +7464,7 @@
         <v>241</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>169</v>
+        <v>356</v>
       </c>
       <c r="D95" s="3">
         <v>5</v>
@@ -7171,7 +7474,7 @@
       </c>
       <c r="H95" t="str">
         <f t="shared" si="4"/>
-        <v>Tee bronce de 1/2"</v>
+        <v>Tee bronce 1/2"</v>
       </c>
       <c r="I95" s="7" t="s">
         <v>266</v>
@@ -7192,7 +7495,7 @@
       </c>
       <c r="N95" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee bronce de 1/2"', 5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee bronce 1/2"', 5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -7204,7 +7507,7 @@
         <v>241</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>152</v>
+        <v>357</v>
       </c>
       <c r="D96" s="3">
         <v>1.5</v>
@@ -7214,7 +7517,7 @@
       </c>
       <c r="H96" t="str">
         <f t="shared" si="4"/>
-        <v>Tee de agua 1/2"</v>
+        <v>Tee agua 1/2"</v>
       </c>
       <c r="I96" s="7" t="s">
         <v>266</v>
@@ -7235,7 +7538,7 @@
       </c>
       <c r="N96" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee de agua 1/2"', 1.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee agua 1/2"', 1.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -7247,7 +7550,7 @@
         <v>241</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="D97" s="3">
         <v>3</v>
@@ -7257,7 +7560,7 @@
       </c>
       <c r="H97" t="str">
         <f t="shared" si="4"/>
-        <v>Tee de agua 3/4"</v>
+        <v>Tee agua 3/4"</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>266</v>
@@ -7278,7 +7581,7 @@
       </c>
       <c r="N97" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee de agua 3/4"', 3, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee agua 3/4"', 3, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -7290,7 +7593,7 @@
         <v>241</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>163</v>
+        <v>359</v>
       </c>
       <c r="D98" s="3">
         <v>1.5</v>
@@ -7300,7 +7603,7 @@
       </c>
       <c r="H98" t="str">
         <f t="shared" si="4"/>
-        <v>Tee de agua caliente 1/2"</v>
+        <v>Tee agua caliente 1/2"</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>266</v>
@@ -7321,7 +7624,7 @@
       </c>
       <c r="N98" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee de agua caliente 1/2"', 1.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee agua caliente 1/2"', 1.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -7333,7 +7636,7 @@
         <v>241</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>149</v>
+        <v>360</v>
       </c>
       <c r="D99" s="3">
         <v>6</v>
@@ -7343,7 +7646,7 @@
       </c>
       <c r="H99" t="str">
         <f t="shared" si="4"/>
-        <v>Tee de desague 4" x 2"</v>
+        <v>Tee desague 4" x 2"</v>
       </c>
       <c r="I99" s="7" t="s">
         <v>266</v>
@@ -7364,7 +7667,7 @@
       </c>
       <c r="N99" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee de desague 4" x 2"', 6, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee desague 4" x 2"', 6, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -7376,7 +7679,7 @@
         <v>241</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>147</v>
+        <v>361</v>
       </c>
       <c r="D100" s="3">
         <v>7</v>
@@ -7386,7 +7689,7 @@
       </c>
       <c r="H100" t="str">
         <f t="shared" si="4"/>
-        <v>Tee de desague 4" x 4"</v>
+        <v>Tee desague 4" x 4"</v>
       </c>
       <c r="I100" s="7" t="s">
         <v>266</v>
@@ -7407,7 +7710,7 @@
       </c>
       <c r="N100" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee de desague 4" x 4"', 7, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee desague 4" x 4"', 7, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -7419,7 +7722,7 @@
         <v>241</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="D101" s="3">
         <v>3.5</v>
@@ -7429,7 +7732,7 @@
       </c>
       <c r="H101" t="str">
         <f t="shared" si="4"/>
-        <v>Tee de desague sanitaria 2"</v>
+        <v>Tee desague sanitaria 2"</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>266</v>
@@ -7450,7 +7753,7 @@
       </c>
       <c r="N101" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee de desague sanitaria 2"', 3.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee desague sanitaria 2"', 3.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -7505,7 +7808,7 @@
         <v>241</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>130</v>
+        <v>363</v>
       </c>
       <c r="D103" s="4">
         <v>10</v>
@@ -7515,7 +7818,7 @@
       </c>
       <c r="H103" t="str">
         <f t="shared" si="4"/>
-        <v>Tubo de agua 1/2"</v>
+        <v>Tubo agua 1/2"</v>
       </c>
       <c r="I103" s="7" t="s">
         <v>266</v>
@@ -7536,7 +7839,7 @@
       </c>
       <c r="N103" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo de agua 1/2"', 10, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo agua 1/2"', 10, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -7548,7 +7851,7 @@
         <v>241</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>131</v>
+        <v>364</v>
       </c>
       <c r="D104" s="3">
         <v>18</v>
@@ -7558,7 +7861,7 @@
       </c>
       <c r="H104" t="str">
         <f t="shared" si="4"/>
-        <v>Tubo de agua 3/4"</v>
+        <v>Tubo agua 3/4"</v>
       </c>
       <c r="I104" s="7" t="s">
         <v>266</v>
@@ -7579,7 +7882,7 @@
       </c>
       <c r="N104" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo de agua 3/4"', 18, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo agua 3/4"', 18, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -7591,7 +7894,7 @@
         <v>241</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>132</v>
+        <v>365</v>
       </c>
       <c r="D105" s="3">
         <v>18</v>
@@ -7601,7 +7904,7 @@
       </c>
       <c r="H105" t="str">
         <f t="shared" si="4"/>
-        <v>Tubo de agua caliente 1/2"</v>
+        <v>Tubo agua caliente 1/2"</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>266</v>
@@ -7622,7 +7925,7 @@
       </c>
       <c r="N105" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo de agua caliente 1/2"', 18, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo agua caliente 1/2"', 18, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -7634,7 +7937,7 @@
         <v>241</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>128</v>
+        <v>366</v>
       </c>
       <c r="D106" s="3">
         <v>10</v>
@@ -7644,7 +7947,7 @@
       </c>
       <c r="H106" t="str">
         <f t="shared" si="4"/>
-        <v>Tubo de agua desague 2"</v>
+        <v>Tubo desague 2"</v>
       </c>
       <c r="I106" s="7" t="s">
         <v>266</v>
@@ -7665,7 +7968,7 @@
       </c>
       <c r="N106" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo de agua desague 2"', 10, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo desague 2"', 10, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -7677,7 +7980,7 @@
         <v>241</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>129</v>
+        <v>367</v>
       </c>
       <c r="D107" s="3">
         <v>17</v>
@@ -7687,7 +7990,7 @@
       </c>
       <c r="H107" t="str">
         <f t="shared" si="4"/>
-        <v>Tubo de agua desague 3"</v>
+        <v>Tubo desague 3"</v>
       </c>
       <c r="I107" s="7" t="s">
         <v>266</v>
@@ -7708,7 +8011,7 @@
       </c>
       <c r="N107" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo de agua desague 3"', 17, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo desague 3"', 17, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -7720,7 +8023,7 @@
         <v>241</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>127</v>
+        <v>368</v>
       </c>
       <c r="D108" s="3">
         <v>20</v>
@@ -7730,7 +8033,7 @@
       </c>
       <c r="H108" t="str">
         <f t="shared" si="4"/>
-        <v>Tubo de agua desague 4"</v>
+        <v>Tubo desague 4"</v>
       </c>
       <c r="I108" s="7" t="s">
         <v>266</v>
@@ -7751,7 +8054,7 @@
       </c>
       <c r="N108" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo de agua desague 4"', 20, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo desague 4"', 20, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -7763,7 +8066,7 @@
         <v>241</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>133</v>
+        <v>369</v>
       </c>
       <c r="D109" s="3">
         <v>6</v>
@@ -7773,7 +8076,7 @@
       </c>
       <c r="H109" t="str">
         <f t="shared" si="4"/>
-        <v>Tubo de luz 1"</v>
+        <v>Tubo luz 1"</v>
       </c>
       <c r="I109" s="7" t="s">
         <v>266</v>
@@ -7794,7 +8097,7 @@
       </c>
       <c r="N109" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo de luz 1"', 6, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo luz 1"', 6, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -7806,7 +8109,7 @@
         <v>241</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>134</v>
+        <v>370</v>
       </c>
       <c r="D110" s="3">
         <v>3</v>
@@ -7816,7 +8119,7 @@
       </c>
       <c r="H110" t="str">
         <f t="shared" si="4"/>
-        <v>Tubo de luz 3/4"</v>
+        <v>Tubo luz 3/4"</v>
       </c>
       <c r="I110" s="7" t="s">
         <v>266</v>
@@ -7837,7 +8140,7 @@
       </c>
       <c r="N110" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo de luz 3/4"', 3, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tubo luz 3/4"', 3, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -7849,7 +8152,7 @@
         <v>241</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>167</v>
+        <v>371</v>
       </c>
       <c r="D111" s="3">
         <v>4</v>
@@ -7859,7 +8162,7 @@
       </c>
       <c r="H111" t="str">
         <f t="shared" si="4"/>
-        <v>Union bronce de 1/2"</v>
+        <v>Union bronce 1/2"</v>
       </c>
       <c r="I111" s="7" t="s">
         <v>266</v>
@@ -7880,7 +8183,7 @@
       </c>
       <c r="N111" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Union bronce de 1/2"', 4, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Union bronce 1/2"', 4, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -7892,7 +8195,7 @@
         <v>241</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>157</v>
+        <v>372</v>
       </c>
       <c r="D112" s="3">
         <v>1</v>
@@ -7902,7 +8205,7 @@
       </c>
       <c r="H112" t="str">
         <f t="shared" si="4"/>
-        <v>Union de agua 1/2"</v>
+        <v>Union agua 1/2"</v>
       </c>
       <c r="I112" s="7" t="s">
         <v>266</v>
@@ -7923,7 +8226,7 @@
       </c>
       <c r="N112" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Union de agua 1/2"', 1, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Union agua 1/2"', 1, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -7935,7 +8238,7 @@
         <v>241</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>158</v>
+        <v>373</v>
       </c>
       <c r="D113" s="3">
         <v>2.5</v>
@@ -7945,7 +8248,7 @@
       </c>
       <c r="H113" t="str">
         <f t="shared" si="4"/>
-        <v>Union de agua 3/4"</v>
+        <v>Union agua 3/4"</v>
       </c>
       <c r="I113" s="7" t="s">
         <v>266</v>
@@ -7966,7 +8269,7 @@
       </c>
       <c r="N113" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Union de agua 3/4"', 2.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Union agua 3/4"', 2.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -7978,7 +8281,7 @@
         <v>250</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>193</v>
+        <v>374</v>
       </c>
       <c r="D114" s="3">
         <v>3</v>
@@ -7988,7 +8291,7 @@
       </c>
       <c r="H114" t="str">
         <f t="shared" si="4"/>
-        <v>Visagra de 3" (par)</v>
+        <v>Visagra 3" (par)</v>
       </c>
       <c r="I114" s="7" t="s">
         <v>266</v>
@@ -8009,7 +8312,7 @@
       </c>
       <c r="N114" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Visagra de 3" (par)', 3, 'Activo', 0, 0, 9 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Visagra 3" (par)', 3, 'Activo', 0, 0, 9 ) ; </v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -8021,7 +8324,7 @@
         <v>250</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>192</v>
+        <v>375</v>
       </c>
       <c r="D115" s="3">
         <v>3.5</v>
@@ -8031,7 +8334,7 @@
       </c>
       <c r="H115" t="str">
         <f t="shared" si="4"/>
-        <v>Visagra de 3" capuchino (par)</v>
+        <v>Visagra 3" - capuchino (par)</v>
       </c>
       <c r="I115" s="7" t="s">
         <v>266</v>
@@ -8052,7 +8355,7 @@
       </c>
       <c r="N115" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Visagra de 3" capuchino (par)', 3.5, 'Activo', 0, 0, 9 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Visagra 3" - capuchino (par)', 3.5, 'Activo', 0, 0, 9 ) ; </v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -8064,7 +8367,7 @@
         <v>241</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>155</v>
+        <v>376</v>
       </c>
       <c r="D116" s="3">
         <v>3</v>
@@ -8074,7 +8377,7 @@
       </c>
       <c r="H116" t="str">
         <f t="shared" si="4"/>
-        <v>Yee de desague 2"</v>
+        <v>Yee desague 2"</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>266</v>
@@ -8095,7 +8398,7 @@
       </c>
       <c r="N116" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee de desague 2"', 3, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee desague 2"', 3, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -8107,7 +8410,7 @@
         <v>241</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>154</v>
+        <v>379</v>
       </c>
       <c r="D117" s="3">
         <v>6</v>
@@ -8117,7 +8420,7 @@
       </c>
       <c r="H117" t="str">
         <f t="shared" si="4"/>
-        <v>Yee de desague 4" x 2"</v>
+        <v>Yee desague 4"x2"</v>
       </c>
       <c r="I117" s="7" t="s">
         <v>266</v>
@@ -8138,7 +8441,7 @@
       </c>
       <c r="N117" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee de desague 4" x 2"', 6, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee desague 4"x2"', 6, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -8150,7 +8453,7 @@
         <v>241</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>153</v>
+        <v>380</v>
       </c>
       <c r="D118" s="3">
         <v>10</v>
@@ -8160,7 +8463,7 @@
       </c>
       <c r="H118" t="str">
         <f t="shared" si="4"/>
-        <v>Yee de desague 4" x 4"</v>
+        <v>Yee desague 4"x4"</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>266</v>
@@ -8181,7 +8484,7 @@
       </c>
       <c r="N118" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee de desague 4" x 4"', 10, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee desague 4"x4"', 10, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -8193,7 +8496,7 @@
         <v>241</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>136</v>
+        <v>377</v>
       </c>
       <c r="D119" s="3">
         <v>3.5</v>
@@ -8203,7 +8506,7 @@
       </c>
       <c r="H119" t="str">
         <f t="shared" si="4"/>
-        <v>Yee sanitario de 2"</v>
+        <v>Yee sanitario 2"</v>
       </c>
       <c r="I119" s="7" t="s">
         <v>266</v>
@@ -8224,7 +8527,7 @@
       </c>
       <c r="N119" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee sanitario de 2"', 3.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee sanitario 2"', 3.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -8236,7 +8539,7 @@
         <v>241</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>135</v>
+        <v>378</v>
       </c>
       <c r="D120" s="3">
         <v>12</v>
@@ -8246,7 +8549,7 @@
       </c>
       <c r="H120" t="str">
         <f t="shared" si="4"/>
-        <v>Yee sanitario de 4"</v>
+        <v>Yee sanitario 4"</v>
       </c>
       <c r="I120" s="7" t="s">
         <v>266</v>
@@ -8267,7 +8570,7 @@
       </c>
       <c r="N120" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee sanitario de 4"', 12, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee sanitario 4"', 12, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -8279,7 +8582,7 @@
         <v>241</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>148</v>
+        <v>381</v>
       </c>
       <c r="D121" s="3">
         <v>7</v>
@@ -8289,7 +8592,7 @@
       </c>
       <c r="H121" t="str">
         <f t="shared" si="4"/>
-        <v>Yee sanitario de 4" x 2"</v>
+        <v>Yee sanitario 4"x2"</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>266</v>
@@ -8310,7 +8613,7 @@
       </c>
       <c r="N121" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee sanitario de 4" x 2"', 7, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Yee sanitario 4"x2"', 7, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="122" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -8322,7 +8625,7 @@
         <v>241</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D122" s="9">
         <v>1.5</v>
@@ -8365,7 +8668,7 @@
         <v>241</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D123" s="3">
         <v>1.5</v>
@@ -8408,7 +8711,7 @@
         <v>241</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D124" s="3">
         <v>22</v>
@@ -8451,7 +8754,7 @@
         <v>249</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D125" s="3">
         <v>3.5</v>
@@ -8494,7 +8797,7 @@
         <v>241</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>282</v>
+        <v>382</v>
       </c>
       <c r="D126" s="3">
         <v>8</v>
@@ -8504,7 +8807,7 @@
       </c>
       <c r="H126" t="str">
         <f t="shared" ref="H126" si="24">C126</f>
-        <v>Parante 3 metros</v>
+        <v>Parante 3m</v>
       </c>
       <c r="I126" s="7" t="s">
         <v>266</v>
@@ -8525,7 +8828,7 @@
       </c>
       <c r="N126" t="str">
         <f t="shared" ref="N126" si="27">CONCATENATE(G126,H126,I126,J126,K126,L126,M126)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Parante 3 metros', 8, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Parante 3m', 8, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -8537,7 +8840,7 @@
         <v>241</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>284</v>
+        <v>383</v>
       </c>
       <c r="D127" s="3">
         <v>7</v>
@@ -8547,13 +8850,13 @@
       </c>
       <c r="H127" t="str">
         <f t="shared" ref="H127:H129" si="28">C127</f>
-        <v>Parante 2.5 metros</v>
+        <v>Parante 2.5m</v>
       </c>
       <c r="I127" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J127" s="3">
-        <f t="shared" ref="J127:J129" si="29">D127</f>
+        <f t="shared" ref="J127:J130" si="29">D127</f>
         <v>7</v>
       </c>
       <c r="K127" t="s">
@@ -8568,7 +8871,7 @@
       </c>
       <c r="N127" t="str">
         <f t="shared" ref="N127:N129" si="31">CONCATENATE(G127,H127,I127,J127,K127,L127,M127)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Parante 2.5 metros', 7, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Parante 2.5m', 7, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -8580,7 +8883,7 @@
         <v>241</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>283</v>
+        <v>384</v>
       </c>
       <c r="D128" s="3">
         <v>4.5</v>
@@ -8590,7 +8893,7 @@
       </c>
       <c r="H128" t="str">
         <f t="shared" si="28"/>
-        <v>Liston 3 metros</v>
+        <v>Liston 3m</v>
       </c>
       <c r="I128" s="7" t="s">
         <v>266</v>
@@ -8611,7 +8914,7 @@
       </c>
       <c r="N128" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Liston 3 metros', 4.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Liston 3m', 4.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -8623,7 +8926,7 @@
         <v>241</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>285</v>
+        <v>385</v>
       </c>
       <c r="D129" s="3">
         <v>4</v>
@@ -8633,7 +8936,7 @@
       </c>
       <c r="H129" t="str">
         <f t="shared" si="28"/>
-        <v>Liston 2.5 metros</v>
+        <v>Liston 2.5m</v>
       </c>
       <c r="I129" s="7" t="s">
         <v>266</v>
@@ -8654,7 +8957,50 @@
       </c>
       <c r="N129" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Liston 2.5 metros', 4, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Liston 2.5m', 4, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f>VLOOKUP(B130,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
+        <v>241</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D130" s="3">
+        <v>4</v>
+      </c>
+      <c r="G130" t="s">
+        <v>267</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" ref="H130" si="32">C130</f>
+        <v>Clavo 2"y1/2"</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J130" s="3">
+        <f t="shared" ref="J130" si="33">D130</f>
+        <v>4</v>
+      </c>
+      <c r="K130" t="s">
+        <v>269</v>
+      </c>
+      <c r="L130">
+        <f t="shared" ref="L130" si="34">A130</f>
+        <v>3</v>
+      </c>
+      <c r="M130" t="s">
+        <v>268</v>
+      </c>
+      <c r="N130" t="str">
+        <f t="shared" ref="N130" si="35">CONCATENATE(G130,H130,I130,J130,K130,L130,M130)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo 2"y1/2"', 4, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
   </sheetData>

--- a/database/BD/backup/precios.xlsx
+++ b/database/BD/backup/precios.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="401">
   <si>
     <t>Tubos</t>
   </si>
@@ -1190,6 +1190,48 @@
   </si>
   <si>
     <t>Clavo 2"y1/2"</t>
+  </si>
+  <si>
+    <t>Arena gruesa (Carretilla)</t>
+  </si>
+  <si>
+    <t>carretilla</t>
+  </si>
+  <si>
+    <t>Sumidero</t>
+  </si>
+  <si>
+    <t>Arena gruesa (bolsa)</t>
+  </si>
+  <si>
+    <t>Arena fina (bolsa)</t>
+  </si>
+  <si>
+    <t>Tanque 1100L</t>
+  </si>
+  <si>
+    <t>Cemento (kilo)</t>
+  </si>
+  <si>
+    <t>yeso (kilo)</t>
+  </si>
+  <si>
+    <t>Espor Lay</t>
+  </si>
+  <si>
+    <t>Tiner 1/2L</t>
+  </si>
+  <si>
+    <t>Tiner 1L</t>
+  </si>
+  <si>
+    <t>Sika</t>
+  </si>
+  <si>
+    <t>Tee desague 2"</t>
+  </si>
+  <si>
+    <t>Teflon</t>
   </si>
 </sst>
 </file>
@@ -3424,10 +3466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A130"/>
+    <sheetView tabSelected="1" topLeftCell="D142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142:N143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8856,7 +8898,7 @@
         <v>266</v>
       </c>
       <c r="J127" s="3">
-        <f t="shared" ref="J127:J130" si="29">D127</f>
+        <f t="shared" ref="J127:J129" si="29">D127</f>
         <v>7</v>
       </c>
       <c r="K127" t="s">
@@ -8972,21 +9014,21 @@
         <v>386</v>
       </c>
       <c r="D130" s="3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G130" t="s">
         <v>267</v>
       </c>
       <c r="H130" t="str">
-        <f t="shared" ref="H130" si="32">C130</f>
+        <f t="shared" ref="H130:H131" si="32">C130</f>
         <v>Clavo 2"y1/2"</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J130" s="3">
-        <f t="shared" ref="J130" si="33">D130</f>
-        <v>4</v>
+        <f t="shared" ref="J130:J131" si="33">D130</f>
+        <v>4.5</v>
       </c>
       <c r="K130" t="s">
         <v>269</v>
@@ -9000,7 +9042,566 @@
       </c>
       <c r="N130" t="str">
         <f t="shared" ref="N130" si="35">CONCATENATE(G130,H130,I130,J130,K130,L130,M130)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo 2"y1/2"', 4, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo 2"y1/2"', 4.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f>VLOOKUP(B131,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="B131" t="s">
+        <v>388</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D131" s="3">
+        <v>5</v>
+      </c>
+      <c r="G131" t="s">
+        <v>267</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" ref="H131:H132" si="36">C131</f>
+        <v>Arena gruesa (Carretilla)</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J131" s="3">
+        <f t="shared" ref="J131:J132" si="37">D131</f>
+        <v>5</v>
+      </c>
+      <c r="K131" t="s">
+        <v>269</v>
+      </c>
+      <c r="L131">
+        <f t="shared" ref="L131" si="38">A131</f>
+        <v>13</v>
+      </c>
+      <c r="M131" t="s">
+        <v>268</v>
+      </c>
+      <c r="N131" t="str">
+        <f t="shared" ref="N131" si="39">CONCATENATE(G131,H131,I131,J131,K131,L131,M131)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Arena gruesa (Carretilla)', 5, 'Activo', 0, 0, 13 ) ; </v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f>VLOOKUP(B132,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>241</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D132" s="3">
+        <v>4</v>
+      </c>
+      <c r="G132" t="s">
+        <v>267</v>
+      </c>
+      <c r="H132" t="str">
+        <f t="shared" ref="H132" si="40">C132</f>
+        <v>Sumidero</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J132" s="3">
+        <f t="shared" ref="J132:J134" si="41">D132</f>
+        <v>4</v>
+      </c>
+      <c r="K132" t="s">
+        <v>269</v>
+      </c>
+      <c r="L132">
+        <f t="shared" ref="L132" si="42">A132</f>
+        <v>3</v>
+      </c>
+      <c r="M132" t="s">
+        <v>268</v>
+      </c>
+      <c r="N132" t="str">
+        <f t="shared" ref="N132" si="43">CONCATENATE(G132,H132,I132,J132,K132,L132,M132)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Sumidero', 4, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f>VLOOKUP(B133,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
+        <v>244</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D133" s="3">
+        <v>3</v>
+      </c>
+      <c r="G133" t="s">
+        <v>267</v>
+      </c>
+      <c r="H133" t="str">
+        <f t="shared" ref="H133:H135" si="44">C133</f>
+        <v>Arena gruesa (bolsa)</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J133" s="3">
+        <f t="shared" ref="J133:J134" si="45">D133</f>
+        <v>3</v>
+      </c>
+      <c r="K133" t="s">
+        <v>269</v>
+      </c>
+      <c r="L133">
+        <f t="shared" ref="L133:L134" si="46">A133</f>
+        <v>1</v>
+      </c>
+      <c r="M133" t="s">
+        <v>268</v>
+      </c>
+      <c r="N133" t="str">
+        <f t="shared" ref="N133:N134" si="47">CONCATENATE(G133,H133,I133,J133,K133,L133,M133)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Arena gruesa (bolsa)', 3, 'Activo', 0, 0, 1 ) ; </v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f>VLOOKUP(B134,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>244</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D134" s="3">
+        <v>3</v>
+      </c>
+      <c r="G134" t="s">
+        <v>267</v>
+      </c>
+      <c r="H134" t="str">
+        <f t="shared" si="44"/>
+        <v>Arena fina (bolsa)</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J134" s="3">
+        <f t="shared" si="45"/>
+        <v>3</v>
+      </c>
+      <c r="K134" t="s">
+        <v>269</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="M134" t="s">
+        <v>268</v>
+      </c>
+      <c r="N134" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Arena fina (bolsa)', 3, 'Activo', 0, 0, 1 ) ; </v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f>VLOOKUP(B135,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B135" t="s">
+        <v>241</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D135" s="3">
+        <v>410</v>
+      </c>
+      <c r="G135" t="s">
+        <v>267</v>
+      </c>
+      <c r="H135" t="str">
+        <f t="shared" ref="H135" si="48">C135</f>
+        <v>Tanque 1100L</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J135" s="3">
+        <f t="shared" ref="J135:J136" si="49">D135</f>
+        <v>410</v>
+      </c>
+      <c r="K135" t="s">
+        <v>269</v>
+      </c>
+      <c r="L135">
+        <f t="shared" ref="L135" si="50">A135</f>
+        <v>3</v>
+      </c>
+      <c r="M135" t="s">
+        <v>268</v>
+      </c>
+      <c r="N135" t="str">
+        <f t="shared" ref="N135" si="51">CONCATENATE(G135,H135,I135,J135,K135,L135,M135)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tanque 1100L', 410, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f>VLOOKUP(B136,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B136" t="s">
+        <v>241</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D136" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G136" t="s">
+        <v>267</v>
+      </c>
+      <c r="H136" t="str">
+        <f t="shared" ref="H136:H138" si="52">C136</f>
+        <v>Espor Lay</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J136" s="3">
+        <f t="shared" ref="J136" si="53">D136</f>
+        <v>2.5</v>
+      </c>
+      <c r="K136" t="s">
+        <v>269</v>
+      </c>
+      <c r="L136">
+        <f t="shared" ref="L136" si="54">A136</f>
+        <v>3</v>
+      </c>
+      <c r="M136" t="s">
+        <v>268</v>
+      </c>
+      <c r="N136" t="str">
+        <f t="shared" ref="N136" si="55">CONCATENATE(G136,H136,I136,J136,K136,L136,M136)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Espor Lay', 2.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f>VLOOKUP(B137,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="B137" t="s">
+        <v>242</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G137" t="s">
+        <v>267</v>
+      </c>
+      <c r="H137" t="str">
+        <f t="shared" ref="H137:H139" si="56">C137</f>
+        <v>Cemento (kilo)</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J137" s="3">
+        <f t="shared" ref="J137:J140" si="57">D137</f>
+        <v>0.7</v>
+      </c>
+      <c r="K137" t="s">
+        <v>269</v>
+      </c>
+      <c r="L137">
+        <f t="shared" ref="L137:L138" si="58">A137</f>
+        <v>6</v>
+      </c>
+      <c r="M137" t="s">
+        <v>268</v>
+      </c>
+      <c r="N137" t="str">
+        <f t="shared" ref="N137:N138" si="59">CONCATENATE(G137,H137,I137,J137,K137,L137,M137)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento (kilo)', 0.7, 'Activo', 0, 0, 6 ) ; </v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f>VLOOKUP(B138,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="B138" t="s">
+        <v>242</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G138" t="s">
+        <v>267</v>
+      </c>
+      <c r="H138" t="str">
+        <f t="shared" si="56"/>
+        <v>yeso (kilo)</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J138" s="3">
+        <f t="shared" si="57"/>
+        <v>0.7</v>
+      </c>
+      <c r="K138" t="s">
+        <v>269</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="58"/>
+        <v>6</v>
+      </c>
+      <c r="M138" t="s">
+        <v>268</v>
+      </c>
+      <c r="N138" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'yeso (kilo)', 0.7, 'Activo', 0, 0, 6 ) ; </v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f>VLOOKUP(B139,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>249</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D139" s="3">
+        <v>3</v>
+      </c>
+      <c r="G139" t="s">
+        <v>267</v>
+      </c>
+      <c r="H139" t="str">
+        <f t="shared" ref="H139:H141" si="60">C139</f>
+        <v>Tiner 1/2L</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J139" s="3">
+        <f t="shared" ref="J139:J141" si="61">D139</f>
+        <v>3</v>
+      </c>
+      <c r="K139" t="s">
+        <v>269</v>
+      </c>
+      <c r="L139">
+        <f t="shared" ref="L139:L140" si="62">A139</f>
+        <v>7</v>
+      </c>
+      <c r="M139" t="s">
+        <v>268</v>
+      </c>
+      <c r="N139" t="str">
+        <f t="shared" ref="N139:N140" si="63">CONCATENATE(G139,H139,I139,J139,K139,L139,M139)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tiner 1/2L', 3, 'Activo', 0, 0, 7 ) ; </v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f>VLOOKUP(B140,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>249</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D140" s="3">
+        <v>6</v>
+      </c>
+      <c r="G140" t="s">
+        <v>267</v>
+      </c>
+      <c r="H140" t="str">
+        <f t="shared" si="60"/>
+        <v>Tiner 1L</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J140" s="3">
+        <f t="shared" si="61"/>
+        <v>6</v>
+      </c>
+      <c r="K140" t="s">
+        <v>269</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="62"/>
+        <v>7</v>
+      </c>
+      <c r="M140" t="s">
+        <v>268</v>
+      </c>
+      <c r="N140" t="str">
+        <f t="shared" si="63"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tiner 1L', 6, 'Activo', 0, 0, 7 ) ; </v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f>VLOOKUP(B141,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
+        <v>244</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D141" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G141" t="s">
+        <v>267</v>
+      </c>
+      <c r="H141" t="str">
+        <f t="shared" ref="H141:H142" si="64">C141</f>
+        <v>Sika</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J141" s="3">
+        <f t="shared" ref="J141:J142" si="65">D141</f>
+        <v>4.5</v>
+      </c>
+      <c r="K141" t="s">
+        <v>269</v>
+      </c>
+      <c r="L141">
+        <f t="shared" ref="L141" si="66">A141</f>
+        <v>1</v>
+      </c>
+      <c r="M141" t="s">
+        <v>268</v>
+      </c>
+      <c r="N141" t="str">
+        <f t="shared" ref="N141" si="67">CONCATENATE(G141,H141,I141,J141,K141,L141,M141)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Sika', 4.5, 'Activo', 0, 0, 1 ) ; </v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f>VLOOKUP(B142,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B142" t="s">
+        <v>241</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D142" s="3">
+        <v>3</v>
+      </c>
+      <c r="G142" t="s">
+        <v>267</v>
+      </c>
+      <c r="H142" t="str">
+        <f t="shared" ref="H142:H143" si="68">C142</f>
+        <v>Tee desague 2"</v>
+      </c>
+      <c r="I142" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J142" s="3">
+        <f t="shared" ref="J142:J143" si="69">D142</f>
+        <v>3</v>
+      </c>
+      <c r="K142" t="s">
+        <v>269</v>
+      </c>
+      <c r="L142">
+        <f t="shared" ref="L142" si="70">A142</f>
+        <v>3</v>
+      </c>
+      <c r="M142" t="s">
+        <v>268</v>
+      </c>
+      <c r="N142" t="str">
+        <f t="shared" ref="N142" si="71">CONCATENATE(G142,H142,I142,J142,K142,L142,M142)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee desague 2"', 3, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f>VLOOKUP(B143,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B143" t="s">
+        <v>241</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D143" s="3">
+        <v>2</v>
+      </c>
+      <c r="G143" t="s">
+        <v>267</v>
+      </c>
+      <c r="H143" t="str">
+        <f t="shared" ref="H143" si="72">C143</f>
+        <v>Teflon</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J143" s="3">
+        <f t="shared" ref="J143" si="73">D143</f>
+        <v>2</v>
+      </c>
+      <c r="K143" t="s">
+        <v>269</v>
+      </c>
+      <c r="L143">
+        <f t="shared" ref="L143" si="74">A143</f>
+        <v>3</v>
+      </c>
+      <c r="M143" t="s">
+        <v>268</v>
+      </c>
+      <c r="N143" t="str">
+        <f t="shared" ref="N143" si="75">CONCATENATE(G143,H143,I143,J143,K143,L143,M143)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Teflon', 2, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
   </sheetData>
@@ -9013,10 +9614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9161,6 +9762,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/BD/backup/precios.xlsx
+++ b/database/BD/backup/precios.xlsx
@@ -3468,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G142" sqref="G142:N143"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4155,7 +4155,7 @@
         <v>273</v>
       </c>
       <c r="D17" s="3">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
         <v>267</v>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="J17" s="3">
         <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
         <v>269</v>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="N17" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento inka azul', 22.5, 'Activo', 0, 0, 1 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento inka azul', 23, 'Activo', 0, 0, 1 ) ; </v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -4198,7 +4198,7 @@
         <v>274</v>
       </c>
       <c r="D18" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
         <v>267</v>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="J18" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
         <v>269</v>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="N18" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento inka rojo', 20, 'Activo', 0, 0, 1 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cemento inka rojo', 21, 'Activo', 0, 0, 1 ) ; </v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -9020,14 +9020,14 @@
         <v>267</v>
       </c>
       <c r="H130" t="str">
-        <f t="shared" ref="H130:H131" si="32">C130</f>
+        <f t="shared" ref="H130" si="32">C130</f>
         <v>Clavo 2"y1/2"</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J130" s="3">
-        <f t="shared" ref="J130:J131" si="33">D130</f>
+        <f t="shared" ref="J130" si="33">D130</f>
         <v>4.5</v>
       </c>
       <c r="K130" t="s">
@@ -9063,14 +9063,14 @@
         <v>267</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" ref="H131:H132" si="36">C131</f>
+        <f t="shared" ref="H131" si="36">C131</f>
         <v>Arena gruesa (Carretilla)</v>
       </c>
       <c r="I131" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J131" s="3">
-        <f t="shared" ref="J131:J132" si="37">D131</f>
+        <f t="shared" ref="J131" si="37">D131</f>
         <v>5</v>
       </c>
       <c r="K131" t="s">
@@ -9113,7 +9113,7 @@
         <v>266</v>
       </c>
       <c r="J132" s="3">
-        <f t="shared" ref="J132:J134" si="41">D132</f>
+        <f t="shared" ref="J132" si="41">D132</f>
         <v>4</v>
       </c>
       <c r="K132" t="s">
@@ -9149,7 +9149,7 @@
         <v>267</v>
       </c>
       <c r="H133" t="str">
-        <f t="shared" ref="H133:H135" si="44">C133</f>
+        <f t="shared" ref="H133:H134" si="44">C133</f>
         <v>Arena gruesa (bolsa)</v>
       </c>
       <c r="I133" s="7" t="s">
@@ -9242,7 +9242,7 @@
         <v>266</v>
       </c>
       <c r="J135" s="3">
-        <f t="shared" ref="J135:J136" si="49">D135</f>
+        <f t="shared" ref="J135" si="49">D135</f>
         <v>410</v>
       </c>
       <c r="K135" t="s">
@@ -9278,7 +9278,7 @@
         <v>267</v>
       </c>
       <c r="H136" t="str">
-        <f t="shared" ref="H136:H138" si="52">C136</f>
+        <f t="shared" ref="H136" si="52">C136</f>
         <v>Espor Lay</v>
       </c>
       <c r="I136" s="7" t="s">
@@ -9321,14 +9321,14 @@
         <v>267</v>
       </c>
       <c r="H137" t="str">
-        <f t="shared" ref="H137:H139" si="56">C137</f>
+        <f t="shared" ref="H137:H138" si="56">C137</f>
         <v>Cemento (kilo)</v>
       </c>
       <c r="I137" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J137" s="3">
-        <f t="shared" ref="J137:J140" si="57">D137</f>
+        <f t="shared" ref="J137:J138" si="57">D137</f>
         <v>0.7</v>
       </c>
       <c r="K137" t="s">
@@ -9407,14 +9407,14 @@
         <v>267</v>
       </c>
       <c r="H139" t="str">
-        <f t="shared" ref="H139:H141" si="60">C139</f>
+        <f t="shared" ref="H139:H140" si="60">C139</f>
         <v>Tiner 1/2L</v>
       </c>
       <c r="I139" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J139" s="3">
-        <f t="shared" ref="J139:J141" si="61">D139</f>
+        <f t="shared" ref="J139:J140" si="61">D139</f>
         <v>3</v>
       </c>
       <c r="K139" t="s">
@@ -9493,14 +9493,14 @@
         <v>267</v>
       </c>
       <c r="H141" t="str">
-        <f t="shared" ref="H141:H142" si="64">C141</f>
+        <f t="shared" ref="H141" si="64">C141</f>
         <v>Sika</v>
       </c>
       <c r="I141" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J141" s="3">
-        <f t="shared" ref="J141:J142" si="65">D141</f>
+        <f t="shared" ref="J141" si="65">D141</f>
         <v>4.5</v>
       </c>
       <c r="K141" t="s">
@@ -9536,14 +9536,14 @@
         <v>267</v>
       </c>
       <c r="H142" t="str">
-        <f t="shared" ref="H142:H143" si="68">C142</f>
+        <f t="shared" ref="H142" si="68">C142</f>
         <v>Tee desague 2"</v>
       </c>
       <c r="I142" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J142" s="3">
-        <f t="shared" ref="J142:J143" si="69">D142</f>
+        <f t="shared" ref="J142" si="69">D142</f>
         <v>3</v>
       </c>
       <c r="K142" t="s">

--- a/database/BD/backup/precios.xlsx
+++ b/database/BD/backup/precios.xlsx
@@ -13,11 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Requerimientos" sheetId="1" r:id="rId1"/>
-    <sheet name="hoja con SQL" sheetId="2" r:id="rId2"/>
-    <sheet name="Maestra de unidades" sheetId="3" r:id="rId3"/>
+    <sheet name="1Precios base SQL" sheetId="2" r:id="rId2"/>
+    <sheet name="2Precios por zona" sheetId="4" r:id="rId3"/>
+    <sheet name="Maestra de unidades" sheetId="3" r:id="rId4"/>
+    <sheet name="Maestra de zonas" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'hoja con SQL'!$A$1:$D$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1Precios base SQL'!$A$1:$D$121</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="418">
   <si>
     <t>Tubos</t>
   </si>
@@ -1232,6 +1234,57 @@
   </si>
   <si>
     <t>Teflon</t>
+  </si>
+  <si>
+    <t>Tapon 1/2"</t>
+  </si>
+  <si>
+    <t>union universal</t>
+  </si>
+  <si>
+    <t>Cinta aislante pequeño</t>
+  </si>
+  <si>
+    <t>Hoja sierra - Sanflex</t>
+  </si>
+  <si>
+    <t>Llave check 3/4" - simbal</t>
+  </si>
+  <si>
+    <t>Llave check 1/4" - simbal</t>
+  </si>
+  <si>
+    <t>Piedra</t>
+  </si>
+  <si>
+    <t>Nueva luz</t>
+  </si>
+  <si>
+    <t>Balcones verdes</t>
+  </si>
+  <si>
+    <t>Santa rosita sector 5</t>
+  </si>
+  <si>
+    <t>Otros cercanos</t>
+  </si>
+  <si>
+    <t>San juan de casa blanca</t>
+  </si>
+  <si>
+    <t>Fierro 1/2" - arequipa</t>
+  </si>
+  <si>
+    <t>Fierro 1/4" 6mm - arequipa</t>
+  </si>
+  <si>
+    <t>Fierro 3/8" - arequipa</t>
+  </si>
+  <si>
+    <t>Fierro 5/8" - arequipa</t>
+  </si>
+  <si>
+    <t>Fierro 8mm - arequipa</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1621,7 @@
   <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3466,10 +3519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N143"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="D148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149:N154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7810,7 +7863,7 @@
         <v>205</v>
       </c>
       <c r="D102" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G102" t="s">
         <v>267</v>
@@ -7824,7 +7877,7 @@
       </c>
       <c r="J102" s="3">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K102" t="s">
         <v>269</v>
@@ -7838,7 +7891,7 @@
       </c>
       <c r="N102" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Triplay', 24, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Triplay', 25, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -9392,130 +9445,130 @@
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
         <f>VLOOKUP(B139,'Maestra de unidades'!$B:$C,2,0)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B139" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D139" s="3">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G139" t="s">
         <v>267</v>
       </c>
       <c r="H139" t="str">
-        <f t="shared" ref="H139:H140" si="60">C139</f>
-        <v>Tiner 1/2L</v>
+        <f t="shared" ref="H139" si="60">C139</f>
+        <v>Sika</v>
       </c>
       <c r="I139" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J139" s="3">
-        <f t="shared" ref="J139:J140" si="61">D139</f>
-        <v>3</v>
+        <f t="shared" ref="J139" si="61">D139</f>
+        <v>4.5</v>
       </c>
       <c r="K139" t="s">
         <v>269</v>
       </c>
       <c r="L139">
-        <f t="shared" ref="L139:L140" si="62">A139</f>
-        <v>7</v>
+        <f t="shared" ref="L139" si="62">A139</f>
+        <v>1</v>
       </c>
       <c r="M139" t="s">
         <v>268</v>
       </c>
       <c r="N139" t="str">
-        <f t="shared" ref="N139:N140" si="63">CONCATENATE(G139,H139,I139,J139,K139,L139,M139)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tiner 1/2L', 3, 'Activo', 0, 0, 7 ) ; </v>
+        <f t="shared" ref="N139" si="63">CONCATENATE(G139,H139,I139,J139,K139,L139,M139)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Sika', 4.5, 'Activo', 0, 0, 1 ) ; </v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
         <f>VLOOKUP(B140,'Maestra de unidades'!$B:$C,2,0)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D140" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G140" t="s">
         <v>267</v>
       </c>
       <c r="H140" t="str">
-        <f t="shared" si="60"/>
-        <v>Tiner 1L</v>
+        <f t="shared" ref="H140" si="64">C140</f>
+        <v>Tee desague 2"</v>
       </c>
       <c r="I140" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J140" s="3">
-        <f t="shared" si="61"/>
-        <v>6</v>
+        <f t="shared" ref="J140" si="65">D140</f>
+        <v>3</v>
       </c>
       <c r="K140" t="s">
         <v>269</v>
       </c>
       <c r="L140">
-        <f t="shared" si="62"/>
-        <v>7</v>
+        <f t="shared" ref="L140" si="66">A140</f>
+        <v>3</v>
       </c>
       <c r="M140" t="s">
         <v>268</v>
       </c>
       <c r="N140" t="str">
-        <f t="shared" si="63"/>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tiner 1L', 6, 'Activo', 0, 0, 7 ) ; </v>
+        <f t="shared" ref="N140" si="67">CONCATENATE(G140,H140,I140,J140,K140,L140,M140)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee desague 2"', 3, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
         <f>VLOOKUP(B141,'Maestra de unidades'!$B:$C,2,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D141" s="3">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="G141" t="s">
         <v>267</v>
       </c>
       <c r="H141" t="str">
-        <f t="shared" ref="H141" si="64">C141</f>
-        <v>Sika</v>
+        <f t="shared" ref="H141" si="68">C141</f>
+        <v>Teflon</v>
       </c>
       <c r="I141" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J141" s="3">
-        <f t="shared" ref="J141" si="65">D141</f>
-        <v>4.5</v>
+        <f t="shared" ref="J141" si="69">D141</f>
+        <v>2</v>
       </c>
       <c r="K141" t="s">
         <v>269</v>
       </c>
       <c r="L141">
-        <f t="shared" ref="L141" si="66">A141</f>
-        <v>1</v>
+        <f t="shared" ref="L141" si="70">A141</f>
+        <v>3</v>
       </c>
       <c r="M141" t="s">
         <v>268</v>
       </c>
       <c r="N141" t="str">
-        <f t="shared" ref="N141" si="67">CONCATENATE(G141,H141,I141,J141,K141,L141,M141)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Sika', 4.5, 'Activo', 0, 0, 1 ) ; </v>
+        <f t="shared" ref="N141" si="71">CONCATENATE(G141,H141,I141,J141,K141,L141,M141)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Teflon', 2, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -9527,38 +9580,38 @@
         <v>241</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D142" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G142" t="s">
         <v>267</v>
       </c>
       <c r="H142" t="str">
-        <f t="shared" ref="H142" si="68">C142</f>
-        <v>Tee desague 2"</v>
+        <f t="shared" ref="H142" si="72">C142</f>
+        <v>Tapon 1/2"</v>
       </c>
       <c r="I142" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J142" s="3">
-        <f t="shared" ref="J142" si="69">D142</f>
-        <v>3</v>
+        <f t="shared" ref="J142" si="73">D142</f>
+        <v>1</v>
       </c>
       <c r="K142" t="s">
         <v>269</v>
       </c>
       <c r="L142">
-        <f t="shared" ref="L142" si="70">A142</f>
+        <f t="shared" ref="L142" si="74">A142</f>
         <v>3</v>
       </c>
       <c r="M142" t="s">
         <v>268</v>
       </c>
       <c r="N142" t="str">
-        <f t="shared" ref="N142" si="71">CONCATENATE(G142,H142,I142,J142,K142,L142,M142)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tee desague 2"', 3, 'Activo', 0, 0, 3 ) ; </v>
+        <f t="shared" ref="N142" si="75">CONCATENATE(G142,H142,I142,J142,K142,L142,M142)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tapon 1/2"', 1, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
@@ -9570,38 +9623,511 @@
         <v>241</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D143" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G143" t="s">
         <v>267</v>
       </c>
       <c r="H143" t="str">
-        <f t="shared" ref="H143" si="72">C143</f>
-        <v>Teflon</v>
+        <f t="shared" ref="H143:H144" si="76">C143</f>
+        <v>Cinta aislante pequeño</v>
       </c>
       <c r="I143" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J143" s="3">
-        <f t="shared" ref="J143" si="73">D143</f>
-        <v>2</v>
+        <f t="shared" ref="J143:J144" si="77">D143</f>
+        <v>1.5</v>
       </c>
       <c r="K143" t="s">
         <v>269</v>
       </c>
       <c r="L143">
-        <f t="shared" ref="L143" si="74">A143</f>
+        <f t="shared" ref="L143:L144" si="78">A143</f>
         <v>3</v>
       </c>
       <c r="M143" t="s">
         <v>268</v>
       </c>
       <c r="N143" t="str">
-        <f t="shared" ref="N143" si="75">CONCATENATE(G143,H143,I143,J143,K143,L143,M143)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Teflon', 2, 'Activo', 0, 0, 3 ) ; </v>
+        <f t="shared" ref="N143:N144" si="79">CONCATENATE(G143,H143,I143,J143,K143,L143,M143)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cinta aislante pequeño', 1.5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f>VLOOKUP(B144,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>241</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D144" s="3">
+        <v>4</v>
+      </c>
+      <c r="G144" t="s">
+        <v>267</v>
+      </c>
+      <c r="H144" t="str">
+        <f t="shared" si="76"/>
+        <v>union universal</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J144" s="3">
+        <f t="shared" si="77"/>
+        <v>4</v>
+      </c>
+      <c r="K144" t="s">
+        <v>269</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="78"/>
+        <v>3</v>
+      </c>
+      <c r="M144" t="s">
+        <v>268</v>
+      </c>
+      <c r="N144" t="str">
+        <f t="shared" si="79"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'union universal', 4, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f>VLOOKUP(B145,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>249</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D145" s="3">
+        <v>3</v>
+      </c>
+      <c r="G145" t="s">
+        <v>267</v>
+      </c>
+      <c r="H145" t="str">
+        <f t="shared" ref="H145:H146" si="80">C145</f>
+        <v>Tiner 1/2L</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J145" s="3">
+        <f t="shared" ref="J145:J146" si="81">D145</f>
+        <v>3</v>
+      </c>
+      <c r="K145" t="s">
+        <v>269</v>
+      </c>
+      <c r="L145">
+        <f t="shared" ref="L145:L146" si="82">A145</f>
+        <v>7</v>
+      </c>
+      <c r="M145" t="s">
+        <v>268</v>
+      </c>
+      <c r="N145" t="str">
+        <f t="shared" ref="N145:N146" si="83">CONCATENATE(G145,H145,I145,J145,K145,L145,M145)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tiner 1/2L', 3, 'Activo', 0, 0, 7 ) ; </v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f>VLOOKUP(B146,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>249</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D146" s="3">
+        <v>6</v>
+      </c>
+      <c r="G146" t="s">
+        <v>267</v>
+      </c>
+      <c r="H146" t="str">
+        <f t="shared" si="80"/>
+        <v>Tiner 1L</v>
+      </c>
+      <c r="I146" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J146" s="3">
+        <f t="shared" si="81"/>
+        <v>6</v>
+      </c>
+      <c r="K146" t="s">
+        <v>269</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="82"/>
+        <v>7</v>
+      </c>
+      <c r="M146" t="s">
+        <v>268</v>
+      </c>
+      <c r="N146" t="str">
+        <f t="shared" si="83"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Tiner 1L', 6, 'Activo', 0, 0, 7 ) ; </v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f>VLOOKUP(B147,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B147" t="s">
+        <v>241</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D147" s="3">
+        <v>5</v>
+      </c>
+      <c r="G147" t="s">
+        <v>267</v>
+      </c>
+      <c r="H147" t="str">
+        <f t="shared" ref="H147" si="84">C147</f>
+        <v>Hoja sierra - Sanflex</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J147" s="3">
+        <f t="shared" ref="J147" si="85">D147</f>
+        <v>5</v>
+      </c>
+      <c r="K147" t="s">
+        <v>269</v>
+      </c>
+      <c r="L147">
+        <f t="shared" ref="L147" si="86">A147</f>
+        <v>3</v>
+      </c>
+      <c r="M147" t="s">
+        <v>268</v>
+      </c>
+      <c r="N147" t="str">
+        <f t="shared" ref="N147" si="87">CONCATENATE(G147,H147,I147,J147,K147,L147,M147)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Hoja sierra - Sanflex', 5, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f>VLOOKUP(B148,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B148" t="s">
+        <v>241</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D148" s="3">
+        <v>45</v>
+      </c>
+      <c r="G148" t="s">
+        <v>267</v>
+      </c>
+      <c r="H148" t="str">
+        <f t="shared" ref="H148:H149" si="88">C148</f>
+        <v>Llave check 3/4" - simbal</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J148" s="3">
+        <f t="shared" ref="J148:J149" si="89">D148</f>
+        <v>45</v>
+      </c>
+      <c r="K148" t="s">
+        <v>269</v>
+      </c>
+      <c r="L148">
+        <f t="shared" ref="L148:L149" si="90">A148</f>
+        <v>3</v>
+      </c>
+      <c r="M148" t="s">
+        <v>268</v>
+      </c>
+      <c r="N148" t="str">
+        <f t="shared" ref="N148:N149" si="91">CONCATENATE(G148,H148,I148,J148,K148,L148,M148)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave check 3/4" - simbal', 45, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f>VLOOKUP(B149,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B149" t="s">
+        <v>241</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D149" s="3">
+        <v>32</v>
+      </c>
+      <c r="G149" t="s">
+        <v>267</v>
+      </c>
+      <c r="H149" t="str">
+        <f t="shared" si="88"/>
+        <v>Llave check 1/4" - simbal</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J149" s="3">
+        <f t="shared" si="89"/>
+        <v>32</v>
+      </c>
+      <c r="K149" t="s">
+        <v>269</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="90"/>
+        <v>3</v>
+      </c>
+      <c r="M149" t="s">
+        <v>268</v>
+      </c>
+      <c r="N149" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Llave check 1/4" - simbal', 32, 'Activo', 0, 0, 3 ) ; </v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f>VLOOKUP(B150,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>246</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D150" s="3">
+        <v>24.5</v>
+      </c>
+      <c r="G150" t="s">
+        <v>267</v>
+      </c>
+      <c r="H150" t="str">
+        <f t="shared" ref="H150:H154" si="92">C150</f>
+        <v>Fierro 1/2" - arequipa</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J150" s="3">
+        <f t="shared" ref="J150:J154" si="93">D150</f>
+        <v>24.5</v>
+      </c>
+      <c r="K150" t="s">
+        <v>269</v>
+      </c>
+      <c r="L150">
+        <f t="shared" ref="L150:L154" si="94">A150</f>
+        <v>4</v>
+      </c>
+      <c r="M150" t="s">
+        <v>268</v>
+      </c>
+      <c r="N150" t="str">
+        <f t="shared" ref="N150:N154" si="95">CONCATENATE(G150,H150,I150,J150,K150,L150,M150)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 1/2" - arequipa', 24.5, 'Activo', 0, 0, 4 ) ; </v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f>VLOOKUP(B151,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>246</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D151" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="G151" t="s">
+        <v>267</v>
+      </c>
+      <c r="H151" t="str">
+        <f t="shared" si="92"/>
+        <v>Fierro 1/4" 6mm - arequipa</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J151" s="3">
+        <f t="shared" si="93"/>
+        <v>6.5</v>
+      </c>
+      <c r="K151" t="s">
+        <v>269</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M151" t="s">
+        <v>268</v>
+      </c>
+      <c r="N151" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 1/4" 6mm - arequipa', 6.5, 'Activo', 0, 0, 4 ) ; </v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f>VLOOKUP(B152,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>246</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D152" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="G152" t="s">
+        <v>267</v>
+      </c>
+      <c r="H152" t="str">
+        <f t="shared" si="92"/>
+        <v>Fierro 3/8" - arequipa</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J152" s="3">
+        <f t="shared" si="93"/>
+        <v>14.5</v>
+      </c>
+      <c r="K152" t="s">
+        <v>269</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M152" t="s">
+        <v>268</v>
+      </c>
+      <c r="N152" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 3/8" - arequipa', 14.5, 'Activo', 0, 0, 4 ) ; </v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f>VLOOKUP(B153,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
+        <v>246</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D153" s="3">
+        <v>38</v>
+      </c>
+      <c r="G153" t="s">
+        <v>267</v>
+      </c>
+      <c r="H153" t="str">
+        <f t="shared" si="92"/>
+        <v>Fierro 5/8" - arequipa</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J153" s="3">
+        <f t="shared" si="93"/>
+        <v>38</v>
+      </c>
+      <c r="K153" t="s">
+        <v>269</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M153" t="s">
+        <v>268</v>
+      </c>
+      <c r="N153" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 5/8" - arequipa', 38, 'Activo', 0, 0, 4 ) ; </v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f>VLOOKUP(B154,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>246</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D154" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="G154" t="s">
+        <v>267</v>
+      </c>
+      <c r="H154" t="str">
+        <f t="shared" si="92"/>
+        <v>Fierro 8mm - arequipa</v>
+      </c>
+      <c r="I154" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J154" s="3">
+        <f t="shared" si="93"/>
+        <v>10.5</v>
+      </c>
+      <c r="K154" t="s">
+        <v>269</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="M154" t="s">
+        <v>268</v>
+      </c>
+      <c r="N154" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 8mm - arequipa', 10.5, 'Activo', 0, 0, 4 ) ; </v>
       </c>
     </row>
   </sheetData>
@@ -9613,6 +10139,148 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7">
+        <v>70</v>
+      </c>
+      <c r="D7">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -9776,4 +10444,57 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/database/BD/backup/precios.xlsx
+++ b/database/BD/backup/precios.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="420">
   <si>
     <t>Tubos</t>
   </si>
@@ -1242,9 +1242,6 @@
     <t>union universal</t>
   </si>
   <si>
-    <t>Cinta aislante pequeño</t>
-  </si>
-  <si>
     <t>Hoja sierra - Sanflex</t>
   </si>
   <si>
@@ -1285,19 +1282,34 @@
   </si>
   <si>
     <t>Fierro 8mm - arequipa</t>
+  </si>
+  <si>
+    <t>Piedra (Bolsa)</t>
+  </si>
+  <si>
+    <t>Cinta aislante grande 18m - 3M</t>
+  </si>
+  <si>
+    <t>Cinta aislante pequeño 4.5m - 3M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1326,7 +1338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1338,6 +1350,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3519,15 +3532,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G149" sqref="G149:N154"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -9623,7 +9636,7 @@
         <v>241</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="D143" s="3">
         <v>1.5</v>
@@ -9633,7 +9646,7 @@
       </c>
       <c r="H143" t="str">
         <f t="shared" ref="H143:H144" si="76">C143</f>
-        <v>Cinta aislante pequeño</v>
+        <v>Cinta aislante pequeño 4.5m - 3M</v>
       </c>
       <c r="I143" s="7" t="s">
         <v>266</v>
@@ -9654,7 +9667,7 @@
       </c>
       <c r="N143" t="str">
         <f t="shared" ref="N143:N144" si="79">CONCATENATE(G143,H143,I143,J143,K143,L143,M143)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cinta aislante pequeño', 1.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cinta aislante pequeño 4.5m - 3M', 1.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -9795,7 +9808,7 @@
         <v>241</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D147" s="3">
         <v>5</v>
@@ -9838,7 +9851,7 @@
         <v>241</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D148" s="3">
         <v>45</v>
@@ -9881,7 +9894,7 @@
         <v>241</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D149" s="3">
         <v>32</v>
@@ -9924,7 +9937,7 @@
         <v>246</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D150" s="3">
         <v>24.5</v>
@@ -9933,14 +9946,14 @@
         <v>267</v>
       </c>
       <c r="H150" t="str">
-        <f t="shared" ref="H150:H154" si="92">C150</f>
+        <f t="shared" ref="H150:H155" si="92">C150</f>
         <v>Fierro 1/2" - arequipa</v>
       </c>
       <c r="I150" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J150" s="3">
-        <f t="shared" ref="J150:J154" si="93">D150</f>
+        <f t="shared" ref="J150:J155" si="93">D150</f>
         <v>24.5</v>
       </c>
       <c r="K150" t="s">
@@ -9967,7 +9980,7 @@
         <v>246</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D151" s="3">
         <v>6.5</v>
@@ -10010,7 +10023,7 @@
         <v>246</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D152" s="3">
         <v>14.5</v>
@@ -10053,7 +10066,7 @@
         <v>246</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D153" s="3">
         <v>38</v>
@@ -10096,7 +10109,7 @@
         <v>246</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D154" s="3">
         <v>10.5</v>
@@ -10128,6 +10141,92 @@
       <c r="N154" t="str">
         <f t="shared" si="95"/>
         <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Fierro 8mm - arequipa', 10.5, 'Activo', 0, 0, 4 ) ; </v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f>VLOOKUP(B155,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B155" t="s">
+        <v>244</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D155" s="3">
+        <v>3</v>
+      </c>
+      <c r="G155" t="s">
+        <v>267</v>
+      </c>
+      <c r="H155" t="str">
+        <f t="shared" ref="H155" si="96">C155</f>
+        <v>Piedra (Bolsa)</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J155" s="3">
+        <f t="shared" ref="J155:J156" si="97">D155</f>
+        <v>3</v>
+      </c>
+      <c r="K155" t="s">
+        <v>269</v>
+      </c>
+      <c r="L155">
+        <f t="shared" ref="L155" si="98">A155</f>
+        <v>1</v>
+      </c>
+      <c r="M155" t="s">
+        <v>268</v>
+      </c>
+      <c r="N155" t="str">
+        <f t="shared" ref="N155" si="99">CONCATENATE(G155,H155,I155,J155,K155,L155,M155)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Piedra (Bolsa)', 3, 'Activo', 0, 0, 1 ) ; </v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f>VLOOKUP(B156,'Maestra de unidades'!$B:$C,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
+        <v>241</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="D156" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G156" t="s">
+        <v>267</v>
+      </c>
+      <c r="H156" t="str">
+        <f t="shared" ref="H156" si="100">C156</f>
+        <v>Cinta aislante grande 18m - 3M</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J156" s="3">
+        <f t="shared" ref="J156" si="101">D156</f>
+        <v>3.5</v>
+      </c>
+      <c r="K156" t="s">
+        <v>269</v>
+      </c>
+      <c r="L156">
+        <f t="shared" ref="L156" si="102">A156</f>
+        <v>3</v>
+      </c>
+      <c r="M156" t="s">
+        <v>268</v>
+      </c>
+      <c r="N156" t="str">
+        <f t="shared" ref="N156" si="103">CONCATENATE(G156,H156,I156,J156,K156,L156,M156)</f>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Cinta aislante grande 18m - 3M', 3.5, 'Activo', 0, 0, 3 ) ; </v>
       </c>
     </row>
   </sheetData>
@@ -10135,6 +10234,7 @@
     <sortCondition ref="C2:C121"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10157,7 +10257,7 @@
         <v>259</v>
       </c>
       <c r="D4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E4" t="s">
         <v>260</v>
@@ -10193,7 +10293,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C7">
         <v>70</v>
@@ -10207,7 +10307,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C8">
         <v>70</v>
@@ -10221,7 +10321,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C9">
         <v>80</v>
@@ -10249,7 +10349,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -10263,7 +10363,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -10471,17 +10571,17 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
@@ -10491,7 +10591,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/database/BD/backup/precios.xlsx
+++ b/database/BD/backup/precios.xlsx
@@ -1191,9 +1191,6 @@
     <t>Liston 2.5m</t>
   </si>
   <si>
-    <t>Clavo 2"y1/2"</t>
-  </si>
-  <si>
     <t>Arena gruesa (Carretilla)</t>
   </si>
   <si>
@@ -1291,6 +1288,9 @@
   </si>
   <si>
     <t>Cinta aislante pequeño 4.5m - 3M</t>
+  </si>
+  <si>
+    <t>Clavo 2-1/2"</t>
   </si>
 </sst>
 </file>
@@ -3534,8 +3534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9071,13 +9071,13 @@
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>VLOOKUP(B130,'Maestra de unidades'!$B:$C,2,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="D130" s="3">
         <v>4.5</v>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="H130" t="str">
         <f t="shared" ref="H130" si="32">C130</f>
-        <v>Clavo 2"y1/2"</v>
+        <v>Clavo 2-1/2"</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>266</v>
@@ -9101,14 +9101,14 @@
       </c>
       <c r="L130">
         <f t="shared" ref="L130" si="34">A130</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M130" t="s">
         <v>268</v>
       </c>
       <c r="N130" t="str">
         <f t="shared" ref="N130" si="35">CONCATENATE(G130,H130,I130,J130,K130,L130,M130)</f>
-        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo 2"y1/2"', 4.5, 'Activo', 0, 0, 3 ) ; </v>
+        <v xml:space="preserve">INSERT INTO item ( name, price, state, realStock, availableStock, idUnit) VALUES ( 'Clavo 2-1/2"', 4.5, 'Activo', 0, 0, 6 ) ; </v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -9117,10 +9117,10 @@
         <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D131" s="3">
         <v>5</v>
@@ -9163,7 +9163,7 @@
         <v>241</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D132" s="3">
         <v>4</v>
@@ -9206,7 +9206,7 @@
         <v>244</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D133" s="3">
         <v>3</v>
@@ -9249,7 +9249,7 @@
         <v>244</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D134" s="3">
         <v>3</v>
@@ -9292,7 +9292,7 @@
         <v>241</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D135" s="3">
         <v>410</v>
@@ -9335,7 +9335,7 @@
         <v>241</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D136" s="3">
         <v>2.5</v>
@@ -9378,7 +9378,7 @@
         <v>242</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D137" s="3">
         <v>0.7</v>
@@ -9421,7 +9421,7 @@
         <v>242</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D138" s="3">
         <v>0.7</v>
@@ -9464,7 +9464,7 @@
         <v>244</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D139" s="3">
         <v>4.5</v>
@@ -9507,7 +9507,7 @@
         <v>241</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D140" s="3">
         <v>3</v>
@@ -9550,7 +9550,7 @@
         <v>241</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D141" s="3">
         <v>2</v>
@@ -9593,7 +9593,7 @@
         <v>241</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D142" s="3">
         <v>1</v>
@@ -9636,7 +9636,7 @@
         <v>241</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D143" s="3">
         <v>1.5</v>
@@ -9679,7 +9679,7 @@
         <v>241</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D144" s="3">
         <v>4</v>
@@ -9722,7 +9722,7 @@
         <v>249</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D145" s="3">
         <v>3</v>
@@ -9765,7 +9765,7 @@
         <v>249</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D146" s="3">
         <v>6</v>
@@ -9808,7 +9808,7 @@
         <v>241</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D147" s="3">
         <v>5</v>
@@ -9851,7 +9851,7 @@
         <v>241</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D148" s="3">
         <v>45</v>
@@ -9894,7 +9894,7 @@
         <v>241</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D149" s="3">
         <v>32</v>
@@ -9937,7 +9937,7 @@
         <v>246</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D150" s="3">
         <v>24.5</v>
@@ -9946,14 +9946,14 @@
         <v>267</v>
       </c>
       <c r="H150" t="str">
-        <f t="shared" ref="H150:H155" si="92">C150</f>
+        <f t="shared" ref="H150:H154" si="92">C150</f>
         <v>Fierro 1/2" - arequipa</v>
       </c>
       <c r="I150" s="7" t="s">
         <v>266</v>
       </c>
       <c r="J150" s="3">
-        <f t="shared" ref="J150:J155" si="93">D150</f>
+        <f t="shared" ref="J150:J154" si="93">D150</f>
         <v>24.5</v>
       </c>
       <c r="K150" t="s">
@@ -9980,7 +9980,7 @@
         <v>246</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D151" s="3">
         <v>6.5</v>
@@ -10023,7 +10023,7 @@
         <v>246</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D152" s="3">
         <v>14.5</v>
@@ -10066,7 +10066,7 @@
         <v>246</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D153" s="3">
         <v>38</v>
@@ -10109,7 +10109,7 @@
         <v>246</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D154" s="3">
         <v>10.5</v>
@@ -10152,7 +10152,7 @@
         <v>244</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D155" s="3">
         <v>3</v>
@@ -10168,7 +10168,7 @@
         <v>266</v>
       </c>
       <c r="J155" s="3">
-        <f t="shared" ref="J155:J156" si="97">D155</f>
+        <f t="shared" ref="J155" si="97">D155</f>
         <v>3</v>
       </c>
       <c r="K155" t="s">
@@ -10195,7 +10195,7 @@
         <v>241</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D156" s="3">
         <v>3.5</v>
@@ -10257,7 +10257,7 @@
         <v>259</v>
       </c>
       <c r="D4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E4" t="s">
         <v>260</v>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C7">
         <v>70</v>
@@ -10307,7 +10307,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C8">
         <v>70</v>
@@ -10321,7 +10321,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C9">
         <v>80</v>
@@ -10349,7 +10349,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -10363,7 +10363,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -10535,7 +10535,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -10571,17 +10571,17 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
@@ -10591,7 +10591,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
